--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(画面)_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(画面)_A1_プロジェクト管理システム.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EBF672-5F97-4283-8417-E121CB09ABB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="120" windowWidth="17325" windowHeight="12780" tabRatio="822"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -14,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc46209822" localSheetId="3">ja!$B$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ja!$A$1:$AK$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ja!$A$1:$AK$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$33</definedName>
@@ -22,12 +23,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>PJ名</t>
   </si>
@@ -164,10 +173,6 @@
   </si>
   <si>
     <t>サンプルシステム</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>1.0版</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -229,60 +234,217 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>{0}は、{1}より後の日付を入力して下さい。</t>
+    <t>errors.nothing</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>{0}を１件以上選択してください。</t>
-    <rPh sb="5" eb="6">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センタク</t>
+    <t>指定されたデータが存在しません。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>validator.dateRange.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>errors.nothing</t>
+    <t>1. メッセージ設計(日本語)</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>指定されたデータが存在しません。</t>
+    <t>TIS</t>
+  </si>
+  <si>
+    <t>validator.priceRange.message</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>検索結果が上限値{0}件を超えました。検索条件を絞り込んで下さい。</t>
-    <rPh sb="7" eb="8">
-      <t>チ</t>
+    <t>errors.nothing.search</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>条件に一致する{0}がありません。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
     </rPh>
-    <rPh sb="19" eb="21">
-      <t>ケンサク</t>
+    <rPh sb="3" eb="5">
+      <t>イッチ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>errors.upper.limit</t>
+    <t>FROMには、TOより後の日付を入力して下さい。</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>validator.dateRange.message</t>
+    <t>FROMには、TOより大きな金額を入力して下さい。</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>required.select.message</t>
+    <t>## 独自バリデーション</t>
+  </si>
+  <si>
+    <t>## bean validation message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nablarch.core.validation.ee.Required.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>入力してください。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nablarch.core.validation.ee.Domain.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>形式が正しくありません。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nablarch.core.validation.ee.Digits.integer.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>数値を入力してください。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nablarch.core.validation.ee.Digits.fraction.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nablarch.core.validation.ee.Digits.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nablarch.core.validation.ee.Length.min.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>{min}文字以上の値を入力してください。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nablarch.core.validation.ee.Length.max.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>{max}文字以下の値を入力してください。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nablarch.core.validation.ee.Length.min.max.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>{min}文字以上{max}文字以下の値を入力してください。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nablarch.core.validation.ee.Length.fixed.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>{min}文字の値を入力してください。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nablarch.core.validation.ee.NumberRange.min.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>{min}以上の数値を入力してください。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nablarch.core.validation.ee.NumberRange.max.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>{max}以下の数値を入力してください。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nablarch.core.validation.ee.NumberRange.min.max.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>{min}以上{max}以下の数値を入力してください。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nablarch.core.validation.ee.SystemChar.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>不正な文字種の値が指定されました。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nablarch.common.code.validator.ee.CodeValue.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>不正な値が指定されました。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.app.entity.core.validation.validator.YYYYMMDD.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>日付の形式が正しくありません。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.app.entity.core.validation.validator.MoneyRange.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>{min}円から{max}円の範囲で入力してください。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>domainType.projectName.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>プロジェクト名は128文字以下の全角文字で入力してください。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>domainType.userName.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>氏名は128文字以下の全角文字で入力してください。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>domainType.note.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>備考は512文字以下のシステム許容文字で入力してください。</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.0&quot;版&quot;"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -406,7 +568,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +584,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +812,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -818,6 +986,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -935,84 +1106,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1097,95 +1280,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="パーセント 2" xfId="6"/>
+    <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="4"/>
-    <cellStyle name="標準_画面標準" xfId="2"/>
-    <cellStyle name="標準_画面標準定義" xfId="3"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_画面標準" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1208,7 +1356,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -1223,7 +1377,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1307,7 +1467,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1407,7 +1573,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1539,7 +1711,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1902,8 +2074,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S513"/>
@@ -1962,12 +2134,12 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="75">
+      <c r="I25" s="76">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43601</v>
-      </c>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
+        <v>43805</v>
+      </c>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
@@ -2549,8 +2721,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AN34"/>
@@ -2565,57 +2737,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="86" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="92" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="101" t="s">
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="83" t="s">
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="110" t="str">
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="111" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="111"/>
-      <c r="AE1" s="111"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="76">
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="77">
         <f>IF(D8="","",D8)</f>
         <v>43601</v>
       </c>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="79"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -2623,53 +2795,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="83" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="89" t="str">
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="90" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="91"/>
-      <c r="AG2" s="76" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="77">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="78"/>
+        <v>43805</v>
+      </c>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="79"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -2677,45 +2849,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="78"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="79"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -2752,1028 +2924,1040 @@
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="79" t="s">
+      <c r="C7" s="81"/>
+      <c r="D7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="79" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="81"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="79" t="s">
+      <c r="H7" s="82"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="79" t="s">
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="81"/>
-      <c r="AH7" s="81"/>
-      <c r="AI7" s="80"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="81"/>
     </row>
     <row r="8" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="130">
+        <v>1</v>
+      </c>
+      <c r="C8" s="131"/>
+      <c r="D8" s="132">
+        <v>43601</v>
+      </c>
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="128">
-        <v>43601</v>
-      </c>
-      <c r="E8" s="129"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="131" t="s">
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="132"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134" t="s">
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="135"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="137" t="s">
+      <c r="R8" s="142"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="142"/>
+      <c r="X8" s="142"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="142"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="142"/>
+      <c r="AC8" s="142"/>
+      <c r="AD8" s="142"/>
+      <c r="AE8" s="143"/>
+      <c r="AF8" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="138"/>
-      <c r="W8" s="138"/>
-      <c r="X8" s="138"/>
-      <c r="Y8" s="138"/>
-      <c r="Z8" s="138"/>
-      <c r="AA8" s="138"/>
-      <c r="AB8" s="138"/>
-      <c r="AC8" s="138"/>
-      <c r="AD8" s="138"/>
-      <c r="AE8" s="139"/>
-      <c r="AF8" s="134" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG8" s="135"/>
-      <c r="AH8" s="135"/>
-      <c r="AI8" s="136"/>
+      <c r="AG8" s="139"/>
+      <c r="AH8" s="139"/>
+      <c r="AI8" s="140"/>
     </row>
     <row r="9" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="124"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="124"/>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="124"/>
-      <c r="AB9" s="124"/>
-      <c r="AC9" s="124"/>
-      <c r="AD9" s="124"/>
-      <c r="AE9" s="125"/>
-      <c r="AF9" s="120"/>
-      <c r="AG9" s="121"/>
-      <c r="AH9" s="121"/>
-      <c r="AI9" s="122"/>
+      <c r="A9" s="11">
+        <v>2</v>
+      </c>
+      <c r="B9" s="115">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117">
+        <v>43805</v>
+      </c>
+      <c r="E9" s="118"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG9" s="124"/>
+      <c r="AH9" s="124"/>
+      <c r="AI9" s="125"/>
     </row>
     <row r="10" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="124"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="124"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="124"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="124"/>
-      <c r="AE10" s="125"/>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="121"/>
-      <c r="AH10" s="121"/>
-      <c r="AI10" s="122"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="127"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="129"/>
+      <c r="AG10" s="124"/>
+      <c r="AH10" s="124"/>
+      <c r="AI10" s="125"/>
     </row>
     <row r="11" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="124"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="124"/>
-      <c r="AE11" s="125"/>
-      <c r="AF11" s="120"/>
-      <c r="AG11" s="121"/>
-      <c r="AH11" s="121"/>
-      <c r="AI11" s="122"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="128"/>
+      <c r="AF11" s="129"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="125"/>
     </row>
     <row r="12" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="124"/>
-      <c r="S12" s="124"/>
-      <c r="T12" s="124"/>
-      <c r="U12" s="124"/>
-      <c r="V12" s="124"/>
-      <c r="W12" s="124"/>
-      <c r="X12" s="124"/>
-      <c r="Y12" s="124"/>
-      <c r="Z12" s="124"/>
-      <c r="AA12" s="124"/>
-      <c r="AB12" s="124"/>
-      <c r="AC12" s="124"/>
-      <c r="AD12" s="124"/>
-      <c r="AE12" s="125"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="121"/>
-      <c r="AH12" s="121"/>
-      <c r="AI12" s="122"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="127"/>
+      <c r="U12" s="127"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="127"/>
+      <c r="AA12" s="127"/>
+      <c r="AB12" s="127"/>
+      <c r="AC12" s="127"/>
+      <c r="AD12" s="127"/>
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="129"/>
+      <c r="AG12" s="124"/>
+      <c r="AH12" s="124"/>
+      <c r="AI12" s="125"/>
     </row>
     <row r="13" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="124"/>
-      <c r="S13" s="124"/>
-      <c r="T13" s="124"/>
-      <c r="U13" s="124"/>
-      <c r="V13" s="124"/>
-      <c r="W13" s="124"/>
-      <c r="X13" s="124"/>
-      <c r="Y13" s="124"/>
-      <c r="Z13" s="124"/>
-      <c r="AA13" s="124"/>
-      <c r="AB13" s="124"/>
-      <c r="AC13" s="124"/>
-      <c r="AD13" s="124"/>
-      <c r="AE13" s="125"/>
-      <c r="AF13" s="120"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="121"/>
-      <c r="AI13" s="122"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="127"/>
+      <c r="T13" s="127"/>
+      <c r="U13" s="127"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
+      <c r="X13" s="127"/>
+      <c r="Y13" s="127"/>
+      <c r="Z13" s="127"/>
+      <c r="AA13" s="127"/>
+      <c r="AB13" s="127"/>
+      <c r="AC13" s="127"/>
+      <c r="AD13" s="127"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="129"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="124"/>
+      <c r="AI13" s="125"/>
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="124"/>
-      <c r="U14" s="124"/>
-      <c r="V14" s="124"/>
-      <c r="W14" s="124"/>
-      <c r="X14" s="124"/>
-      <c r="Y14" s="124"/>
-      <c r="Z14" s="124"/>
-      <c r="AA14" s="124"/>
-      <c r="AB14" s="124"/>
-      <c r="AC14" s="124"/>
-      <c r="AD14" s="124"/>
-      <c r="AE14" s="125"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="121"/>
-      <c r="AH14" s="121"/>
-      <c r="AI14" s="122"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="127"/>
+      <c r="T14" s="127"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="127"/>
+      <c r="AC14" s="127"/>
+      <c r="AD14" s="127"/>
+      <c r="AE14" s="128"/>
+      <c r="AF14" s="129"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="125"/>
     </row>
     <row r="15" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="124"/>
-      <c r="Z15" s="124"/>
-      <c r="AA15" s="124"/>
-      <c r="AB15" s="124"/>
-      <c r="AC15" s="124"/>
-      <c r="AD15" s="124"/>
-      <c r="AE15" s="125"/>
-      <c r="AF15" s="120"/>
-      <c r="AG15" s="121"/>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="122"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="127"/>
+      <c r="AB15" s="127"/>
+      <c r="AC15" s="127"/>
+      <c r="AD15" s="127"/>
+      <c r="AE15" s="128"/>
+      <c r="AF15" s="129"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="124"/>
+      <c r="AI15" s="125"/>
     </row>
     <row r="16" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124"/>
-      <c r="V16" s="124"/>
-      <c r="W16" s="124"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="124"/>
-      <c r="Z16" s="124"/>
-      <c r="AA16" s="124"/>
-      <c r="AB16" s="124"/>
-      <c r="AC16" s="124"/>
-      <c r="AD16" s="124"/>
-      <c r="AE16" s="125"/>
-      <c r="AF16" s="120"/>
-      <c r="AG16" s="121"/>
-      <c r="AH16" s="121"/>
-      <c r="AI16" s="122"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="128"/>
+      <c r="AF16" s="129"/>
+      <c r="AG16" s="124"/>
+      <c r="AH16" s="124"/>
+      <c r="AI16" s="125"/>
     </row>
     <row r="17" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="124"/>
-      <c r="AC17" s="124"/>
-      <c r="AD17" s="124"/>
-      <c r="AE17" s="125"/>
-      <c r="AF17" s="120"/>
-      <c r="AG17" s="121"/>
-      <c r="AH17" s="121"/>
-      <c r="AI17" s="122"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="129"/>
+      <c r="AG17" s="124"/>
+      <c r="AH17" s="124"/>
+      <c r="AI17" s="125"/>
     </row>
     <row r="18" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
-      <c r="V18" s="124"/>
-      <c r="W18" s="124"/>
-      <c r="X18" s="124"/>
-      <c r="Y18" s="124"/>
-      <c r="Z18" s="124"/>
-      <c r="AA18" s="124"/>
-      <c r="AB18" s="124"/>
-      <c r="AC18" s="124"/>
-      <c r="AD18" s="124"/>
-      <c r="AE18" s="125"/>
-      <c r="AF18" s="120"/>
-      <c r="AG18" s="121"/>
-      <c r="AH18" s="121"/>
-      <c r="AI18" s="122"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="127"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="127"/>
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="129"/>
+      <c r="AG18" s="124"/>
+      <c r="AH18" s="124"/>
+      <c r="AI18" s="125"/>
     </row>
     <row r="19" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="124"/>
-      <c r="T19" s="124"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="124"/>
-      <c r="W19" s="124"/>
-      <c r="X19" s="124"/>
-      <c r="Y19" s="124"/>
-      <c r="Z19" s="124"/>
-      <c r="AA19" s="124"/>
-      <c r="AB19" s="124"/>
-      <c r="AC19" s="124"/>
-      <c r="AD19" s="124"/>
-      <c r="AE19" s="125"/>
-      <c r="AF19" s="120"/>
-      <c r="AG19" s="121"/>
-      <c r="AH19" s="121"/>
-      <c r="AI19" s="122"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="127"/>
+      <c r="U19" s="127"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="127"/>
+      <c r="AC19" s="127"/>
+      <c r="AD19" s="127"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="129"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="125"/>
     </row>
     <row r="20" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="124"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="124"/>
-      <c r="V20" s="124"/>
-      <c r="W20" s="124"/>
-      <c r="X20" s="124"/>
-      <c r="Y20" s="124"/>
-      <c r="Z20" s="124"/>
-      <c r="AA20" s="124"/>
-      <c r="AB20" s="124"/>
-      <c r="AC20" s="124"/>
-      <c r="AD20" s="124"/>
-      <c r="AE20" s="125"/>
-      <c r="AF20" s="120"/>
-      <c r="AG20" s="121"/>
-      <c r="AH20" s="121"/>
-      <c r="AI20" s="122"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="129"/>
+      <c r="AG20" s="124"/>
+      <c r="AH20" s="124"/>
+      <c r="AI20" s="125"/>
     </row>
     <row r="21" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="124"/>
-      <c r="Z21" s="124"/>
-      <c r="AA21" s="124"/>
-      <c r="AB21" s="124"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="125"/>
-      <c r="AF21" s="120"/>
-      <c r="AG21" s="121"/>
-      <c r="AH21" s="121"/>
-      <c r="AI21" s="122"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="127"/>
+      <c r="U21" s="127"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="127"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="127"/>
+      <c r="AC21" s="127"/>
+      <c r="AD21" s="127"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="129"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="124"/>
+      <c r="AI21" s="125"/>
     </row>
     <row r="22" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="124"/>
-      <c r="T22" s="124"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="124"/>
-      <c r="W22" s="124"/>
-      <c r="X22" s="124"/>
-      <c r="Y22" s="124"/>
-      <c r="Z22" s="124"/>
-      <c r="AA22" s="124"/>
-      <c r="AB22" s="124"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="125"/>
-      <c r="AF22" s="120"/>
-      <c r="AG22" s="121"/>
-      <c r="AH22" s="121"/>
-      <c r="AI22" s="122"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="127"/>
+      <c r="U22" s="127"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="127"/>
+      <c r="AD22" s="127"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="129"/>
+      <c r="AG22" s="124"/>
+      <c r="AH22" s="124"/>
+      <c r="AI22" s="125"/>
     </row>
     <row r="23" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="124"/>
-      <c r="S23" s="124"/>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124"/>
-      <c r="V23" s="124"/>
-      <c r="W23" s="124"/>
-      <c r="X23" s="124"/>
-      <c r="Y23" s="124"/>
-      <c r="Z23" s="124"/>
-      <c r="AA23" s="124"/>
-      <c r="AB23" s="124"/>
-      <c r="AC23" s="124"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="125"/>
-      <c r="AF23" s="120"/>
-      <c r="AG23" s="121"/>
-      <c r="AH23" s="121"/>
-      <c r="AI23" s="122"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="127"/>
+      <c r="AC23" s="127"/>
+      <c r="AD23" s="127"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="129"/>
+      <c r="AG23" s="124"/>
+      <c r="AH23" s="124"/>
+      <c r="AI23" s="125"/>
     </row>
     <row r="24" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="124"/>
-      <c r="S24" s="124"/>
-      <c r="T24" s="124"/>
-      <c r="U24" s="124"/>
-      <c r="V24" s="124"/>
-      <c r="W24" s="124"/>
-      <c r="X24" s="124"/>
-      <c r="Y24" s="124"/>
-      <c r="Z24" s="124"/>
-      <c r="AA24" s="124"/>
-      <c r="AB24" s="124"/>
-      <c r="AC24" s="124"/>
-      <c r="AD24" s="124"/>
-      <c r="AE24" s="125"/>
-      <c r="AF24" s="120"/>
-      <c r="AG24" s="121"/>
-      <c r="AH24" s="121"/>
-      <c r="AI24" s="122"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="127"/>
+      <c r="T24" s="127"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="127"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="127"/>
+      <c r="AC24" s="127"/>
+      <c r="AD24" s="127"/>
+      <c r="AE24" s="128"/>
+      <c r="AF24" s="129"/>
+      <c r="AG24" s="124"/>
+      <c r="AH24" s="124"/>
+      <c r="AI24" s="125"/>
     </row>
     <row r="25" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="124"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="124"/>
-      <c r="AA25" s="124"/>
-      <c r="AB25" s="124"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="125"/>
-      <c r="AF25" s="120"/>
-      <c r="AG25" s="121"/>
-      <c r="AH25" s="121"/>
-      <c r="AI25" s="122"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="127"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="127"/>
+      <c r="AA25" s="127"/>
+      <c r="AB25" s="127"/>
+      <c r="AC25" s="127"/>
+      <c r="AD25" s="127"/>
+      <c r="AE25" s="128"/>
+      <c r="AF25" s="129"/>
+      <c r="AG25" s="124"/>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="125"/>
     </row>
     <row r="26" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="124"/>
-      <c r="S26" s="124"/>
-      <c r="T26" s="124"/>
-      <c r="U26" s="124"/>
-      <c r="V26" s="124"/>
-      <c r="W26" s="124"/>
-      <c r="X26" s="124"/>
-      <c r="Y26" s="124"/>
-      <c r="Z26" s="124"/>
-      <c r="AA26" s="124"/>
-      <c r="AB26" s="124"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="124"/>
-      <c r="AE26" s="125"/>
-      <c r="AF26" s="120"/>
-      <c r="AG26" s="121"/>
-      <c r="AH26" s="121"/>
-      <c r="AI26" s="122"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="124"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="127"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="127"/>
+      <c r="AA26" s="127"/>
+      <c r="AB26" s="127"/>
+      <c r="AC26" s="127"/>
+      <c r="AD26" s="127"/>
+      <c r="AE26" s="128"/>
+      <c r="AF26" s="129"/>
+      <c r="AG26" s="124"/>
+      <c r="AH26" s="124"/>
+      <c r="AI26" s="125"/>
     </row>
     <row r="27" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="124"/>
-      <c r="S27" s="124"/>
-      <c r="T27" s="124"/>
-      <c r="U27" s="124"/>
-      <c r="V27" s="124"/>
-      <c r="W27" s="124"/>
-      <c r="X27" s="124"/>
-      <c r="Y27" s="124"/>
-      <c r="Z27" s="124"/>
-      <c r="AA27" s="124"/>
-      <c r="AB27" s="124"/>
-      <c r="AC27" s="124"/>
-      <c r="AD27" s="124"/>
-      <c r="AE27" s="125"/>
-      <c r="AF27" s="120"/>
-      <c r="AG27" s="121"/>
-      <c r="AH27" s="121"/>
-      <c r="AI27" s="122"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="124"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="127"/>
+      <c r="T27" s="127"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="127"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="127"/>
+      <c r="AC27" s="127"/>
+      <c r="AD27" s="127"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="129"/>
+      <c r="AG27" s="124"/>
+      <c r="AH27" s="124"/>
+      <c r="AI27" s="125"/>
     </row>
     <row r="28" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="122"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="124"/>
-      <c r="S28" s="124"/>
-      <c r="T28" s="124"/>
-      <c r="U28" s="124"/>
-      <c r="V28" s="124"/>
-      <c r="W28" s="124"/>
-      <c r="X28" s="124"/>
-      <c r="Y28" s="124"/>
-      <c r="Z28" s="124"/>
-      <c r="AA28" s="124"/>
-      <c r="AB28" s="124"/>
-      <c r="AC28" s="124"/>
-      <c r="AD28" s="124"/>
-      <c r="AE28" s="125"/>
-      <c r="AF28" s="120"/>
-      <c r="AG28" s="121"/>
-      <c r="AH28" s="121"/>
-      <c r="AI28" s="122"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="124"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="127"/>
+      <c r="T28" s="127"/>
+      <c r="U28" s="127"/>
+      <c r="V28" s="127"/>
+      <c r="W28" s="127"/>
+      <c r="X28" s="127"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="127"/>
+      <c r="AA28" s="127"/>
+      <c r="AB28" s="127"/>
+      <c r="AC28" s="127"/>
+      <c r="AD28" s="127"/>
+      <c r="AE28" s="128"/>
+      <c r="AF28" s="129"/>
+      <c r="AG28" s="124"/>
+      <c r="AH28" s="124"/>
+      <c r="AI28" s="125"/>
     </row>
     <row r="29" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="124"/>
-      <c r="S29" s="124"/>
-      <c r="T29" s="124"/>
-      <c r="U29" s="124"/>
-      <c r="V29" s="124"/>
-      <c r="W29" s="124"/>
-      <c r="X29" s="124"/>
-      <c r="Y29" s="124"/>
-      <c r="Z29" s="124"/>
-      <c r="AA29" s="124"/>
-      <c r="AB29" s="124"/>
-      <c r="AC29" s="124"/>
-      <c r="AD29" s="124"/>
-      <c r="AE29" s="125"/>
-      <c r="AF29" s="120"/>
-      <c r="AG29" s="121"/>
-      <c r="AH29" s="121"/>
-      <c r="AI29" s="122"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="124"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
+      <c r="U29" s="127"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="127"/>
+      <c r="X29" s="127"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="127"/>
+      <c r="AA29" s="127"/>
+      <c r="AB29" s="127"/>
+      <c r="AC29" s="127"/>
+      <c r="AD29" s="127"/>
+      <c r="AE29" s="128"/>
+      <c r="AF29" s="129"/>
+      <c r="AG29" s="124"/>
+      <c r="AH29" s="124"/>
+      <c r="AI29" s="125"/>
     </row>
     <row r="30" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="124"/>
-      <c r="S30" s="124"/>
-      <c r="T30" s="124"/>
-      <c r="U30" s="124"/>
-      <c r="V30" s="124"/>
-      <c r="W30" s="124"/>
-      <c r="X30" s="124"/>
-      <c r="Y30" s="124"/>
-      <c r="Z30" s="124"/>
-      <c r="AA30" s="124"/>
-      <c r="AB30" s="124"/>
-      <c r="AC30" s="124"/>
-      <c r="AD30" s="124"/>
-      <c r="AE30" s="125"/>
-      <c r="AF30" s="120"/>
-      <c r="AG30" s="121"/>
-      <c r="AH30" s="121"/>
-      <c r="AI30" s="122"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="127"/>
+      <c r="T30" s="127"/>
+      <c r="U30" s="127"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="127"/>
+      <c r="AA30" s="127"/>
+      <c r="AB30" s="127"/>
+      <c r="AC30" s="127"/>
+      <c r="AD30" s="127"/>
+      <c r="AE30" s="128"/>
+      <c r="AF30" s="129"/>
+      <c r="AG30" s="124"/>
+      <c r="AH30" s="124"/>
+      <c r="AI30" s="125"/>
     </row>
     <row r="31" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="124"/>
-      <c r="S31" s="124"/>
-      <c r="T31" s="124"/>
-      <c r="U31" s="124"/>
-      <c r="V31" s="124"/>
-      <c r="W31" s="124"/>
-      <c r="X31" s="124"/>
-      <c r="Y31" s="124"/>
-      <c r="Z31" s="124"/>
-      <c r="AA31" s="124"/>
-      <c r="AB31" s="124"/>
-      <c r="AC31" s="124"/>
-      <c r="AD31" s="124"/>
-      <c r="AE31" s="125"/>
-      <c r="AF31" s="120"/>
-      <c r="AG31" s="121"/>
-      <c r="AH31" s="121"/>
-      <c r="AI31" s="122"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
+      <c r="M31" s="124"/>
+      <c r="N31" s="124"/>
+      <c r="O31" s="124"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="127"/>
+      <c r="U31" s="127"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="127"/>
+      <c r="X31" s="127"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="127"/>
+      <c r="AA31" s="127"/>
+      <c r="AB31" s="127"/>
+      <c r="AC31" s="127"/>
+      <c r="AD31" s="127"/>
+      <c r="AE31" s="128"/>
+      <c r="AF31" s="129"/>
+      <c r="AG31" s="124"/>
+      <c r="AH31" s="124"/>
+      <c r="AI31" s="125"/>
     </row>
     <row r="32" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="140"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="124"/>
-      <c r="S32" s="124"/>
-      <c r="T32" s="124"/>
-      <c r="U32" s="124"/>
-      <c r="V32" s="124"/>
-      <c r="W32" s="124"/>
-      <c r="X32" s="124"/>
-      <c r="Y32" s="124"/>
-      <c r="Z32" s="124"/>
-      <c r="AA32" s="124"/>
-      <c r="AB32" s="124"/>
-      <c r="AC32" s="124"/>
-      <c r="AD32" s="124"/>
-      <c r="AE32" s="125"/>
-      <c r="AF32" s="120"/>
-      <c r="AG32" s="121"/>
-      <c r="AH32" s="121"/>
-      <c r="AI32" s="122"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="124"/>
+      <c r="N32" s="124"/>
+      <c r="O32" s="124"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="126"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="127"/>
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="127"/>
+      <c r="AC32" s="127"/>
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="128"/>
+      <c r="AF32" s="129"/>
+      <c r="AG32" s="124"/>
+      <c r="AH32" s="124"/>
+      <c r="AI32" s="125"/>
     </row>
     <row r="33" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="121"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="124"/>
-      <c r="S33" s="124"/>
-      <c r="T33" s="124"/>
-      <c r="U33" s="124"/>
-      <c r="V33" s="124"/>
-      <c r="W33" s="124"/>
-      <c r="X33" s="124"/>
-      <c r="Y33" s="124"/>
-      <c r="Z33" s="124"/>
-      <c r="AA33" s="124"/>
-      <c r="AB33" s="124"/>
-      <c r="AC33" s="124"/>
-      <c r="AD33" s="124"/>
-      <c r="AE33" s="125"/>
-      <c r="AF33" s="120"/>
-      <c r="AG33" s="121"/>
-      <c r="AH33" s="121"/>
-      <c r="AI33" s="122"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="124"/>
+      <c r="N33" s="124"/>
+      <c r="O33" s="124"/>
+      <c r="P33" s="125"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="127"/>
+      <c r="T33" s="127"/>
+      <c r="U33" s="127"/>
+      <c r="V33" s="127"/>
+      <c r="W33" s="127"/>
+      <c r="X33" s="127"/>
+      <c r="Y33" s="127"/>
+      <c r="Z33" s="127"/>
+      <c r="AA33" s="127"/>
+      <c r="AB33" s="127"/>
+      <c r="AC33" s="127"/>
+      <c r="AD33" s="127"/>
+      <c r="AE33" s="128"/>
+      <c r="AF33" s="129"/>
+      <c r="AG33" s="124"/>
+      <c r="AH33" s="124"/>
+      <c r="AI33" s="125"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
@@ -3969,8 +4153,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AL49"/>
@@ -4115,163 +4299,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="86" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="92" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="101" t="str">
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="102" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>メッセージ設計書</v>
       </c>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="83" t="s">
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="110" t="str">
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="111"/>
-      <c r="AE1" s="111"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="141">
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="146">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43601</v>
       </c>
-      <c r="AH1" s="142"/>
-      <c r="AI1" s="143"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="148"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="83" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="110" t="str">
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="141" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="146">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="143"/>
+        <v>43805</v>
+      </c>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="148"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="110" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="141" t="str">
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="143"/>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="148"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -4331,7 +4515,7 @@
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
@@ -5650,11 +5834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AN49"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -5666,176 +5850,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="86" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="150" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="152"/>
-      <c r="U1" s="159" t="str">
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="164" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>メッセージ設計書</v>
       </c>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="83" t="s">
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="110" t="str">
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AF1" s="111"/>
-      <c r="AG1" s="111"/>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="141">
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="112"/>
+      <c r="AH1" s="113"/>
+      <c r="AI1" s="146">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43601</v>
       </c>
-      <c r="AJ1" s="142"/>
-      <c r="AK1" s="143"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="148"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="83" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="110" t="str">
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="111"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="141" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="113"/>
+      <c r="AI2" s="146">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="143"/>
+        <v>43805</v>
+      </c>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="148"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="157"/>
-      <c r="S3" s="157"/>
-      <c r="T3" s="158"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="110" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="112"/>
-      <c r="AI3" s="141" t="str">
+      <c r="AF3" s="112"/>
+      <c r="AG3" s="112"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="143"/>
+      <c r="AJ3" s="147"/>
+      <c r="AK3" s="148"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="75" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5844,410 +6028,1244 @@
     </row>
     <row r="7" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="144" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="144" t="s">
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="145"/>
-      <c r="S7" s="145"/>
-      <c r="T7" s="145"/>
-      <c r="U7" s="145"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
-      <c r="Y7" s="145"/>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="145"/>
-      <c r="AB7" s="145"/>
-      <c r="AC7" s="145"/>
-      <c r="AD7" s="145"/>
-      <c r="AE7" s="146"/>
-      <c r="AF7" s="169" t="s">
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="151"/>
+      <c r="AF7" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="145"/>
-      <c r="AH7" s="145"/>
-      <c r="AI7" s="145"/>
-      <c r="AJ7" s="146"/>
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="150"/>
+      <c r="AJ7" s="151"/>
     </row>
     <row r="8" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="73">
         <v>1</v>
       </c>
-      <c r="D8" s="147" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="147" t="s">
+      <c r="D8" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="148"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="148"/>
-      <c r="V8" s="148"/>
-      <c r="W8" s="148"/>
-      <c r="X8" s="148"/>
-      <c r="Y8" s="148"/>
-      <c r="Z8" s="148"/>
-      <c r="AA8" s="148"/>
-      <c r="AB8" s="148"/>
-      <c r="AC8" s="148"/>
-      <c r="AD8" s="148"/>
-      <c r="AE8" s="149"/>
-      <c r="AF8" s="120"/>
-      <c r="AG8" s="121"/>
-      <c r="AH8" s="121"/>
-      <c r="AI8" s="121"/>
-      <c r="AJ8" s="122"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="152" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="153"/>
+      <c r="P8" s="153"/>
+      <c r="Q8" s="153"/>
+      <c r="R8" s="153"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="153"/>
+      <c r="W8" s="153"/>
+      <c r="X8" s="153"/>
+      <c r="Y8" s="153"/>
+      <c r="Z8" s="153"/>
+      <c r="AA8" s="153"/>
+      <c r="AB8" s="153"/>
+      <c r="AC8" s="153"/>
+      <c r="AD8" s="153"/>
+      <c r="AE8" s="154"/>
+      <c r="AF8" s="129"/>
+      <c r="AG8" s="124"/>
+      <c r="AH8" s="124"/>
+      <c r="AI8" s="124"/>
+      <c r="AJ8" s="125"/>
     </row>
     <row r="9" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="73">
+        <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="147" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="147" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="120"/>
-      <c r="AG9" s="121"/>
-      <c r="AH9" s="121"/>
-      <c r="AI9" s="121"/>
-      <c r="AJ9" s="122"/>
-    </row>
-    <row r="10" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="152" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="153"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="153"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="153"/>
+      <c r="AB9" s="153"/>
+      <c r="AC9" s="153"/>
+      <c r="AD9" s="153"/>
+      <c r="AE9" s="154"/>
+      <c r="AF9" s="129"/>
+      <c r="AG9" s="124"/>
+      <c r="AH9" s="124"/>
+      <c r="AI9" s="124"/>
+      <c r="AJ9" s="125"/>
+    </row>
+    <row r="10" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="73">
+        <f t="shared" ref="C10:C12" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="147" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="148"/>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="148"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="148"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="148"/>
-      <c r="AB10" s="148"/>
-      <c r="AC10" s="148"/>
-      <c r="AD10" s="148"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="121"/>
-      <c r="AH10" s="121"/>
-      <c r="AI10" s="121"/>
-      <c r="AJ10" s="122"/>
+      <c r="D10" s="152" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="152" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="153"/>
+      <c r="Y10" s="153"/>
+      <c r="Z10" s="153"/>
+      <c r="AA10" s="153"/>
+      <c r="AB10" s="153"/>
+      <c r="AC10" s="153"/>
+      <c r="AD10" s="153"/>
+      <c r="AE10" s="154"/>
+      <c r="AF10" s="129"/>
+      <c r="AG10" s="124"/>
+      <c r="AH10" s="124"/>
+      <c r="AI10" s="124"/>
+      <c r="AJ10" s="125"/>
     </row>
     <row r="11" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="73">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="147" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="147" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="148"/>
-      <c r="M11" s="148"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="148"/>
-      <c r="AB11" s="148"/>
-      <c r="AC11" s="148"/>
-      <c r="AD11" s="148"/>
-      <c r="AE11" s="149"/>
-      <c r="AF11" s="120"/>
-      <c r="AG11" s="121"/>
-      <c r="AH11" s="121"/>
-      <c r="AI11" s="121"/>
-      <c r="AJ11" s="122"/>
+      <c r="D11" s="152" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="152" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="153"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="153"/>
+      <c r="U11" s="153"/>
+      <c r="V11" s="153"/>
+      <c r="W11" s="153"/>
+      <c r="X11" s="153"/>
+      <c r="Y11" s="153"/>
+      <c r="Z11" s="153"/>
+      <c r="AA11" s="153"/>
+      <c r="AB11" s="153"/>
+      <c r="AC11" s="153"/>
+      <c r="AD11" s="153"/>
+      <c r="AE11" s="154"/>
+      <c r="AF11" s="129"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="124"/>
+      <c r="AJ11" s="125"/>
     </row>
     <row r="12" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="73">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="147" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="147" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="148"/>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="148"/>
-      <c r="AB12" s="148"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="149"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="121"/>
-      <c r="AH12" s="121"/>
-      <c r="AI12" s="121"/>
-      <c r="AJ12" s="122"/>
-    </row>
-    <row r="13" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="73"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="168"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="148"/>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="148"/>
-      <c r="AB13" s="148"/>
-      <c r="AC13" s="148"/>
-      <c r="AD13" s="148"/>
-      <c r="AE13" s="149"/>
-      <c r="AF13" s="120"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="121"/>
-      <c r="AI13" s="121"/>
-      <c r="AJ13" s="122"/>
-    </row>
-    <row r="14" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="73"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="148"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="148"/>
-      <c r="AE14" s="149"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="121"/>
-      <c r="AH14" s="121"/>
-      <c r="AI14" s="121"/>
-      <c r="AJ14" s="122"/>
-    </row>
-    <row r="15" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="73"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="148"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="148"/>
-      <c r="P15" s="148"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="148"/>
-      <c r="S15" s="148"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="148"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="148"/>
-      <c r="X15" s="148"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="148"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="148"/>
-      <c r="AD15" s="148"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="120"/>
-      <c r="AG15" s="121"/>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="121"/>
-      <c r="AJ15" s="122"/>
-    </row>
-    <row r="16" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D12" s="152" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="152" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="153"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="153"/>
+      <c r="V12" s="153"/>
+      <c r="W12" s="153"/>
+      <c r="X12" s="153"/>
+      <c r="Y12" s="153"/>
+      <c r="Z12" s="153"/>
+      <c r="AA12" s="153"/>
+      <c r="AB12" s="153"/>
+      <c r="AC12" s="153"/>
+      <c r="AD12" s="153"/>
+      <c r="AE12" s="154"/>
+      <c r="AF12" s="129"/>
+      <c r="AG12" s="124"/>
+      <c r="AH12" s="124"/>
+      <c r="AI12" s="124"/>
+      <c r="AJ12" s="125"/>
+    </row>
+    <row r="13" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="181" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="175"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="176"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="176"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="176"/>
+      <c r="X13" s="176"/>
+      <c r="Y13" s="176"/>
+      <c r="Z13" s="176"/>
+      <c r="AA13" s="176"/>
+      <c r="AB13" s="176"/>
+      <c r="AC13" s="176"/>
+      <c r="AD13" s="176"/>
+      <c r="AE13" s="177"/>
+      <c r="AF13" s="178"/>
+      <c r="AG13" s="179"/>
+      <c r="AH13" s="179"/>
+      <c r="AI13" s="179"/>
+      <c r="AJ13" s="180"/>
+    </row>
+    <row r="14" spans="1:40" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="73">
+        <f>C12+1</f>
+        <v>6</v>
+      </c>
+      <c r="D14" s="182" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="152" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="153"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="153"/>
+      <c r="X14" s="153"/>
+      <c r="Y14" s="153"/>
+      <c r="Z14" s="153"/>
+      <c r="AA14" s="153"/>
+      <c r="AB14" s="153"/>
+      <c r="AC14" s="153"/>
+      <c r="AD14" s="153"/>
+      <c r="AE14" s="154"/>
+      <c r="AF14" s="129"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="124"/>
+      <c r="AJ14" s="125"/>
+    </row>
+    <row r="15" spans="1:40" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="73">
+        <f t="shared" ref="C14:C27" si="1">C14+1</f>
+        <v>7</v>
+      </c>
+      <c r="D15" s="182" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="152" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="153"/>
+      <c r="U15" s="153"/>
+      <c r="V15" s="153"/>
+      <c r="W15" s="153"/>
+      <c r="X15" s="153"/>
+      <c r="Y15" s="153"/>
+      <c r="Z15" s="153"/>
+      <c r="AA15" s="153"/>
+      <c r="AB15" s="153"/>
+      <c r="AC15" s="153"/>
+      <c r="AD15" s="153"/>
+      <c r="AE15" s="154"/>
+      <c r="AF15" s="129"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="124"/>
+      <c r="AI15" s="124"/>
+      <c r="AJ15" s="125"/>
+    </row>
+    <row r="16" spans="1:40" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="73">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D16" s="182" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="184"/>
+      <c r="K16" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="153"/>
+      <c r="V16" s="153"/>
+      <c r="W16" s="153"/>
+      <c r="X16" s="153"/>
+      <c r="Y16" s="153"/>
+      <c r="Z16" s="153"/>
+      <c r="AA16" s="153"/>
+      <c r="AB16" s="153"/>
+      <c r="AC16" s="153"/>
+      <c r="AD16" s="153"/>
+      <c r="AE16" s="154"/>
+      <c r="AF16" s="129"/>
+      <c r="AG16" s="124"/>
+      <c r="AH16" s="124"/>
+      <c r="AI16" s="124"/>
+      <c r="AJ16" s="125"/>
+    </row>
+    <row r="17" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="73">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="182" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="184"/>
+      <c r="K17" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="153"/>
+      <c r="V17" s="153"/>
+      <c r="W17" s="153"/>
+      <c r="X17" s="153"/>
+      <c r="Y17" s="153"/>
+      <c r="Z17" s="153"/>
+      <c r="AA17" s="153"/>
+      <c r="AB17" s="153"/>
+      <c r="AC17" s="153"/>
+      <c r="AD17" s="153"/>
+      <c r="AE17" s="154"/>
+      <c r="AF17" s="129"/>
+      <c r="AG17" s="124"/>
+      <c r="AH17" s="124"/>
+      <c r="AI17" s="124"/>
+      <c r="AJ17" s="125"/>
+    </row>
+    <row r="18" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="73">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D18" s="182" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="153"/>
+      <c r="U18" s="153"/>
+      <c r="V18" s="153"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="153"/>
+      <c r="Y18" s="153"/>
+      <c r="Z18" s="153"/>
+      <c r="AA18" s="153"/>
+      <c r="AB18" s="153"/>
+      <c r="AC18" s="153"/>
+      <c r="AD18" s="153"/>
+      <c r="AE18" s="154"/>
+      <c r="AF18" s="129"/>
+      <c r="AG18" s="124"/>
+      <c r="AH18" s="124"/>
+      <c r="AI18" s="124"/>
+      <c r="AJ18" s="125"/>
+    </row>
+    <row r="19" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="73">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D19" s="182" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="184"/>
+      <c r="K19" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="153"/>
+      <c r="T19" s="153"/>
+      <c r="U19" s="153"/>
+      <c r="V19" s="153"/>
+      <c r="W19" s="153"/>
+      <c r="X19" s="153"/>
+      <c r="Y19" s="153"/>
+      <c r="Z19" s="153"/>
+      <c r="AA19" s="153"/>
+      <c r="AB19" s="153"/>
+      <c r="AC19" s="153"/>
+      <c r="AD19" s="153"/>
+      <c r="AE19" s="154"/>
+      <c r="AF19" s="129"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="124"/>
+      <c r="AJ19" s="125"/>
+    </row>
+    <row r="20" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="73">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D20" s="182" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="184"/>
+      <c r="K20" s="152" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="153"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="153"/>
+      <c r="T20" s="153"/>
+      <c r="U20" s="153"/>
+      <c r="V20" s="153"/>
+      <c r="W20" s="153"/>
+      <c r="X20" s="153"/>
+      <c r="Y20" s="153"/>
+      <c r="Z20" s="153"/>
+      <c r="AA20" s="153"/>
+      <c r="AB20" s="153"/>
+      <c r="AC20" s="153"/>
+      <c r="AD20" s="153"/>
+      <c r="AE20" s="154"/>
+      <c r="AF20" s="129"/>
+      <c r="AG20" s="124"/>
+      <c r="AH20" s="124"/>
+      <c r="AI20" s="124"/>
+      <c r="AJ20" s="125"/>
+    </row>
+    <row r="21" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="73">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D21" s="182" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="184"/>
+      <c r="K21" s="152" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="153"/>
+      <c r="U21" s="153"/>
+      <c r="V21" s="153"/>
+      <c r="W21" s="153"/>
+      <c r="X21" s="153"/>
+      <c r="Y21" s="153"/>
+      <c r="Z21" s="153"/>
+      <c r="AA21" s="153"/>
+      <c r="AB21" s="153"/>
+      <c r="AC21" s="153"/>
+      <c r="AD21" s="153"/>
+      <c r="AE21" s="154"/>
+      <c r="AF21" s="129"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="124"/>
+      <c r="AI21" s="124"/>
+      <c r="AJ21" s="125"/>
+    </row>
+    <row r="22" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="73">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D22" s="182" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="184"/>
+      <c r="K22" s="152" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="153"/>
+      <c r="T22" s="153"/>
+      <c r="U22" s="153"/>
+      <c r="V22" s="153"/>
+      <c r="W22" s="153"/>
+      <c r="X22" s="153"/>
+      <c r="Y22" s="153"/>
+      <c r="Z22" s="153"/>
+      <c r="AA22" s="153"/>
+      <c r="AB22" s="153"/>
+      <c r="AC22" s="153"/>
+      <c r="AD22" s="153"/>
+      <c r="AE22" s="154"/>
+      <c r="AF22" s="129"/>
+      <c r="AG22" s="124"/>
+      <c r="AH22" s="124"/>
+      <c r="AI22" s="124"/>
+      <c r="AJ22" s="125"/>
+    </row>
+    <row r="23" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="73">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D23" s="182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="184"/>
+      <c r="K23" s="152" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="153"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="153"/>
+      <c r="T23" s="153"/>
+      <c r="U23" s="153"/>
+      <c r="V23" s="153"/>
+      <c r="W23" s="153"/>
+      <c r="X23" s="153"/>
+      <c r="Y23" s="153"/>
+      <c r="Z23" s="153"/>
+      <c r="AA23" s="153"/>
+      <c r="AB23" s="153"/>
+      <c r="AC23" s="153"/>
+      <c r="AD23" s="153"/>
+      <c r="AE23" s="154"/>
+      <c r="AF23" s="129"/>
+      <c r="AG23" s="124"/>
+      <c r="AH23" s="124"/>
+      <c r="AI23" s="124"/>
+      <c r="AJ23" s="125"/>
+    </row>
+    <row r="24" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="73">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D24" s="182" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="184"/>
+      <c r="K24" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="153"/>
+      <c r="T24" s="153"/>
+      <c r="U24" s="153"/>
+      <c r="V24" s="153"/>
+      <c r="W24" s="153"/>
+      <c r="X24" s="153"/>
+      <c r="Y24" s="153"/>
+      <c r="Z24" s="153"/>
+      <c r="AA24" s="153"/>
+      <c r="AB24" s="153"/>
+      <c r="AC24" s="153"/>
+      <c r="AD24" s="153"/>
+      <c r="AE24" s="154"/>
+      <c r="AF24" s="129"/>
+      <c r="AG24" s="124"/>
+      <c r="AH24" s="124"/>
+      <c r="AI24" s="124"/>
+      <c r="AJ24" s="125"/>
+    </row>
+    <row r="25" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="73">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D25" s="182" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="184"/>
+      <c r="K25" s="152" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="153"/>
+      <c r="O25" s="153"/>
+      <c r="P25" s="153"/>
+      <c r="Q25" s="153"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="153"/>
+      <c r="T25" s="153"/>
+      <c r="U25" s="153"/>
+      <c r="V25" s="153"/>
+      <c r="W25" s="153"/>
+      <c r="X25" s="153"/>
+      <c r="Y25" s="153"/>
+      <c r="Z25" s="153"/>
+      <c r="AA25" s="153"/>
+      <c r="AB25" s="153"/>
+      <c r="AC25" s="153"/>
+      <c r="AD25" s="153"/>
+      <c r="AE25" s="154"/>
+      <c r="AF25" s="129"/>
+      <c r="AG25" s="124"/>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="124"/>
+      <c r="AJ25" s="125"/>
+    </row>
+    <row r="26" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="73">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D26" s="182" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="184"/>
+      <c r="K26" s="152" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="153"/>
+      <c r="T26" s="153"/>
+      <c r="U26" s="153"/>
+      <c r="V26" s="153"/>
+      <c r="W26" s="153"/>
+      <c r="X26" s="153"/>
+      <c r="Y26" s="153"/>
+      <c r="Z26" s="153"/>
+      <c r="AA26" s="153"/>
+      <c r="AB26" s="153"/>
+      <c r="AC26" s="153"/>
+      <c r="AD26" s="153"/>
+      <c r="AE26" s="154"/>
+      <c r="AF26" s="129"/>
+      <c r="AG26" s="124"/>
+      <c r="AH26" s="124"/>
+      <c r="AI26" s="124"/>
+      <c r="AJ26" s="125"/>
+    </row>
+    <row r="27" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="73">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D27" s="182" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="184"/>
+      <c r="K27" s="152" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" s="153"/>
+      <c r="M27" s="153"/>
+      <c r="N27" s="153"/>
+      <c r="O27" s="153"/>
+      <c r="P27" s="153"/>
+      <c r="Q27" s="153"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="153"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="153"/>
+      <c r="V27" s="153"/>
+      <c r="W27" s="153"/>
+      <c r="X27" s="153"/>
+      <c r="Y27" s="153"/>
+      <c r="Z27" s="153"/>
+      <c r="AA27" s="153"/>
+      <c r="AB27" s="153"/>
+      <c r="AC27" s="153"/>
+      <c r="AD27" s="153"/>
+      <c r="AE27" s="154"/>
+      <c r="AF27" s="129"/>
+      <c r="AG27" s="124"/>
+      <c r="AH27" s="124"/>
+      <c r="AI27" s="124"/>
+      <c r="AJ27" s="125"/>
+    </row>
+    <row r="28" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="174" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="175"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="176"/>
+      <c r="N28" s="176"/>
+      <c r="O28" s="176"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="176"/>
+      <c r="R28" s="176"/>
+      <c r="S28" s="176"/>
+      <c r="T28" s="176"/>
+      <c r="U28" s="176"/>
+      <c r="V28" s="176"/>
+      <c r="W28" s="176"/>
+      <c r="X28" s="176"/>
+      <c r="Y28" s="176"/>
+      <c r="Z28" s="176"/>
+      <c r="AA28" s="176"/>
+      <c r="AB28" s="176"/>
+      <c r="AC28" s="176"/>
+      <c r="AD28" s="176"/>
+      <c r="AE28" s="177"/>
+      <c r="AF28" s="178"/>
+      <c r="AG28" s="179"/>
+      <c r="AH28" s="179"/>
+      <c r="AI28" s="179"/>
+      <c r="AJ28" s="180"/>
+    </row>
+    <row r="29" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="73">
+        <f>C27+1</f>
+        <v>20</v>
+      </c>
+      <c r="D29" s="182" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="184"/>
+      <c r="K29" s="152" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="153"/>
+      <c r="O29" s="153"/>
+      <c r="P29" s="153"/>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="153"/>
+      <c r="T29" s="153"/>
+      <c r="U29" s="153"/>
+      <c r="V29" s="153"/>
+      <c r="W29" s="153"/>
+      <c r="X29" s="153"/>
+      <c r="Y29" s="153"/>
+      <c r="Z29" s="153"/>
+      <c r="AA29" s="153"/>
+      <c r="AB29" s="153"/>
+      <c r="AC29" s="153"/>
+      <c r="AD29" s="153"/>
+      <c r="AE29" s="154"/>
+      <c r="AF29" s="129"/>
+      <c r="AG29" s="124"/>
+      <c r="AH29" s="124"/>
+      <c r="AI29" s="124"/>
+      <c r="AJ29" s="125"/>
+    </row>
+    <row r="30" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="73">
+        <f t="shared" ref="C29:C33" si="2">C29+1</f>
+        <v>21</v>
+      </c>
+      <c r="D30" s="182" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="184"/>
+      <c r="K30" s="152" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
+      <c r="N30" s="153"/>
+      <c r="O30" s="153"/>
+      <c r="P30" s="153"/>
+      <c r="Q30" s="153"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="153"/>
+      <c r="T30" s="153"/>
+      <c r="U30" s="153"/>
+      <c r="V30" s="153"/>
+      <c r="W30" s="153"/>
+      <c r="X30" s="153"/>
+      <c r="Y30" s="153"/>
+      <c r="Z30" s="153"/>
+      <c r="AA30" s="153"/>
+      <c r="AB30" s="153"/>
+      <c r="AC30" s="153"/>
+      <c r="AD30" s="153"/>
+      <c r="AE30" s="154"/>
+      <c r="AF30" s="129"/>
+      <c r="AG30" s="124"/>
+      <c r="AH30" s="124"/>
+      <c r="AI30" s="124"/>
+      <c r="AJ30" s="125"/>
+    </row>
+    <row r="31" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="73">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D31" s="182" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="184"/>
+      <c r="K31" s="152" t="s">
+        <v>79</v>
+      </c>
+      <c r="L31" s="153"/>
+      <c r="M31" s="153"/>
+      <c r="N31" s="153"/>
+      <c r="O31" s="153"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="153"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="153"/>
+      <c r="T31" s="153"/>
+      <c r="U31" s="153"/>
+      <c r="V31" s="153"/>
+      <c r="W31" s="153"/>
+      <c r="X31" s="153"/>
+      <c r="Y31" s="153"/>
+      <c r="Z31" s="153"/>
+      <c r="AA31" s="153"/>
+      <c r="AB31" s="153"/>
+      <c r="AC31" s="153"/>
+      <c r="AD31" s="153"/>
+      <c r="AE31" s="154"/>
+      <c r="AF31" s="129"/>
+      <c r="AG31" s="124"/>
+      <c r="AH31" s="124"/>
+      <c r="AI31" s="124"/>
+      <c r="AJ31" s="125"/>
+    </row>
+    <row r="32" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="73">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D32" s="182" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="183"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="152" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
+      <c r="N32" s="153"/>
+      <c r="O32" s="153"/>
+      <c r="P32" s="153"/>
+      <c r="Q32" s="153"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="153"/>
+      <c r="T32" s="153"/>
+      <c r="U32" s="153"/>
+      <c r="V32" s="153"/>
+      <c r="W32" s="153"/>
+      <c r="X32" s="153"/>
+      <c r="Y32" s="153"/>
+      <c r="Z32" s="153"/>
+      <c r="AA32" s="153"/>
+      <c r="AB32" s="153"/>
+      <c r="AC32" s="153"/>
+      <c r="AD32" s="153"/>
+      <c r="AE32" s="154"/>
+      <c r="AF32" s="129"/>
+      <c r="AG32" s="124"/>
+      <c r="AH32" s="124"/>
+      <c r="AI32" s="124"/>
+      <c r="AJ32" s="125"/>
+    </row>
+    <row r="33" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="73">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D33" s="182" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="152" t="s">
+        <v>83</v>
+      </c>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
+      <c r="N33" s="153"/>
+      <c r="O33" s="153"/>
+      <c r="P33" s="153"/>
+      <c r="Q33" s="153"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="153"/>
+      <c r="T33" s="153"/>
+      <c r="U33" s="153"/>
+      <c r="V33" s="153"/>
+      <c r="W33" s="153"/>
+      <c r="X33" s="153"/>
+      <c r="Y33" s="153"/>
+      <c r="Z33" s="153"/>
+      <c r="AA33" s="153"/>
+      <c r="AB33" s="153"/>
+      <c r="AC33" s="153"/>
+      <c r="AD33" s="153"/>
+      <c r="AE33" s="154"/>
+      <c r="AF33" s="129"/>
+      <c r="AG33" s="124"/>
+      <c r="AH33" s="124"/>
+      <c r="AI33" s="124"/>
+      <c r="AJ33" s="125"/>
+    </row>
+    <row r="34" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="AF13:AJ13"/>
+  <mergeCells count="92">
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:AE33"/>
+    <mergeCell ref="AF33:AJ33"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:AE31"/>
+    <mergeCell ref="AF31:AJ31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:AE32"/>
+    <mergeCell ref="AF32:AJ32"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:AE29"/>
+    <mergeCell ref="AF29:AJ29"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:AE30"/>
+    <mergeCell ref="AF30:AJ30"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AE26"/>
+    <mergeCell ref="AF26:AJ26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:AE27"/>
+    <mergeCell ref="AF27:AJ27"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AE24"/>
+    <mergeCell ref="AF24:AJ24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:AE25"/>
+    <mergeCell ref="AF25:AJ25"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:AE22"/>
+    <mergeCell ref="AF22:AJ22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:AE23"/>
+    <mergeCell ref="AF23:AJ23"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:AE20"/>
+    <mergeCell ref="AF20:AJ20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:AE21"/>
+    <mergeCell ref="AF21:AJ21"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:AE18"/>
+    <mergeCell ref="AF18:AJ18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="K19:AE19"/>
+    <mergeCell ref="AF19:AJ19"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="K16:AE16"/>
+    <mergeCell ref="AF16:AJ16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:AE17"/>
+    <mergeCell ref="AF17:AJ17"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="K14:AE14"/>
     <mergeCell ref="AF14:AJ14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:AE15"/>
     <mergeCell ref="AF15:AJ15"/>
+    <mergeCell ref="K10:AE10"/>
+    <mergeCell ref="AF10:AJ10"/>
     <mergeCell ref="AF7:AJ7"/>
     <mergeCell ref="AF8:AJ8"/>
     <mergeCell ref="AF11:AJ11"/>
+    <mergeCell ref="AF9:AJ9"/>
     <mergeCell ref="AF12:AJ12"/>
-    <mergeCell ref="AF9:AJ9"/>
-    <mergeCell ref="AF10:AJ10"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
     <mergeCell ref="K11:AE11"/>
+    <mergeCell ref="K9:AE9"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D12:J12"/>
     <mergeCell ref="K12:AE12"/>
-    <mergeCell ref="K9:AE9"/>
-    <mergeCell ref="K10:AE10"/>
-    <mergeCell ref="K13:AE13"/>
-    <mergeCell ref="K14:AE14"/>
-    <mergeCell ref="K15:AE15"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D13:J13"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="K7:AE7"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(画面)_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(画面)_A1_プロジェクト管理システム.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EBF672-5F97-4283-8417-E121CB09ABB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49F78C1-4C07-4378-A7C1-DA9E330E221E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc46209822" localSheetId="3">ja!$B$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ja!$A$1:$AK$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ja!$A$1:$AK$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$33</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>PJ名</t>
   </si>
@@ -122,16 +122,6 @@
   <si>
     <t>No.</t>
     <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -435,6 +425,34 @@
   <si>
     <t>備考は512文字以下のシステム許容文字で入力してください。</t>
     <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.app.entity.core.validation.validator.DateRelationUtil.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>終了日には、開始日より後の日付を入力して下さい。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>不足メッセージを追加</t>
+    <rPh sb="0" eb="2">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -812,7 +830,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -989,9 +1007,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1106,99 +1241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1208,24 +1250,36 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1280,40 +1334,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2122,7 +2143,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="6" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2134,12 +2155,12 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="76">
+      <c r="I25" s="84">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43805</v>
-      </c>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
+        <v>44819</v>
+      </c>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
@@ -2737,57 +2758,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="93" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="132" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="111" t="str">
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="150" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="77">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="116">
         <f>IF(D8="","",D8)</f>
         <v>43601</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="79"/>
+      <c r="AH1" s="117"/>
+      <c r="AI1" s="118"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -2795,53 +2816,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="90" t="str">
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="123" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="129" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="77">
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="116">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43805</v>
-      </c>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="79"/>
+        <v>44819</v>
+      </c>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="118"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -2849,45 +2870,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="79"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="153" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="118"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -2924,1202 +2945,1048 @@
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="80" t="s">
+      <c r="C7" s="120"/>
+      <c r="D7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="80" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="80" t="s">
+      <c r="H7" s="121"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="80" t="s">
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="121"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="121"/>
+      <c r="AE7" s="120"/>
+      <c r="AF7" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="81"/>
+      <c r="AG7" s="121"/>
+      <c r="AH7" s="121"/>
+      <c r="AI7" s="120"/>
     </row>
     <row r="8" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B8" s="130">
+      <c r="B8" s="102">
         <v>1</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132">
+      <c r="C8" s="103"/>
+      <c r="D8" s="104">
         <v>43601</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135" t="s">
+      <c r="E8" s="105"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138" t="s">
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="141" t="s">
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="114"/>
+      <c r="Z8" s="114"/>
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="114"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="114"/>
+      <c r="AE8" s="115"/>
+      <c r="AF8" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="142"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="142"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="138" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG8" s="139"/>
-      <c r="AH8" s="139"/>
-      <c r="AI8" s="140"/>
+      <c r="AG8" s="111"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="112"/>
     </row>
     <row r="9" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>2</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="98">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117">
-        <v>43805</v>
-      </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120" t="s">
+      <c r="C9" s="99"/>
+      <c r="D9" s="87">
+        <v>44819</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="90"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="123" t="s">
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="185" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="128"/>
-      <c r="AF9" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG9" s="124"/>
-      <c r="AH9" s="124"/>
-      <c r="AI9" s="125"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="93"/>
     </row>
     <row r="10" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="129"/>
-      <c r="AG10" s="124"/>
-      <c r="AH10" s="124"/>
-      <c r="AI10" s="125"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="93"/>
     </row>
     <row r="11" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="127"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="127"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="127"/>
-      <c r="AE11" s="128"/>
-      <c r="AF11" s="129"/>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="124"/>
-      <c r="AI11" s="125"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="93"/>
     </row>
     <row r="12" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="127"/>
-      <c r="T12" s="127"/>
-      <c r="U12" s="127"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="127"/>
-      <c r="AE12" s="128"/>
-      <c r="AF12" s="129"/>
-      <c r="AG12" s="124"/>
-      <c r="AH12" s="124"/>
-      <c r="AI12" s="125"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="93"/>
     </row>
     <row r="13" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="124"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="128"/>
-      <c r="AF13" s="129"/>
-      <c r="AG13" s="124"/>
-      <c r="AH13" s="124"/>
-      <c r="AI13" s="125"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="93"/>
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="127"/>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="128"/>
-      <c r="AF14" s="129"/>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="125"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="96"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="93"/>
     </row>
     <row r="15" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="127"/>
-      <c r="AE15" s="128"/>
-      <c r="AF15" s="129"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="125"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="93"/>
     </row>
     <row r="16" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="128"/>
-      <c r="AF16" s="129"/>
-      <c r="AG16" s="124"/>
-      <c r="AH16" s="124"/>
-      <c r="AI16" s="125"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="93"/>
     </row>
     <row r="17" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="127"/>
-      <c r="AE17" s="128"/>
-      <c r="AF17" s="129"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="124"/>
-      <c r="AI17" s="125"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="91"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="93"/>
     </row>
     <row r="18" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="127"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="127"/>
-      <c r="AE18" s="128"/>
-      <c r="AF18" s="129"/>
-      <c r="AG18" s="124"/>
-      <c r="AH18" s="124"/>
-      <c r="AI18" s="125"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="93"/>
     </row>
     <row r="19" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="127"/>
-      <c r="T19" s="127"/>
-      <c r="U19" s="127"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="127"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="127"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="129"/>
-      <c r="AG19" s="124"/>
-      <c r="AH19" s="124"/>
-      <c r="AI19" s="125"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="93"/>
     </row>
     <row r="20" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="127"/>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="128"/>
-      <c r="AF20" s="129"/>
-      <c r="AG20" s="124"/>
-      <c r="AH20" s="124"/>
-      <c r="AI20" s="125"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="93"/>
     </row>
     <row r="21" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="127"/>
-      <c r="U21" s="127"/>
-      <c r="V21" s="127"/>
-      <c r="W21" s="127"/>
-      <c r="X21" s="127"/>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="127"/>
-      <c r="AC21" s="127"/>
-      <c r="AD21" s="127"/>
-      <c r="AE21" s="128"/>
-      <c r="AF21" s="129"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="125"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="96"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="92"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="93"/>
     </row>
     <row r="22" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
-      <c r="U22" s="127"/>
-      <c r="V22" s="127"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="127"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="129"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="125"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="91"/>
+      <c r="AG22" s="92"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="93"/>
     </row>
     <row r="23" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="124"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="127"/>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="127"/>
-      <c r="AC23" s="127"/>
-      <c r="AD23" s="127"/>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="129"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="125"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="91"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="93"/>
     </row>
     <row r="24" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="124"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="127"/>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="127"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="128"/>
-      <c r="AF24" s="129"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="125"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="96"/>
+      <c r="AF24" s="91"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="93"/>
     </row>
     <row r="25" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="127"/>
-      <c r="T25" s="127"/>
-      <c r="U25" s="127"/>
-      <c r="V25" s="127"/>
-      <c r="W25" s="127"/>
-      <c r="X25" s="127"/>
-      <c r="Y25" s="127"/>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="127"/>
-      <c r="AC25" s="127"/>
-      <c r="AD25" s="127"/>
-      <c r="AE25" s="128"/>
-      <c r="AF25" s="129"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="125"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="91"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="93"/>
     </row>
     <row r="26" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="124"/>
-      <c r="N26" s="124"/>
-      <c r="O26" s="124"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="128"/>
-      <c r="AF26" s="129"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="125"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="91"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="93"/>
     </row>
     <row r="27" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="124"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="124"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="127"/>
-      <c r="T27" s="127"/>
-      <c r="U27" s="127"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="127"/>
-      <c r="Z27" s="127"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="127"/>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="127"/>
-      <c r="AE27" s="128"/>
-      <c r="AF27" s="129"/>
-      <c r="AG27" s="124"/>
-      <c r="AH27" s="124"/>
-      <c r="AI27" s="125"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="91"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="93"/>
     </row>
     <row r="28" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="124"/>
-      <c r="N28" s="124"/>
-      <c r="O28" s="124"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="127"/>
-      <c r="U28" s="127"/>
-      <c r="V28" s="127"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="127"/>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="127"/>
-      <c r="AE28" s="128"/>
-      <c r="AF28" s="129"/>
-      <c r="AG28" s="124"/>
-      <c r="AH28" s="124"/>
-      <c r="AI28" s="125"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="91"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="93"/>
     </row>
     <row r="29" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="124"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="125"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="127"/>
-      <c r="U29" s="127"/>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="127"/>
-      <c r="AC29" s="127"/>
-      <c r="AD29" s="127"/>
-      <c r="AE29" s="128"/>
-      <c r="AF29" s="129"/>
-      <c r="AG29" s="124"/>
-      <c r="AH29" s="124"/>
-      <c r="AI29" s="125"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="91"/>
+      <c r="AG29" s="92"/>
+      <c r="AH29" s="92"/>
+      <c r="AI29" s="93"/>
     </row>
     <row r="30" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="124"/>
-      <c r="N30" s="124"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="125"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="127"/>
-      <c r="U30" s="127"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="127"/>
-      <c r="AC30" s="127"/>
-      <c r="AD30" s="127"/>
-      <c r="AE30" s="128"/>
-      <c r="AF30" s="129"/>
-      <c r="AG30" s="124"/>
-      <c r="AH30" s="124"/>
-      <c r="AI30" s="125"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="91"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="93"/>
     </row>
     <row r="31" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="124"/>
-      <c r="N31" s="124"/>
-      <c r="O31" s="124"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="127"/>
-      <c r="U31" s="127"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="127"/>
-      <c r="AC31" s="127"/>
-      <c r="AD31" s="127"/>
-      <c r="AE31" s="128"/>
-      <c r="AF31" s="129"/>
-      <c r="AG31" s="124"/>
-      <c r="AH31" s="124"/>
-      <c r="AI31" s="125"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="91"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="93"/>
     </row>
     <row r="32" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="124"/>
-      <c r="N32" s="124"/>
-      <c r="O32" s="124"/>
-      <c r="P32" s="125"/>
-      <c r="Q32" s="126"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="128"/>
-      <c r="AF32" s="129"/>
-      <c r="AG32" s="124"/>
-      <c r="AH32" s="124"/>
-      <c r="AI32" s="125"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="96"/>
+      <c r="AF32" s="91"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="93"/>
     </row>
     <row r="33" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="124"/>
-      <c r="N33" s="124"/>
-      <c r="O33" s="124"/>
-      <c r="P33" s="125"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="127"/>
-      <c r="T33" s="127"/>
-      <c r="U33" s="127"/>
-      <c r="V33" s="127"/>
-      <c r="W33" s="127"/>
-      <c r="X33" s="127"/>
-      <c r="Y33" s="127"/>
-      <c r="Z33" s="127"/>
-      <c r="AA33" s="127"/>
-      <c r="AB33" s="127"/>
-      <c r="AC33" s="127"/>
-      <c r="AD33" s="127"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="129"/>
-      <c r="AG33" s="124"/>
-      <c r="AH33" s="124"/>
-      <c r="AI33" s="125"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="93"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4143,6 +4010,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -4299,163 +4322,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="102" t="str">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="132" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>メッセージ設計書</v>
       </c>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="111" t="str">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="146">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="154">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43601</v>
       </c>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="156"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="111" t="str">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="123" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="146">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="154">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43805</v>
-      </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
+        <v>44819</v>
+      </c>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="156"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="111" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="146" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="156"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -4515,7 +4538,7 @@
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
@@ -4576,7 +4599,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -5807,6 +5830,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -5816,14 +5847,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -5838,7 +5861,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN49"/>
+  <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -5850,169 +5873,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="155" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="164" t="str">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>メッセージ設計書</v>
       </c>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="84" t="s">
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="111" t="str">
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="146">
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="151"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="154">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43601</v>
       </c>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="148"/>
+      <c r="AJ1" s="155"/>
+      <c r="AK1" s="156"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="84" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="179"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="180"/>
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="111" t="str">
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="146">
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="151"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="154">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43805</v>
-      </c>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="148"/>
+        <v>44819</v>
+      </c>
+      <c r="AJ2" s="155"/>
+      <c r="AK2" s="156"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="111" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="146" t="str">
+      <c r="AF3" s="151"/>
+      <c r="AG3" s="151"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AJ3" s="147"/>
-      <c r="AK3" s="148"/>
+      <c r="AJ3" s="155"/>
+      <c r="AK3" s="156"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
@@ -6020,7 +6043,7 @@
     <row r="4" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6028,1156 +6051,1198 @@
     </row>
     <row r="7" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="149" t="s">
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="150"/>
-      <c r="AD7" s="150"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="173" t="s">
+      <c r="L7" s="164"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="164"/>
+      <c r="T7" s="164"/>
+      <c r="U7" s="164"/>
+      <c r="V7" s="164"/>
+      <c r="W7" s="164"/>
+      <c r="X7" s="164"/>
+      <c r="Y7" s="164"/>
+      <c r="Z7" s="164"/>
+      <c r="AA7" s="164"/>
+      <c r="AB7" s="164"/>
+      <c r="AC7" s="164"/>
+      <c r="AD7" s="164"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="150"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="150"/>
-      <c r="AJ7" s="151"/>
+      <c r="AG7" s="164"/>
+      <c r="AH7" s="164"/>
+      <c r="AI7" s="164"/>
+      <c r="AJ7" s="165"/>
     </row>
     <row r="8" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="73">
         <v>1</v>
       </c>
-      <c r="D8" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="152" t="s">
+      <c r="D8" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="153"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="153"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="153"/>
-      <c r="AB8" s="153"/>
-      <c r="AC8" s="153"/>
-      <c r="AD8" s="153"/>
-      <c r="AE8" s="154"/>
-      <c r="AF8" s="129"/>
-      <c r="AG8" s="124"/>
-      <c r="AH8" s="124"/>
-      <c r="AI8" s="124"/>
-      <c r="AJ8" s="125"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="160" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="161"/>
+      <c r="R8" s="161"/>
+      <c r="S8" s="161"/>
+      <c r="T8" s="161"/>
+      <c r="U8" s="161"/>
+      <c r="V8" s="161"/>
+      <c r="W8" s="161"/>
+      <c r="X8" s="161"/>
+      <c r="Y8" s="161"/>
+      <c r="Z8" s="161"/>
+      <c r="AA8" s="161"/>
+      <c r="AB8" s="161"/>
+      <c r="AC8" s="161"/>
+      <c r="AD8" s="161"/>
+      <c r="AE8" s="162"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="93"/>
     </row>
     <row r="9" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="73">
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="160" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="152" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="153"/>
-      <c r="AB9" s="153"/>
-      <c r="AC9" s="153"/>
-      <c r="AD9" s="153"/>
-      <c r="AE9" s="154"/>
-      <c r="AF9" s="129"/>
-      <c r="AG9" s="124"/>
-      <c r="AH9" s="124"/>
-      <c r="AI9" s="124"/>
-      <c r="AJ9" s="125"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="161"/>
+      <c r="S9" s="161"/>
+      <c r="T9" s="161"/>
+      <c r="U9" s="161"/>
+      <c r="V9" s="161"/>
+      <c r="W9" s="161"/>
+      <c r="X9" s="161"/>
+      <c r="Y9" s="161"/>
+      <c r="Z9" s="161"/>
+      <c r="AA9" s="161"/>
+      <c r="AB9" s="161"/>
+      <c r="AC9" s="161"/>
+      <c r="AD9" s="161"/>
+      <c r="AE9" s="162"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="93"/>
     </row>
     <row r="10" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="73">
         <f t="shared" ref="C10:C12" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="160" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="152" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="154"/>
-      <c r="AF10" s="129"/>
-      <c r="AG10" s="124"/>
-      <c r="AH10" s="124"/>
-      <c r="AI10" s="124"/>
-      <c r="AJ10" s="125"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="161"/>
+      <c r="S10" s="161"/>
+      <c r="T10" s="161"/>
+      <c r="U10" s="161"/>
+      <c r="V10" s="161"/>
+      <c r="W10" s="161"/>
+      <c r="X10" s="161"/>
+      <c r="Y10" s="161"/>
+      <c r="Z10" s="161"/>
+      <c r="AA10" s="161"/>
+      <c r="AB10" s="161"/>
+      <c r="AC10" s="161"/>
+      <c r="AD10" s="161"/>
+      <c r="AE10" s="162"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="93"/>
     </row>
     <row r="11" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="73">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="152" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="153"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="153"/>
-      <c r="AA11" s="153"/>
-      <c r="AB11" s="153"/>
-      <c r="AC11" s="153"/>
-      <c r="AD11" s="153"/>
-      <c r="AE11" s="154"/>
-      <c r="AF11" s="129"/>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="124"/>
-      <c r="AI11" s="124"/>
-      <c r="AJ11" s="125"/>
+      <c r="D11" s="160" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="160" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="161"/>
+      <c r="S11" s="161"/>
+      <c r="T11" s="161"/>
+      <c r="U11" s="161"/>
+      <c r="V11" s="161"/>
+      <c r="W11" s="161"/>
+      <c r="X11" s="161"/>
+      <c r="Y11" s="161"/>
+      <c r="Z11" s="161"/>
+      <c r="AA11" s="161"/>
+      <c r="AB11" s="161"/>
+      <c r="AC11" s="161"/>
+      <c r="AD11" s="161"/>
+      <c r="AE11" s="162"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="93"/>
     </row>
     <row r="12" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="73">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="152" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="152" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="153"/>
-      <c r="AA12" s="153"/>
-      <c r="AB12" s="153"/>
-      <c r="AC12" s="153"/>
-      <c r="AD12" s="153"/>
-      <c r="AE12" s="154"/>
-      <c r="AF12" s="129"/>
-      <c r="AG12" s="124"/>
-      <c r="AH12" s="124"/>
-      <c r="AI12" s="124"/>
-      <c r="AJ12" s="125"/>
+      <c r="D12" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="160" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="161"/>
+      <c r="R12" s="161"/>
+      <c r="S12" s="161"/>
+      <c r="T12" s="161"/>
+      <c r="U12" s="161"/>
+      <c r="V12" s="161"/>
+      <c r="W12" s="161"/>
+      <c r="X12" s="161"/>
+      <c r="Y12" s="161"/>
+      <c r="Z12" s="161"/>
+      <c r="AA12" s="161"/>
+      <c r="AB12" s="161"/>
+      <c r="AC12" s="161"/>
+      <c r="AD12" s="161"/>
+      <c r="AE12" s="162"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="92"/>
+      <c r="AJ12" s="93"/>
     </row>
     <row r="13" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="181" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="175"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="176"/>
-      <c r="N13" s="176"/>
-      <c r="O13" s="176"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="176"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="176"/>
-      <c r="U13" s="176"/>
-      <c r="V13" s="176"/>
-      <c r="W13" s="176"/>
-      <c r="X13" s="176"/>
-      <c r="Y13" s="176"/>
-      <c r="Z13" s="176"/>
-      <c r="AA13" s="176"/>
-      <c r="AB13" s="176"/>
-      <c r="AC13" s="176"/>
-      <c r="AD13" s="176"/>
-      <c r="AE13" s="177"/>
-      <c r="AF13" s="178"/>
-      <c r="AG13" s="179"/>
-      <c r="AH13" s="179"/>
-      <c r="AI13" s="179"/>
-      <c r="AJ13" s="180"/>
+      <c r="C13" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="78"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="78"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="80"/>
+      <c r="AG13" s="81"/>
+      <c r="AH13" s="81"/>
+      <c r="AI13" s="81"/>
+      <c r="AJ13" s="82"/>
     </row>
     <row r="14" spans="1:40" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="73">
         <f>C12+1</f>
         <v>6</v>
       </c>
-      <c r="D14" s="182" t="s">
+      <c r="D14" s="157" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="152" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="153"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="153"/>
-      <c r="X14" s="153"/>
-      <c r="Y14" s="153"/>
-      <c r="Z14" s="153"/>
-      <c r="AA14" s="153"/>
-      <c r="AB14" s="153"/>
-      <c r="AC14" s="153"/>
-      <c r="AD14" s="153"/>
-      <c r="AE14" s="154"/>
-      <c r="AF14" s="129"/>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="124"/>
-      <c r="AJ14" s="125"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="161"/>
+      <c r="V14" s="161"/>
+      <c r="W14" s="161"/>
+      <c r="X14" s="161"/>
+      <c r="Y14" s="161"/>
+      <c r="Z14" s="161"/>
+      <c r="AA14" s="161"/>
+      <c r="AB14" s="161"/>
+      <c r="AC14" s="161"/>
+      <c r="AD14" s="161"/>
+      <c r="AE14" s="162"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="93"/>
     </row>
     <row r="15" spans="1:40" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="73">
-        <f t="shared" ref="C14:C27" si="1">C14+1</f>
+        <f t="shared" ref="C15:C27" si="1">C14+1</f>
         <v>7</v>
       </c>
-      <c r="D15" s="182" t="s">
+      <c r="D15" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="153"/>
-      <c r="U15" s="153"/>
-      <c r="V15" s="153"/>
-      <c r="W15" s="153"/>
-      <c r="X15" s="153"/>
-      <c r="Y15" s="153"/>
-      <c r="Z15" s="153"/>
-      <c r="AA15" s="153"/>
-      <c r="AB15" s="153"/>
-      <c r="AC15" s="153"/>
-      <c r="AD15" s="153"/>
-      <c r="AE15" s="154"/>
-      <c r="AF15" s="129"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="124"/>
-      <c r="AJ15" s="125"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="161"/>
+      <c r="R15" s="161"/>
+      <c r="S15" s="161"/>
+      <c r="T15" s="161"/>
+      <c r="U15" s="161"/>
+      <c r="V15" s="161"/>
+      <c r="W15" s="161"/>
+      <c r="X15" s="161"/>
+      <c r="Y15" s="161"/>
+      <c r="Z15" s="161"/>
+      <c r="AA15" s="161"/>
+      <c r="AB15" s="161"/>
+      <c r="AC15" s="161"/>
+      <c r="AD15" s="161"/>
+      <c r="AE15" s="162"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="93"/>
     </row>
     <row r="16" spans="1:40" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="73">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D16" s="182" t="s">
+      <c r="D16" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="184"/>
-      <c r="K16" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="153"/>
-      <c r="T16" s="153"/>
-      <c r="U16" s="153"/>
-      <c r="V16" s="153"/>
-      <c r="W16" s="153"/>
-      <c r="X16" s="153"/>
-      <c r="Y16" s="153"/>
-      <c r="Z16" s="153"/>
-      <c r="AA16" s="153"/>
-      <c r="AB16" s="153"/>
-      <c r="AC16" s="153"/>
-      <c r="AD16" s="153"/>
-      <c r="AE16" s="154"/>
-      <c r="AF16" s="129"/>
-      <c r="AG16" s="124"/>
-      <c r="AH16" s="124"/>
-      <c r="AI16" s="124"/>
-      <c r="AJ16" s="125"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="161"/>
+      <c r="R16" s="161"/>
+      <c r="S16" s="161"/>
+      <c r="T16" s="161"/>
+      <c r="U16" s="161"/>
+      <c r="V16" s="161"/>
+      <c r="W16" s="161"/>
+      <c r="X16" s="161"/>
+      <c r="Y16" s="161"/>
+      <c r="Z16" s="161"/>
+      <c r="AA16" s="161"/>
+      <c r="AB16" s="161"/>
+      <c r="AC16" s="161"/>
+      <c r="AD16" s="161"/>
+      <c r="AE16" s="162"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="93"/>
     </row>
     <row r="17" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="73">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D17" s="182" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="184"/>
-      <c r="K17" s="152" t="s">
+      <c r="D17" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="153"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="153"/>
-      <c r="W17" s="153"/>
-      <c r="X17" s="153"/>
-      <c r="Y17" s="153"/>
-      <c r="Z17" s="153"/>
-      <c r="AA17" s="153"/>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="153"/>
-      <c r="AD17" s="153"/>
-      <c r="AE17" s="154"/>
-      <c r="AF17" s="129"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="124"/>
-      <c r="AI17" s="124"/>
-      <c r="AJ17" s="125"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="160" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="161"/>
+      <c r="T17" s="161"/>
+      <c r="U17" s="161"/>
+      <c r="V17" s="161"/>
+      <c r="W17" s="161"/>
+      <c r="X17" s="161"/>
+      <c r="Y17" s="161"/>
+      <c r="Z17" s="161"/>
+      <c r="AA17" s="161"/>
+      <c r="AB17" s="161"/>
+      <c r="AC17" s="161"/>
+      <c r="AD17" s="161"/>
+      <c r="AE17" s="162"/>
+      <c r="AF17" s="91"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="92"/>
+      <c r="AJ17" s="93"/>
     </row>
     <row r="18" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="73">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D18" s="182" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="184"/>
-      <c r="K18" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="153"/>
-      <c r="T18" s="153"/>
-      <c r="U18" s="153"/>
-      <c r="V18" s="153"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="153"/>
-      <c r="Z18" s="153"/>
-      <c r="AA18" s="153"/>
-      <c r="AB18" s="153"/>
-      <c r="AC18" s="153"/>
-      <c r="AD18" s="153"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="129"/>
-      <c r="AG18" s="124"/>
-      <c r="AH18" s="124"/>
-      <c r="AI18" s="124"/>
-      <c r="AJ18" s="125"/>
+      <c r="D18" s="157" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="160" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="161"/>
+      <c r="T18" s="161"/>
+      <c r="U18" s="161"/>
+      <c r="V18" s="161"/>
+      <c r="W18" s="161"/>
+      <c r="X18" s="161"/>
+      <c r="Y18" s="161"/>
+      <c r="Z18" s="161"/>
+      <c r="AA18" s="161"/>
+      <c r="AB18" s="161"/>
+      <c r="AC18" s="161"/>
+      <c r="AD18" s="161"/>
+      <c r="AE18" s="162"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="93"/>
     </row>
     <row r="19" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="73">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D19" s="182" t="s">
+      <c r="D19" s="157" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="184"/>
-      <c r="K19" s="152" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="153"/>
-      <c r="U19" s="153"/>
-      <c r="V19" s="153"/>
-      <c r="W19" s="153"/>
-      <c r="X19" s="153"/>
-      <c r="Y19" s="153"/>
-      <c r="Z19" s="153"/>
-      <c r="AA19" s="153"/>
-      <c r="AB19" s="153"/>
-      <c r="AC19" s="153"/>
-      <c r="AD19" s="153"/>
-      <c r="AE19" s="154"/>
-      <c r="AF19" s="129"/>
-      <c r="AG19" s="124"/>
-      <c r="AH19" s="124"/>
-      <c r="AI19" s="124"/>
-      <c r="AJ19" s="125"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="161"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="161"/>
+      <c r="S19" s="161"/>
+      <c r="T19" s="161"/>
+      <c r="U19" s="161"/>
+      <c r="V19" s="161"/>
+      <c r="W19" s="161"/>
+      <c r="X19" s="161"/>
+      <c r="Y19" s="161"/>
+      <c r="Z19" s="161"/>
+      <c r="AA19" s="161"/>
+      <c r="AB19" s="161"/>
+      <c r="AC19" s="161"/>
+      <c r="AD19" s="161"/>
+      <c r="AE19" s="162"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="93"/>
     </row>
     <row r="20" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="73">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D20" s="182" t="s">
+      <c r="D20" s="157" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="159"/>
+      <c r="K20" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="184"/>
-      <c r="K20" s="152" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="153"/>
-      <c r="T20" s="153"/>
-      <c r="U20" s="153"/>
-      <c r="V20" s="153"/>
-      <c r="W20" s="153"/>
-      <c r="X20" s="153"/>
-      <c r="Y20" s="153"/>
-      <c r="Z20" s="153"/>
-      <c r="AA20" s="153"/>
-      <c r="AB20" s="153"/>
-      <c r="AC20" s="153"/>
-      <c r="AD20" s="153"/>
-      <c r="AE20" s="154"/>
-      <c r="AF20" s="129"/>
-      <c r="AG20" s="124"/>
-      <c r="AH20" s="124"/>
-      <c r="AI20" s="124"/>
-      <c r="AJ20" s="125"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="161"/>
+      <c r="R20" s="161"/>
+      <c r="S20" s="161"/>
+      <c r="T20" s="161"/>
+      <c r="U20" s="161"/>
+      <c r="V20" s="161"/>
+      <c r="W20" s="161"/>
+      <c r="X20" s="161"/>
+      <c r="Y20" s="161"/>
+      <c r="Z20" s="161"/>
+      <c r="AA20" s="161"/>
+      <c r="AB20" s="161"/>
+      <c r="AC20" s="161"/>
+      <c r="AD20" s="161"/>
+      <c r="AE20" s="162"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="93"/>
     </row>
     <row r="21" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="73">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D21" s="182" t="s">
+      <c r="D21" s="157" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="184"/>
-      <c r="K21" s="152" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="153"/>
-      <c r="T21" s="153"/>
-      <c r="U21" s="153"/>
-      <c r="V21" s="153"/>
-      <c r="W21" s="153"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="153"/>
-      <c r="Z21" s="153"/>
-      <c r="AA21" s="153"/>
-      <c r="AB21" s="153"/>
-      <c r="AC21" s="153"/>
-      <c r="AD21" s="153"/>
-      <c r="AE21" s="154"/>
-      <c r="AF21" s="129"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="124"/>
-      <c r="AJ21" s="125"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="161"/>
+      <c r="S21" s="161"/>
+      <c r="T21" s="161"/>
+      <c r="U21" s="161"/>
+      <c r="V21" s="161"/>
+      <c r="W21" s="161"/>
+      <c r="X21" s="161"/>
+      <c r="Y21" s="161"/>
+      <c r="Z21" s="161"/>
+      <c r="AA21" s="161"/>
+      <c r="AB21" s="161"/>
+      <c r="AC21" s="161"/>
+      <c r="AD21" s="161"/>
+      <c r="AE21" s="162"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="92"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="92"/>
+      <c r="AJ21" s="93"/>
     </row>
     <row r="22" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="73">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D22" s="182" t="s">
+      <c r="D22" s="157" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="152" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="153"/>
-      <c r="T22" s="153"/>
-      <c r="U22" s="153"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="153"/>
-      <c r="Z22" s="153"/>
-      <c r="AA22" s="153"/>
-      <c r="AB22" s="153"/>
-      <c r="AC22" s="153"/>
-      <c r="AD22" s="153"/>
-      <c r="AE22" s="154"/>
-      <c r="AF22" s="129"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="124"/>
-      <c r="AJ22" s="125"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="161"/>
+      <c r="S22" s="161"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="161"/>
+      <c r="V22" s="161"/>
+      <c r="W22" s="161"/>
+      <c r="X22" s="161"/>
+      <c r="Y22" s="161"/>
+      <c r="Z22" s="161"/>
+      <c r="AA22" s="161"/>
+      <c r="AB22" s="161"/>
+      <c r="AC22" s="161"/>
+      <c r="AD22" s="161"/>
+      <c r="AE22" s="162"/>
+      <c r="AF22" s="91"/>
+      <c r="AG22" s="92"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="92"/>
+      <c r="AJ22" s="93"/>
     </row>
     <row r="23" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="73">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D23" s="182" t="s">
+      <c r="D23" s="157" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="152" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="153"/>
-      <c r="T23" s="153"/>
-      <c r="U23" s="153"/>
-      <c r="V23" s="153"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153"/>
-      <c r="Y23" s="153"/>
-      <c r="Z23" s="153"/>
-      <c r="AA23" s="153"/>
-      <c r="AB23" s="153"/>
-      <c r="AC23" s="153"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="154"/>
-      <c r="AF23" s="129"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="124"/>
-      <c r="AJ23" s="125"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="161"/>
+      <c r="S23" s="161"/>
+      <c r="T23" s="161"/>
+      <c r="U23" s="161"/>
+      <c r="V23" s="161"/>
+      <c r="W23" s="161"/>
+      <c r="X23" s="161"/>
+      <c r="Y23" s="161"/>
+      <c r="Z23" s="161"/>
+      <c r="AA23" s="161"/>
+      <c r="AB23" s="161"/>
+      <c r="AC23" s="161"/>
+      <c r="AD23" s="161"/>
+      <c r="AE23" s="162"/>
+      <c r="AF23" s="91"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="92"/>
+      <c r="AJ23" s="93"/>
     </row>
     <row r="24" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="73">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D24" s="182" t="s">
+      <c r="D24" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="184"/>
-      <c r="K24" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="153"/>
-      <c r="T24" s="153"/>
-      <c r="U24" s="153"/>
-      <c r="V24" s="153"/>
-      <c r="W24" s="153"/>
-      <c r="X24" s="153"/>
-      <c r="Y24" s="153"/>
-      <c r="Z24" s="153"/>
-      <c r="AA24" s="153"/>
-      <c r="AB24" s="153"/>
-      <c r="AC24" s="153"/>
-      <c r="AD24" s="153"/>
-      <c r="AE24" s="154"/>
-      <c r="AF24" s="129"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="124"/>
-      <c r="AJ24" s="125"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="161"/>
+      <c r="S24" s="161"/>
+      <c r="T24" s="161"/>
+      <c r="U24" s="161"/>
+      <c r="V24" s="161"/>
+      <c r="W24" s="161"/>
+      <c r="X24" s="161"/>
+      <c r="Y24" s="161"/>
+      <c r="Z24" s="161"/>
+      <c r="AA24" s="161"/>
+      <c r="AB24" s="161"/>
+      <c r="AC24" s="161"/>
+      <c r="AD24" s="161"/>
+      <c r="AE24" s="162"/>
+      <c r="AF24" s="91"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="92"/>
+      <c r="AJ24" s="93"/>
     </row>
     <row r="25" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="73">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D25" s="182" t="s">
+      <c r="D25" s="157" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="152" t="s">
-        <v>69</v>
-      </c>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="153"/>
-      <c r="T25" s="153"/>
-      <c r="U25" s="153"/>
-      <c r="V25" s="153"/>
-      <c r="W25" s="153"/>
-      <c r="X25" s="153"/>
-      <c r="Y25" s="153"/>
-      <c r="Z25" s="153"/>
-      <c r="AA25" s="153"/>
-      <c r="AB25" s="153"/>
-      <c r="AC25" s="153"/>
-      <c r="AD25" s="153"/>
-      <c r="AE25" s="154"/>
-      <c r="AF25" s="129"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="125"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="161"/>
+      <c r="S25" s="161"/>
+      <c r="T25" s="161"/>
+      <c r="U25" s="161"/>
+      <c r="V25" s="161"/>
+      <c r="W25" s="161"/>
+      <c r="X25" s="161"/>
+      <c r="Y25" s="161"/>
+      <c r="Z25" s="161"/>
+      <c r="AA25" s="161"/>
+      <c r="AB25" s="161"/>
+      <c r="AC25" s="161"/>
+      <c r="AD25" s="161"/>
+      <c r="AE25" s="162"/>
+      <c r="AF25" s="91"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="92"/>
+      <c r="AJ25" s="93"/>
     </row>
     <row r="26" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="73">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D26" s="182" t="s">
+      <c r="D26" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="184"/>
-      <c r="K26" s="152" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="153"/>
-      <c r="T26" s="153"/>
-      <c r="U26" s="153"/>
-      <c r="V26" s="153"/>
-      <c r="W26" s="153"/>
-      <c r="X26" s="153"/>
-      <c r="Y26" s="153"/>
-      <c r="Z26" s="153"/>
-      <c r="AA26" s="153"/>
-      <c r="AB26" s="153"/>
-      <c r="AC26" s="153"/>
-      <c r="AD26" s="153"/>
-      <c r="AE26" s="154"/>
-      <c r="AF26" s="129"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="124"/>
-      <c r="AJ26" s="125"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="161"/>
+      <c r="S26" s="161"/>
+      <c r="T26" s="161"/>
+      <c r="U26" s="161"/>
+      <c r="V26" s="161"/>
+      <c r="W26" s="161"/>
+      <c r="X26" s="161"/>
+      <c r="Y26" s="161"/>
+      <c r="Z26" s="161"/>
+      <c r="AA26" s="161"/>
+      <c r="AB26" s="161"/>
+      <c r="AC26" s="161"/>
+      <c r="AD26" s="161"/>
+      <c r="AE26" s="162"/>
+      <c r="AF26" s="91"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="92"/>
+      <c r="AJ26" s="93"/>
     </row>
     <row r="27" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="73">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D27" s="182" t="s">
+      <c r="D27" s="157" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="184"/>
-      <c r="K27" s="152" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="153"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="153"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
-      <c r="Z27" s="153"/>
-      <c r="AA27" s="153"/>
-      <c r="AB27" s="153"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="154"/>
-      <c r="AF27" s="129"/>
-      <c r="AG27" s="124"/>
-      <c r="AH27" s="124"/>
-      <c r="AI27" s="124"/>
-      <c r="AJ27" s="125"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="161"/>
+      <c r="S27" s="161"/>
+      <c r="T27" s="161"/>
+      <c r="U27" s="161"/>
+      <c r="V27" s="161"/>
+      <c r="W27" s="161"/>
+      <c r="X27" s="161"/>
+      <c r="Y27" s="161"/>
+      <c r="Z27" s="161"/>
+      <c r="AA27" s="161"/>
+      <c r="AB27" s="161"/>
+      <c r="AC27" s="161"/>
+      <c r="AD27" s="161"/>
+      <c r="AE27" s="162"/>
+      <c r="AF27" s="91"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="92"/>
+      <c r="AJ27" s="93"/>
     </row>
     <row r="28" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="174" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="175"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="177"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="176"/>
-      <c r="N28" s="176"/>
-      <c r="O28" s="176"/>
-      <c r="P28" s="176"/>
-      <c r="Q28" s="176"/>
-      <c r="R28" s="176"/>
-      <c r="S28" s="176"/>
-      <c r="T28" s="176"/>
-      <c r="U28" s="176"/>
-      <c r="V28" s="176"/>
-      <c r="W28" s="176"/>
-      <c r="X28" s="176"/>
-      <c r="Y28" s="176"/>
-      <c r="Z28" s="176"/>
-      <c r="AA28" s="176"/>
-      <c r="AB28" s="176"/>
-      <c r="AC28" s="176"/>
-      <c r="AD28" s="176"/>
-      <c r="AE28" s="177"/>
-      <c r="AF28" s="178"/>
-      <c r="AG28" s="179"/>
-      <c r="AH28" s="179"/>
-      <c r="AI28" s="179"/>
-      <c r="AJ28" s="180"/>
+      <c r="C28" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="77"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="78"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="80"/>
+      <c r="AG28" s="81"/>
+      <c r="AH28" s="81"/>
+      <c r="AI28" s="81"/>
+      <c r="AJ28" s="82"/>
     </row>
     <row r="29" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="73">
         <f>C27+1</f>
         <v>20</v>
       </c>
-      <c r="D29" s="182" t="s">
+      <c r="D29" s="157" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="152" t="s">
-        <v>75</v>
-      </c>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="153"/>
-      <c r="T29" s="153"/>
-      <c r="U29" s="153"/>
-      <c r="V29" s="153"/>
-      <c r="W29" s="153"/>
-      <c r="X29" s="153"/>
-      <c r="Y29" s="153"/>
-      <c r="Z29" s="153"/>
-      <c r="AA29" s="153"/>
-      <c r="AB29" s="153"/>
-      <c r="AC29" s="153"/>
-      <c r="AD29" s="153"/>
-      <c r="AE29" s="154"/>
-      <c r="AF29" s="129"/>
-      <c r="AG29" s="124"/>
-      <c r="AH29" s="124"/>
-      <c r="AI29" s="124"/>
-      <c r="AJ29" s="125"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="161"/>
+      <c r="S29" s="161"/>
+      <c r="T29" s="161"/>
+      <c r="U29" s="161"/>
+      <c r="V29" s="161"/>
+      <c r="W29" s="161"/>
+      <c r="X29" s="161"/>
+      <c r="Y29" s="161"/>
+      <c r="Z29" s="161"/>
+      <c r="AA29" s="161"/>
+      <c r="AB29" s="161"/>
+      <c r="AC29" s="161"/>
+      <c r="AD29" s="161"/>
+      <c r="AE29" s="162"/>
+      <c r="AF29" s="91"/>
+      <c r="AG29" s="92"/>
+      <c r="AH29" s="92"/>
+      <c r="AI29" s="92"/>
+      <c r="AJ29" s="93"/>
     </row>
     <row r="30" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="73">
-        <f t="shared" ref="C29:C33" si="2">C29+1</f>
+        <f>C29+1</f>
         <v>21</v>
       </c>
-      <c r="D30" s="182" t="s">
+      <c r="D30" s="157" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="160" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" s="161"/>
+      <c r="M30" s="161"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="161"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="161"/>
+      <c r="R30" s="161"/>
+      <c r="S30" s="161"/>
+      <c r="T30" s="161"/>
+      <c r="U30" s="161"/>
+      <c r="V30" s="161"/>
+      <c r="W30" s="161"/>
+      <c r="X30" s="161"/>
+      <c r="Y30" s="161"/>
+      <c r="Z30" s="161"/>
+      <c r="AA30" s="161"/>
+      <c r="AB30" s="161"/>
+      <c r="AC30" s="161"/>
+      <c r="AD30" s="161"/>
+      <c r="AE30" s="162"/>
+      <c r="AF30" s="91"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="92"/>
+      <c r="AJ30" s="93"/>
+    </row>
+    <row r="31" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="73">
+        <f t="shared" ref="C31:C34" si="2">C30+1</f>
+        <v>22</v>
+      </c>
+      <c r="D31" s="157" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="152" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="153"/>
-      <c r="R30" s="153"/>
-      <c r="S30" s="153"/>
-      <c r="T30" s="153"/>
-      <c r="U30" s="153"/>
-      <c r="V30" s="153"/>
-      <c r="W30" s="153"/>
-      <c r="X30" s="153"/>
-      <c r="Y30" s="153"/>
-      <c r="Z30" s="153"/>
-      <c r="AA30" s="153"/>
-      <c r="AB30" s="153"/>
-      <c r="AC30" s="153"/>
-      <c r="AD30" s="153"/>
-      <c r="AE30" s="154"/>
-      <c r="AF30" s="129"/>
-      <c r="AG30" s="124"/>
-      <c r="AH30" s="124"/>
-      <c r="AI30" s="124"/>
-      <c r="AJ30" s="125"/>
-    </row>
-    <row r="31" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="73">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="D31" s="182" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="152" t="s">
-        <v>79</v>
-      </c>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="153"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="153"/>
-      <c r="T31" s="153"/>
-      <c r="U31" s="153"/>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
-      <c r="X31" s="153"/>
-      <c r="Y31" s="153"/>
-      <c r="Z31" s="153"/>
-      <c r="AA31" s="153"/>
-      <c r="AB31" s="153"/>
-      <c r="AC31" s="153"/>
-      <c r="AD31" s="153"/>
-      <c r="AE31" s="154"/>
-      <c r="AF31" s="129"/>
-      <c r="AG31" s="124"/>
-      <c r="AH31" s="124"/>
-      <c r="AI31" s="124"/>
-      <c r="AJ31" s="125"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="161"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="161"/>
+      <c r="S31" s="161"/>
+      <c r="T31" s="161"/>
+      <c r="U31" s="161"/>
+      <c r="V31" s="161"/>
+      <c r="W31" s="161"/>
+      <c r="X31" s="161"/>
+      <c r="Y31" s="161"/>
+      <c r="Z31" s="161"/>
+      <c r="AA31" s="161"/>
+      <c r="AB31" s="161"/>
+      <c r="AC31" s="161"/>
+      <c r="AD31" s="161"/>
+      <c r="AE31" s="162"/>
+      <c r="AF31" s="91"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="92"/>
+      <c r="AJ31" s="93"/>
     </row>
     <row r="32" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="73">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="D32" s="182" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="183"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="152" t="s">
-        <v>81</v>
-      </c>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="153"/>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="153"/>
-      <c r="R32" s="153"/>
-      <c r="S32" s="153"/>
-      <c r="T32" s="153"/>
-      <c r="U32" s="153"/>
-      <c r="V32" s="153"/>
-      <c r="W32" s="153"/>
-      <c r="X32" s="153"/>
-      <c r="Y32" s="153"/>
-      <c r="Z32" s="153"/>
-      <c r="AA32" s="153"/>
-      <c r="AB32" s="153"/>
-      <c r="AC32" s="153"/>
-      <c r="AD32" s="153"/>
-      <c r="AE32" s="154"/>
-      <c r="AF32" s="129"/>
-      <c r="AG32" s="124"/>
-      <c r="AH32" s="124"/>
-      <c r="AI32" s="124"/>
-      <c r="AJ32" s="125"/>
+      <c r="D32" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="160" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="161"/>
+      <c r="S32" s="161"/>
+      <c r="T32" s="161"/>
+      <c r="U32" s="161"/>
+      <c r="V32" s="161"/>
+      <c r="W32" s="161"/>
+      <c r="X32" s="161"/>
+      <c r="Y32" s="161"/>
+      <c r="Z32" s="161"/>
+      <c r="AA32" s="161"/>
+      <c r="AB32" s="161"/>
+      <c r="AC32" s="161"/>
+      <c r="AD32" s="161"/>
+      <c r="AE32" s="162"/>
+      <c r="AF32" s="91"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="92"/>
+      <c r="AJ32" s="93"/>
     </row>
     <row r="33" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="73">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="D33" s="182" t="s">
+      <c r="D33" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="160" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33" s="161"/>
+      <c r="M33" s="161"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="161"/>
+      <c r="Q33" s="161"/>
+      <c r="R33" s="161"/>
+      <c r="S33" s="161"/>
+      <c r="T33" s="161"/>
+      <c r="U33" s="161"/>
+      <c r="V33" s="161"/>
+      <c r="W33" s="161"/>
+      <c r="X33" s="161"/>
+      <c r="Y33" s="161"/>
+      <c r="Z33" s="161"/>
+      <c r="AA33" s="161"/>
+      <c r="AB33" s="161"/>
+      <c r="AC33" s="161"/>
+      <c r="AD33" s="161"/>
+      <c r="AE33" s="162"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="92"/>
+      <c r="AJ33" s="93"/>
+    </row>
+    <row r="34" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="73">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D34" s="157" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="159"/>
+      <c r="K34" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="152" t="s">
-        <v>83</v>
-      </c>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="153"/>
-      <c r="P33" s="153"/>
-      <c r="Q33" s="153"/>
-      <c r="R33" s="153"/>
-      <c r="S33" s="153"/>
-      <c r="T33" s="153"/>
-      <c r="U33" s="153"/>
-      <c r="V33" s="153"/>
-      <c r="W33" s="153"/>
-      <c r="X33" s="153"/>
-      <c r="Y33" s="153"/>
-      <c r="Z33" s="153"/>
-      <c r="AA33" s="153"/>
-      <c r="AB33" s="153"/>
-      <c r="AC33" s="153"/>
-      <c r="AD33" s="153"/>
-      <c r="AE33" s="154"/>
-      <c r="AF33" s="129"/>
-      <c r="AG33" s="124"/>
-      <c r="AH33" s="124"/>
-      <c r="AI33" s="124"/>
-      <c r="AJ33" s="125"/>
-    </row>
-    <row r="34" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="L34" s="161"/>
+      <c r="M34" s="161"/>
+      <c r="N34" s="161"/>
+      <c r="O34" s="161"/>
+      <c r="P34" s="161"/>
+      <c r="Q34" s="161"/>
+      <c r="R34" s="161"/>
+      <c r="S34" s="161"/>
+      <c r="T34" s="161"/>
+      <c r="U34" s="161"/>
+      <c r="V34" s="161"/>
+      <c r="W34" s="161"/>
+      <c r="X34" s="161"/>
+      <c r="Y34" s="161"/>
+      <c r="Z34" s="161"/>
+      <c r="AA34" s="161"/>
+      <c r="AB34" s="161"/>
+      <c r="AC34" s="161"/>
+      <c r="AD34" s="161"/>
+      <c r="AE34" s="162"/>
+      <c r="AF34" s="91"/>
+      <c r="AG34" s="92"/>
+      <c r="AH34" s="92"/>
+      <c r="AI34" s="92"/>
+      <c r="AJ34" s="93"/>
+    </row>
     <row r="35" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7193,79 +7258,14 @@
     <row r="47" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:AE33"/>
-    <mergeCell ref="AF33:AJ33"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:AE31"/>
-    <mergeCell ref="AF31:AJ31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:AE32"/>
-    <mergeCell ref="AF32:AJ32"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:AE29"/>
-    <mergeCell ref="AF29:AJ29"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:AE30"/>
-    <mergeCell ref="AF30:AJ30"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:AE26"/>
-    <mergeCell ref="AF26:AJ26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:AE27"/>
-    <mergeCell ref="AF27:AJ27"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:AE24"/>
-    <mergeCell ref="AF24:AJ24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:AE25"/>
-    <mergeCell ref="AF25:AJ25"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:AE22"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="K23:AE23"/>
-    <mergeCell ref="AF23:AJ23"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:AE20"/>
-    <mergeCell ref="AF20:AJ20"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:AE21"/>
-    <mergeCell ref="AF21:AJ21"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:AE18"/>
-    <mergeCell ref="AF18:AJ18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="K19:AE19"/>
-    <mergeCell ref="AF19:AJ19"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="K16:AE16"/>
-    <mergeCell ref="AF16:AJ16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:AE17"/>
-    <mergeCell ref="AF17:AJ17"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="K14:AE14"/>
-    <mergeCell ref="AF14:AJ14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="K15:AE15"/>
-    <mergeCell ref="AF15:AJ15"/>
-    <mergeCell ref="K10:AE10"/>
-    <mergeCell ref="AF10:AJ10"/>
-    <mergeCell ref="AF7:AJ7"/>
-    <mergeCell ref="AF8:AJ8"/>
-    <mergeCell ref="AF11:AJ11"/>
-    <mergeCell ref="AF9:AJ9"/>
-    <mergeCell ref="AF12:AJ12"/>
-    <mergeCell ref="K11:AE11"/>
-    <mergeCell ref="K9:AE9"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:AE12"/>
-    <mergeCell ref="D10:J10"/>
+  <mergeCells count="95">
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="K7:AE7"/>
@@ -7282,11 +7282,80 @@
     <mergeCell ref="E1:P1"/>
     <mergeCell ref="E2:P2"/>
     <mergeCell ref="E3:P3"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AF12:AJ12"/>
+    <mergeCell ref="K11:AE11"/>
+    <mergeCell ref="K9:AE9"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:AE12"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K10:AE10"/>
+    <mergeCell ref="AF10:AJ10"/>
+    <mergeCell ref="AF7:AJ7"/>
+    <mergeCell ref="AF8:AJ8"/>
+    <mergeCell ref="AF11:AJ11"/>
+    <mergeCell ref="AF9:AJ9"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="K14:AE14"/>
+    <mergeCell ref="AF14:AJ14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:AE15"/>
+    <mergeCell ref="AF15:AJ15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="K16:AE16"/>
+    <mergeCell ref="AF16:AJ16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:AE17"/>
+    <mergeCell ref="AF17:AJ17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:AE18"/>
+    <mergeCell ref="AF18:AJ18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="K19:AE19"/>
+    <mergeCell ref="AF19:AJ19"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:AE20"/>
+    <mergeCell ref="AF20:AJ20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:AE21"/>
+    <mergeCell ref="AF21:AJ21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:AE22"/>
+    <mergeCell ref="AF22:AJ22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:AE23"/>
+    <mergeCell ref="AF23:AJ23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AE24"/>
+    <mergeCell ref="AF24:AJ24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:AE25"/>
+    <mergeCell ref="AF25:AJ25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AE26"/>
+    <mergeCell ref="AF26:AJ26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:AE27"/>
+    <mergeCell ref="AF27:AJ27"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:AE29"/>
+    <mergeCell ref="AF29:AJ29"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:AE31"/>
+    <mergeCell ref="AF31:AJ31"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:AE30"/>
+    <mergeCell ref="AF30:AJ30"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:AE34"/>
+    <mergeCell ref="AF34:AJ34"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:AE32"/>
+    <mergeCell ref="AF32:AJ32"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:AE33"/>
+    <mergeCell ref="AF33:AJ33"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(画面)_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(画面)_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49F78C1-4C07-4378-A7C1-DA9E330E221E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34DE19F-F98D-4305-91F0-F009A9EE38A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc46209822" localSheetId="3">ja!$B$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ja!$A$1:$AK$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ja!$A$1:$AK$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$33</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>PJ名</t>
   </si>
@@ -453,6 +453,14 @@
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>errors.doubleSubmission</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>画面遷移が不正です。</t>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -1034,213 +1042,216 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1250,6 +1261,81 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1257,84 +1343,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2758,57 +2766,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="126" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="132" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="141" t="s">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="123" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="116">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="85">
         <f>IF(D8="","",D8)</f>
         <v>43601</v>
       </c>
-      <c r="AH1" s="117"/>
-      <c r="AI1" s="118"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="87"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -2816,53 +2824,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="123" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="129" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="98" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="116">
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="85">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44819</v>
       </c>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="118"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="87"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -2870,45 +2878,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="153" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="118"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="87"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -2945,1048 +2953,1204 @@
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="119" t="s">
+      <c r="C7" s="89"/>
+      <c r="D7" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="119" t="s">
+      <c r="E7" s="90"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="121"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="122" t="s">
+      <c r="H7" s="90"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="119" t="s">
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="121"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="121"/>
-      <c r="Y7" s="121"/>
-      <c r="Z7" s="121"/>
-      <c r="AA7" s="121"/>
-      <c r="AB7" s="121"/>
-      <c r="AC7" s="121"/>
-      <c r="AD7" s="121"/>
-      <c r="AE7" s="120"/>
-      <c r="AF7" s="119" t="s">
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="121"/>
-      <c r="AH7" s="121"/>
-      <c r="AI7" s="120"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="89"/>
     </row>
     <row r="8" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="138">
         <v>1</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104">
+      <c r="C8" s="139"/>
+      <c r="D8" s="140">
         <v>43601</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107" t="s">
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110" t="s">
+      <c r="H8" s="144"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="113" t="s">
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="114"/>
-      <c r="Z8" s="114"/>
-      <c r="AA8" s="114"/>
-      <c r="AB8" s="114"/>
-      <c r="AC8" s="114"/>
-      <c r="AD8" s="114"/>
-      <c r="AE8" s="115"/>
-      <c r="AF8" s="110" t="s">
+      <c r="R8" s="150"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="150"/>
+      <c r="Z8" s="150"/>
+      <c r="AA8" s="150"/>
+      <c r="AB8" s="150"/>
+      <c r="AC8" s="150"/>
+      <c r="AD8" s="150"/>
+      <c r="AE8" s="151"/>
+      <c r="AF8" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="112"/>
+      <c r="AG8" s="147"/>
+      <c r="AH8" s="147"/>
+      <c r="AI8" s="148"/>
     </row>
     <row r="9" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>2</v>
       </c>
-      <c r="B9" s="98">
+      <c r="B9" s="123">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="87">
+      <c r="C9" s="124"/>
+      <c r="D9" s="125">
         <v>44819</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="100" t="s">
+      <c r="E9" s="126"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="101" t="s">
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="185" t="s">
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="91" t="s">
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="136"/>
+      <c r="AF9" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="93"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="133"/>
     </row>
     <row r="10" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="93"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="136"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="133"/>
     </row>
     <row r="11" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="93"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="133"/>
     </row>
     <row r="12" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="93"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="136"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="133"/>
     </row>
     <row r="13" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="93"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="133"/>
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="93"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="137"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="132"/>
+      <c r="AI14" s="133"/>
     </row>
     <row r="15" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="93"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="133"/>
     </row>
     <row r="16" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="93"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="133"/>
     </row>
     <row r="17" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="92"/>
-      <c r="AI17" s="93"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="133"/>
     </row>
     <row r="18" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="93"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="136"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="133"/>
     </row>
     <row r="19" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="93"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="133"/>
     </row>
     <row r="20" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="93"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="135"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="136"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="133"/>
     </row>
     <row r="21" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="93"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="135"/>
+      <c r="AE21" s="136"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="133"/>
     </row>
     <row r="22" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="93"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="135"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="135"/>
+      <c r="AE22" s="136"/>
+      <c r="AF22" s="137"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="133"/>
     </row>
     <row r="23" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="91"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="93"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="137"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="133"/>
     </row>
     <row r="24" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="91"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="93"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="133"/>
     </row>
     <row r="25" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="93"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="153"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="133"/>
     </row>
     <row r="26" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="92"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="93"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="135"/>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="133"/>
     </row>
     <row r="27" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="92"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="93"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="153"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="133"/>
     </row>
     <row r="28" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="96"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="93"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="133"/>
     </row>
     <row r="29" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="96"/>
-      <c r="AF29" s="91"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="93"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="136"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="133"/>
     </row>
     <row r="30" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="91"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="93"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="153"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="135"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="133"/>
     </row>
     <row r="31" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="91"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="93"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="133"/>
+      <c r="Q31" s="153"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="133"/>
     </row>
     <row r="32" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="96"/>
-      <c r="AF32" s="91"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="93"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="153"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="135"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="137"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="133"/>
     </row>
     <row r="33" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="96"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="93"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="153"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="133"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4010,162 +4174,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -4322,163 +4330,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="126" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="132" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="141" t="str">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>メッセージ設計書</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="123" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="154">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="155">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43601</v>
       </c>
-      <c r="AH1" s="155"/>
-      <c r="AI1" s="156"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="157"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="123" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="154">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="155">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44819</v>
       </c>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="156"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="157"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="154" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="156"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="157"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -5830,14 +5838,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -5847,6 +5847,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -5861,7 +5869,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN50"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -5873,169 +5881,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="126" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="167" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="176" t="str">
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>メッセージ設計書</v>
       </c>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="123" t="s">
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="150" t="str">
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="151"/>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="154">
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="155">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43601</v>
       </c>
-      <c r="AJ1" s="155"/>
-      <c r="AK1" s="156"/>
+      <c r="AJ1" s="156"/>
+      <c r="AK1" s="157"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="180"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="123" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="150" t="str">
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="151"/>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="154">
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="155">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44819</v>
       </c>
-      <c r="AJ2" s="155"/>
-      <c r="AK2" s="156"/>
+      <c r="AJ2" s="156"/>
+      <c r="AK2" s="157"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="183"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="150" t="str">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="180"/>
+      <c r="AB3" s="181"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AF3" s="151"/>
-      <c r="AG3" s="151"/>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="154" t="str">
+      <c r="AF3" s="120"/>
+      <c r="AG3" s="120"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AJ3" s="155"/>
-      <c r="AK3" s="156"/>
+      <c r="AJ3" s="156"/>
+      <c r="AK3" s="157"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
@@ -6053,1197 +6061,1239 @@
       <c r="C7" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="166" t="s">
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="164"/>
-      <c r="M7" s="164"/>
-      <c r="N7" s="164"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="164"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="164"/>
-      <c r="T7" s="164"/>
-      <c r="U7" s="164"/>
-      <c r="V7" s="164"/>
-      <c r="W7" s="164"/>
-      <c r="X7" s="164"/>
-      <c r="Y7" s="164"/>
-      <c r="Z7" s="164"/>
-      <c r="AA7" s="164"/>
-      <c r="AB7" s="164"/>
-      <c r="AC7" s="164"/>
-      <c r="AD7" s="164"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="163" t="s">
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
+      <c r="V7" s="159"/>
+      <c r="W7" s="159"/>
+      <c r="X7" s="159"/>
+      <c r="Y7" s="159"/>
+      <c r="Z7" s="159"/>
+      <c r="AA7" s="159"/>
+      <c r="AB7" s="159"/>
+      <c r="AC7" s="159"/>
+      <c r="AD7" s="159"/>
+      <c r="AE7" s="160"/>
+      <c r="AF7" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="164"/>
-      <c r="AH7" s="164"/>
-      <c r="AI7" s="164"/>
-      <c r="AJ7" s="165"/>
+      <c r="AG7" s="159"/>
+      <c r="AH7" s="159"/>
+      <c r="AI7" s="159"/>
+      <c r="AJ7" s="160"/>
     </row>
     <row r="8" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="73">
         <v>1</v>
       </c>
-      <c r="D8" s="160" t="s">
+      <c r="D8" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="160" t="s">
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="161"/>
-      <c r="R8" s="161"/>
-      <c r="S8" s="161"/>
-      <c r="T8" s="161"/>
-      <c r="U8" s="161"/>
-      <c r="V8" s="161"/>
-      <c r="W8" s="161"/>
-      <c r="X8" s="161"/>
-      <c r="Y8" s="161"/>
-      <c r="Z8" s="161"/>
-      <c r="AA8" s="161"/>
-      <c r="AB8" s="161"/>
-      <c r="AC8" s="161"/>
-      <c r="AD8" s="161"/>
-      <c r="AE8" s="162"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="92"/>
-      <c r="AH8" s="92"/>
-      <c r="AI8" s="92"/>
-      <c r="AJ8" s="93"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="162"/>
+      <c r="T8" s="162"/>
+      <c r="U8" s="162"/>
+      <c r="V8" s="162"/>
+      <c r="W8" s="162"/>
+      <c r="X8" s="162"/>
+      <c r="Y8" s="162"/>
+      <c r="Z8" s="162"/>
+      <c r="AA8" s="162"/>
+      <c r="AB8" s="162"/>
+      <c r="AC8" s="162"/>
+      <c r="AD8" s="162"/>
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="137"/>
+      <c r="AG8" s="132"/>
+      <c r="AH8" s="132"/>
+      <c r="AI8" s="132"/>
+      <c r="AJ8" s="133"/>
     </row>
     <row r="9" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="73">
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="160" t="s">
+      <c r="D9" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="160" t="s">
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="161"/>
-      <c r="T9" s="161"/>
-      <c r="U9" s="161"/>
-      <c r="V9" s="161"/>
-      <c r="W9" s="161"/>
-      <c r="X9" s="161"/>
-      <c r="Y9" s="161"/>
-      <c r="Z9" s="161"/>
-      <c r="AA9" s="161"/>
-      <c r="AB9" s="161"/>
-      <c r="AC9" s="161"/>
-      <c r="AD9" s="161"/>
-      <c r="AE9" s="162"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92"/>
-      <c r="AJ9" s="93"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="162"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="162"/>
+      <c r="T9" s="162"/>
+      <c r="U9" s="162"/>
+      <c r="V9" s="162"/>
+      <c r="W9" s="162"/>
+      <c r="X9" s="162"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="162"/>
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="162"/>
+      <c r="AE9" s="163"/>
+      <c r="AF9" s="137"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="132"/>
+      <c r="AJ9" s="133"/>
     </row>
     <row r="10" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="73">
-        <f t="shared" ref="C10:C12" si="0">C9+1</f>
+        <f t="shared" ref="C10:C11" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="160" t="s">
+      <c r="D10" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="160" t="s">
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="161"/>
-      <c r="U10" s="161"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="161"/>
-      <c r="Z10" s="161"/>
-      <c r="AA10" s="161"/>
-      <c r="AB10" s="161"/>
-      <c r="AC10" s="161"/>
-      <c r="AD10" s="161"/>
-      <c r="AE10" s="162"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92"/>
-      <c r="AJ10" s="93"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="162"/>
+      <c r="T10" s="162"/>
+      <c r="U10" s="162"/>
+      <c r="V10" s="162"/>
+      <c r="W10" s="162"/>
+      <c r="X10" s="162"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="162"/>
+      <c r="AA10" s="162"/>
+      <c r="AB10" s="162"/>
+      <c r="AC10" s="162"/>
+      <c r="AD10" s="162"/>
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="132"/>
+      <c r="AJ10" s="133"/>
     </row>
     <row r="11" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="73">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="160" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="160" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="161"/>
-      <c r="Z11" s="161"/>
-      <c r="AA11" s="161"/>
-      <c r="AB11" s="161"/>
-      <c r="AC11" s="161"/>
-      <c r="AD11" s="161"/>
-      <c r="AE11" s="162"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="93"/>
+      <c r="D11" s="161" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="162"/>
+      <c r="T11" s="162"/>
+      <c r="U11" s="162"/>
+      <c r="V11" s="162"/>
+      <c r="W11" s="162"/>
+      <c r="X11" s="162"/>
+      <c r="Y11" s="162"/>
+      <c r="Z11" s="162"/>
+      <c r="AA11" s="162"/>
+      <c r="AB11" s="162"/>
+      <c r="AC11" s="162"/>
+      <c r="AD11" s="162"/>
+      <c r="AE11" s="163"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="132"/>
+      <c r="AJ11" s="133"/>
     </row>
     <row r="12" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="73">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C12:C13" si="1">C11+1</f>
         <v>5</v>
       </c>
-      <c r="D12" s="160" t="s">
+      <c r="D12" s="161" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="161" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="162"/>
+      <c r="R12" s="162"/>
+      <c r="S12" s="162"/>
+      <c r="T12" s="162"/>
+      <c r="U12" s="162"/>
+      <c r="V12" s="162"/>
+      <c r="W12" s="162"/>
+      <c r="X12" s="162"/>
+      <c r="Y12" s="162"/>
+      <c r="Z12" s="162"/>
+      <c r="AA12" s="162"/>
+      <c r="AB12" s="162"/>
+      <c r="AC12" s="162"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="163"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="132"/>
+      <c r="AJ12" s="133"/>
+    </row>
+    <row r="13" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="73">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="160" t="s">
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="161"/>
-      <c r="S12" s="161"/>
-      <c r="T12" s="161"/>
-      <c r="U12" s="161"/>
-      <c r="V12" s="161"/>
-      <c r="W12" s="161"/>
-      <c r="X12" s="161"/>
-      <c r="Y12" s="161"/>
-      <c r="Z12" s="161"/>
-      <c r="AA12" s="161"/>
-      <c r="AB12" s="161"/>
-      <c r="AC12" s="161"/>
-      <c r="AD12" s="161"/>
-      <c r="AE12" s="162"/>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="92"/>
-      <c r="AJ12" s="93"/>
-    </row>
-    <row r="13" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="83" t="s">
+      <c r="L13" s="162"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="162"/>
+      <c r="U13" s="162"/>
+      <c r="V13" s="162"/>
+      <c r="W13" s="162"/>
+      <c r="X13" s="162"/>
+      <c r="Y13" s="162"/>
+      <c r="Z13" s="162"/>
+      <c r="AA13" s="162"/>
+      <c r="AB13" s="162"/>
+      <c r="AC13" s="162"/>
+      <c r="AD13" s="162"/>
+      <c r="AE13" s="163"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="132"/>
+      <c r="AJ13" s="133"/>
+    </row>
+    <row r="14" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="80"/>
-      <c r="AG13" s="81"/>
-      <c r="AH13" s="81"/>
-      <c r="AI13" s="81"/>
-      <c r="AJ13" s="82"/>
-    </row>
-    <row r="14" spans="1:40" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="73">
-        <f>C12+1</f>
-        <v>6</v>
-      </c>
-      <c r="D14" s="157" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="160" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="161"/>
-      <c r="V14" s="161"/>
-      <c r="W14" s="161"/>
-      <c r="X14" s="161"/>
-      <c r="Y14" s="161"/>
-      <c r="Z14" s="161"/>
-      <c r="AA14" s="161"/>
-      <c r="AB14" s="161"/>
-      <c r="AC14" s="161"/>
-      <c r="AD14" s="161"/>
-      <c r="AE14" s="162"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="92"/>
-      <c r="AJ14" s="93"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="78"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="82"/>
     </row>
     <row r="15" spans="1:40" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="73">
-        <f t="shared" ref="C15:C27" si="1">C14+1</f>
+        <f>C13+1</f>
         <v>7</v>
       </c>
-      <c r="D15" s="157" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="160" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="161"/>
-      <c r="T15" s="161"/>
-      <c r="U15" s="161"/>
-      <c r="V15" s="161"/>
-      <c r="W15" s="161"/>
-      <c r="X15" s="161"/>
-      <c r="Y15" s="161"/>
-      <c r="Z15" s="161"/>
-      <c r="AA15" s="161"/>
-      <c r="AB15" s="161"/>
-      <c r="AC15" s="161"/>
-      <c r="AD15" s="161"/>
-      <c r="AE15" s="162"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="92"/>
-      <c r="AJ15" s="93"/>
+      <c r="D15" s="183" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="161" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="162"/>
+      <c r="T15" s="162"/>
+      <c r="U15" s="162"/>
+      <c r="V15" s="162"/>
+      <c r="W15" s="162"/>
+      <c r="X15" s="162"/>
+      <c r="Y15" s="162"/>
+      <c r="Z15" s="162"/>
+      <c r="AA15" s="162"/>
+      <c r="AB15" s="162"/>
+      <c r="AC15" s="162"/>
+      <c r="AD15" s="162"/>
+      <c r="AE15" s="163"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="132"/>
+      <c r="AJ15" s="133"/>
     </row>
     <row r="16" spans="1:40" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C16:C28" si="2">C15+1</f>
         <v>8</v>
       </c>
-      <c r="D16" s="157" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="160" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="161"/>
-      <c r="S16" s="161"/>
-      <c r="T16" s="161"/>
-      <c r="U16" s="161"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="161"/>
-      <c r="X16" s="161"/>
-      <c r="Y16" s="161"/>
-      <c r="Z16" s="161"/>
-      <c r="AA16" s="161"/>
-      <c r="AB16" s="161"/>
-      <c r="AC16" s="161"/>
-      <c r="AD16" s="161"/>
-      <c r="AE16" s="162"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="92"/>
-      <c r="AJ16" s="93"/>
+      <c r="D16" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="161" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="162"/>
+      <c r="R16" s="162"/>
+      <c r="S16" s="162"/>
+      <c r="T16" s="162"/>
+      <c r="U16" s="162"/>
+      <c r="V16" s="162"/>
+      <c r="W16" s="162"/>
+      <c r="X16" s="162"/>
+      <c r="Y16" s="162"/>
+      <c r="Z16" s="162"/>
+      <c r="AA16" s="162"/>
+      <c r="AB16" s="162"/>
+      <c r="AC16" s="162"/>
+      <c r="AD16" s="162"/>
+      <c r="AE16" s="163"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="132"/>
+      <c r="AJ16" s="133"/>
     </row>
     <row r="17" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D17" s="157" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="160" t="s">
+      <c r="D17" s="183" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="184"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="161"/>
-      <c r="S17" s="161"/>
-      <c r="T17" s="161"/>
-      <c r="U17" s="161"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="161"/>
-      <c r="X17" s="161"/>
-      <c r="Y17" s="161"/>
-      <c r="Z17" s="161"/>
-      <c r="AA17" s="161"/>
-      <c r="AB17" s="161"/>
-      <c r="AC17" s="161"/>
-      <c r="AD17" s="161"/>
-      <c r="AE17" s="162"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="92"/>
-      <c r="AI17" s="92"/>
-      <c r="AJ17" s="93"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
+      <c r="Q17" s="162"/>
+      <c r="R17" s="162"/>
+      <c r="S17" s="162"/>
+      <c r="T17" s="162"/>
+      <c r="U17" s="162"/>
+      <c r="V17" s="162"/>
+      <c r="W17" s="162"/>
+      <c r="X17" s="162"/>
+      <c r="Y17" s="162"/>
+      <c r="Z17" s="162"/>
+      <c r="AA17" s="162"/>
+      <c r="AB17" s="162"/>
+      <c r="AC17" s="162"/>
+      <c r="AD17" s="162"/>
+      <c r="AE17" s="163"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="132"/>
+      <c r="AJ17" s="133"/>
     </row>
     <row r="18" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D18" s="157" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="160" t="s">
+      <c r="D18" s="183" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="161"/>
-      <c r="T18" s="161"/>
-      <c r="U18" s="161"/>
-      <c r="V18" s="161"/>
-      <c r="W18" s="161"/>
-      <c r="X18" s="161"/>
-      <c r="Y18" s="161"/>
-      <c r="Z18" s="161"/>
-      <c r="AA18" s="161"/>
-      <c r="AB18" s="161"/>
-      <c r="AC18" s="161"/>
-      <c r="AD18" s="161"/>
-      <c r="AE18" s="162"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="92"/>
-      <c r="AJ18" s="93"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="162"/>
+      <c r="Q18" s="162"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="162"/>
+      <c r="T18" s="162"/>
+      <c r="U18" s="162"/>
+      <c r="V18" s="162"/>
+      <c r="W18" s="162"/>
+      <c r="X18" s="162"/>
+      <c r="Y18" s="162"/>
+      <c r="Z18" s="162"/>
+      <c r="AA18" s="162"/>
+      <c r="AB18" s="162"/>
+      <c r="AC18" s="162"/>
+      <c r="AD18" s="162"/>
+      <c r="AE18" s="163"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="132"/>
+      <c r="AJ18" s="133"/>
     </row>
     <row r="19" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="D19" s="157" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="160" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="161"/>
-      <c r="S19" s="161"/>
-      <c r="T19" s="161"/>
-      <c r="U19" s="161"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="161"/>
-      <c r="X19" s="161"/>
-      <c r="Y19" s="161"/>
-      <c r="Z19" s="161"/>
-      <c r="AA19" s="161"/>
-      <c r="AB19" s="161"/>
-      <c r="AC19" s="161"/>
-      <c r="AD19" s="161"/>
-      <c r="AE19" s="162"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="92"/>
-      <c r="AJ19" s="93"/>
+      <c r="D19" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="161" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="162"/>
+      <c r="Q19" s="162"/>
+      <c r="R19" s="162"/>
+      <c r="S19" s="162"/>
+      <c r="T19" s="162"/>
+      <c r="U19" s="162"/>
+      <c r="V19" s="162"/>
+      <c r="W19" s="162"/>
+      <c r="X19" s="162"/>
+      <c r="Y19" s="162"/>
+      <c r="Z19" s="162"/>
+      <c r="AA19" s="162"/>
+      <c r="AB19" s="162"/>
+      <c r="AC19" s="162"/>
+      <c r="AD19" s="162"/>
+      <c r="AE19" s="163"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="132"/>
+      <c r="AJ19" s="133"/>
     </row>
     <row r="20" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="D20" s="157" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="160" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="161"/>
-      <c r="S20" s="161"/>
-      <c r="T20" s="161"/>
-      <c r="U20" s="161"/>
-      <c r="V20" s="161"/>
-      <c r="W20" s="161"/>
-      <c r="X20" s="161"/>
-      <c r="Y20" s="161"/>
-      <c r="Z20" s="161"/>
-      <c r="AA20" s="161"/>
-      <c r="AB20" s="161"/>
-      <c r="AC20" s="161"/>
-      <c r="AD20" s="161"/>
-      <c r="AE20" s="162"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="92"/>
-      <c r="AJ20" s="93"/>
+      <c r="D20" s="183" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="185"/>
+      <c r="K20" s="161" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="162"/>
+      <c r="R20" s="162"/>
+      <c r="S20" s="162"/>
+      <c r="T20" s="162"/>
+      <c r="U20" s="162"/>
+      <c r="V20" s="162"/>
+      <c r="W20" s="162"/>
+      <c r="X20" s="162"/>
+      <c r="Y20" s="162"/>
+      <c r="Z20" s="162"/>
+      <c r="AA20" s="162"/>
+      <c r="AB20" s="162"/>
+      <c r="AC20" s="162"/>
+      <c r="AD20" s="162"/>
+      <c r="AE20" s="163"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="132"/>
+      <c r="AJ20" s="133"/>
     </row>
     <row r="21" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="D21" s="157" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="160" t="s">
-        <v>60</v>
-      </c>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="161"/>
-      <c r="S21" s="161"/>
-      <c r="T21" s="161"/>
-      <c r="U21" s="161"/>
-      <c r="V21" s="161"/>
-      <c r="W21" s="161"/>
-      <c r="X21" s="161"/>
-      <c r="Y21" s="161"/>
-      <c r="Z21" s="161"/>
-      <c r="AA21" s="161"/>
-      <c r="AB21" s="161"/>
-      <c r="AC21" s="161"/>
-      <c r="AD21" s="161"/>
-      <c r="AE21" s="162"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="92"/>
-      <c r="AJ21" s="93"/>
+      <c r="D21" s="183" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="161" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="162"/>
+      <c r="P21" s="162"/>
+      <c r="Q21" s="162"/>
+      <c r="R21" s="162"/>
+      <c r="S21" s="162"/>
+      <c r="T21" s="162"/>
+      <c r="U21" s="162"/>
+      <c r="V21" s="162"/>
+      <c r="W21" s="162"/>
+      <c r="X21" s="162"/>
+      <c r="Y21" s="162"/>
+      <c r="Z21" s="162"/>
+      <c r="AA21" s="162"/>
+      <c r="AB21" s="162"/>
+      <c r="AC21" s="162"/>
+      <c r="AD21" s="162"/>
+      <c r="AE21" s="163"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="132"/>
+      <c r="AJ21" s="133"/>
     </row>
     <row r="22" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="D22" s="157" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="160" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="161"/>
-      <c r="S22" s="161"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="161"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="161"/>
-      <c r="X22" s="161"/>
-      <c r="Y22" s="161"/>
-      <c r="Z22" s="161"/>
-      <c r="AA22" s="161"/>
-      <c r="AB22" s="161"/>
-      <c r="AC22" s="161"/>
-      <c r="AD22" s="161"/>
-      <c r="AE22" s="162"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="92"/>
-      <c r="AJ22" s="93"/>
+      <c r="D22" s="183" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="185"/>
+      <c r="K22" s="161" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="162"/>
+      <c r="V22" s="162"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="162"/>
+      <c r="Y22" s="162"/>
+      <c r="Z22" s="162"/>
+      <c r="AA22" s="162"/>
+      <c r="AB22" s="162"/>
+      <c r="AC22" s="162"/>
+      <c r="AD22" s="162"/>
+      <c r="AE22" s="163"/>
+      <c r="AF22" s="137"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="132"/>
+      <c r="AJ22" s="133"/>
     </row>
     <row r="23" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="D23" s="157" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="160" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="161"/>
-      <c r="S23" s="161"/>
-      <c r="T23" s="161"/>
-      <c r="U23" s="161"/>
-      <c r="V23" s="161"/>
-      <c r="W23" s="161"/>
-      <c r="X23" s="161"/>
-      <c r="Y23" s="161"/>
-      <c r="Z23" s="161"/>
-      <c r="AA23" s="161"/>
-      <c r="AB23" s="161"/>
-      <c r="AC23" s="161"/>
-      <c r="AD23" s="161"/>
-      <c r="AE23" s="162"/>
-      <c r="AF23" s="91"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="92"/>
-      <c r="AJ23" s="93"/>
+      <c r="D23" s="183" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="161" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="162"/>
+      <c r="S23" s="162"/>
+      <c r="T23" s="162"/>
+      <c r="U23" s="162"/>
+      <c r="V23" s="162"/>
+      <c r="W23" s="162"/>
+      <c r="X23" s="162"/>
+      <c r="Y23" s="162"/>
+      <c r="Z23" s="162"/>
+      <c r="AA23" s="162"/>
+      <c r="AB23" s="162"/>
+      <c r="AC23" s="162"/>
+      <c r="AD23" s="162"/>
+      <c r="AE23" s="163"/>
+      <c r="AF23" s="137"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="132"/>
+      <c r="AJ23" s="133"/>
     </row>
     <row r="24" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="D24" s="157" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="160" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="161"/>
-      <c r="S24" s="161"/>
-      <c r="T24" s="161"/>
-      <c r="U24" s="161"/>
-      <c r="V24" s="161"/>
-      <c r="W24" s="161"/>
-      <c r="X24" s="161"/>
-      <c r="Y24" s="161"/>
-      <c r="Z24" s="161"/>
-      <c r="AA24" s="161"/>
-      <c r="AB24" s="161"/>
-      <c r="AC24" s="161"/>
-      <c r="AD24" s="161"/>
-      <c r="AE24" s="162"/>
-      <c r="AF24" s="91"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="92"/>
-      <c r="AJ24" s="93"/>
+      <c r="D24" s="183" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="161" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="162"/>
+      <c r="M24" s="162"/>
+      <c r="N24" s="162"/>
+      <c r="O24" s="162"/>
+      <c r="P24" s="162"/>
+      <c r="Q24" s="162"/>
+      <c r="R24" s="162"/>
+      <c r="S24" s="162"/>
+      <c r="T24" s="162"/>
+      <c r="U24" s="162"/>
+      <c r="V24" s="162"/>
+      <c r="W24" s="162"/>
+      <c r="X24" s="162"/>
+      <c r="Y24" s="162"/>
+      <c r="Z24" s="162"/>
+      <c r="AA24" s="162"/>
+      <c r="AB24" s="162"/>
+      <c r="AC24" s="162"/>
+      <c r="AD24" s="162"/>
+      <c r="AE24" s="163"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="132"/>
+      <c r="AJ24" s="133"/>
     </row>
     <row r="25" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="D25" s="157" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="160" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="161"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="161"/>
-      <c r="S25" s="161"/>
-      <c r="T25" s="161"/>
-      <c r="U25" s="161"/>
-      <c r="V25" s="161"/>
-      <c r="W25" s="161"/>
-      <c r="X25" s="161"/>
-      <c r="Y25" s="161"/>
-      <c r="Z25" s="161"/>
-      <c r="AA25" s="161"/>
-      <c r="AB25" s="161"/>
-      <c r="AC25" s="161"/>
-      <c r="AD25" s="161"/>
-      <c r="AE25" s="162"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="92"/>
-      <c r="AJ25" s="93"/>
+      <c r="D25" s="183" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="161" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="162"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="162"/>
+      <c r="P25" s="162"/>
+      <c r="Q25" s="162"/>
+      <c r="R25" s="162"/>
+      <c r="S25" s="162"/>
+      <c r="T25" s="162"/>
+      <c r="U25" s="162"/>
+      <c r="V25" s="162"/>
+      <c r="W25" s="162"/>
+      <c r="X25" s="162"/>
+      <c r="Y25" s="162"/>
+      <c r="Z25" s="162"/>
+      <c r="AA25" s="162"/>
+      <c r="AB25" s="162"/>
+      <c r="AC25" s="162"/>
+      <c r="AD25" s="162"/>
+      <c r="AE25" s="163"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="132"/>
+      <c r="AJ25" s="133"/>
     </row>
     <row r="26" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="D26" s="157" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="160" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="161"/>
-      <c r="S26" s="161"/>
-      <c r="T26" s="161"/>
-      <c r="U26" s="161"/>
-      <c r="V26" s="161"/>
-      <c r="W26" s="161"/>
-      <c r="X26" s="161"/>
-      <c r="Y26" s="161"/>
-      <c r="Z26" s="161"/>
-      <c r="AA26" s="161"/>
-      <c r="AB26" s="161"/>
-      <c r="AC26" s="161"/>
-      <c r="AD26" s="161"/>
-      <c r="AE26" s="162"/>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="92"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="92"/>
-      <c r="AJ26" s="93"/>
+      <c r="D26" s="183" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="161" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="162"/>
+      <c r="M26" s="162"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="162"/>
+      <c r="Q26" s="162"/>
+      <c r="R26" s="162"/>
+      <c r="S26" s="162"/>
+      <c r="T26" s="162"/>
+      <c r="U26" s="162"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="162"/>
+      <c r="X26" s="162"/>
+      <c r="Y26" s="162"/>
+      <c r="Z26" s="162"/>
+      <c r="AA26" s="162"/>
+      <c r="AB26" s="162"/>
+      <c r="AC26" s="162"/>
+      <c r="AD26" s="162"/>
+      <c r="AE26" s="163"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="132"/>
+      <c r="AJ26" s="133"/>
     </row>
     <row r="27" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="D27" s="157" t="s">
+      <c r="D27" s="183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="162"/>
+      <c r="M27" s="162"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="162"/>
+      <c r="P27" s="162"/>
+      <c r="Q27" s="162"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="162"/>
+      <c r="T27" s="162"/>
+      <c r="U27" s="162"/>
+      <c r="V27" s="162"/>
+      <c r="W27" s="162"/>
+      <c r="X27" s="162"/>
+      <c r="Y27" s="162"/>
+      <c r="Z27" s="162"/>
+      <c r="AA27" s="162"/>
+      <c r="AB27" s="162"/>
+      <c r="AC27" s="162"/>
+      <c r="AD27" s="162"/>
+      <c r="AE27" s="163"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="132"/>
+      <c r="AJ27" s="133"/>
+    </row>
+    <row r="28" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="73">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D28" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="160" t="s">
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="161"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="161"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="161"/>
-      <c r="S27" s="161"/>
-      <c r="T27" s="161"/>
-      <c r="U27" s="161"/>
-      <c r="V27" s="161"/>
-      <c r="W27" s="161"/>
-      <c r="X27" s="161"/>
-      <c r="Y27" s="161"/>
-      <c r="Z27" s="161"/>
-      <c r="AA27" s="161"/>
-      <c r="AB27" s="161"/>
-      <c r="AC27" s="161"/>
-      <c r="AD27" s="161"/>
-      <c r="AE27" s="162"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="92"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="92"/>
-      <c r="AJ27" s="93"/>
-    </row>
-    <row r="28" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="76" t="s">
+      <c r="L28" s="162"/>
+      <c r="M28" s="162"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="162"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="162"/>
+      <c r="R28" s="162"/>
+      <c r="S28" s="162"/>
+      <c r="T28" s="162"/>
+      <c r="U28" s="162"/>
+      <c r="V28" s="162"/>
+      <c r="W28" s="162"/>
+      <c r="X28" s="162"/>
+      <c r="Y28" s="162"/>
+      <c r="Z28" s="162"/>
+      <c r="AA28" s="162"/>
+      <c r="AB28" s="162"/>
+      <c r="AC28" s="162"/>
+      <c r="AD28" s="162"/>
+      <c r="AE28" s="163"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="132"/>
+      <c r="AJ28" s="133"/>
+    </row>
+    <row r="29" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="78"/>
-      <c r="AC28" s="78"/>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="80"/>
-      <c r="AG28" s="81"/>
-      <c r="AH28" s="81"/>
-      <c r="AI28" s="81"/>
-      <c r="AJ28" s="82"/>
-    </row>
-    <row r="29" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="73">
-        <f>C27+1</f>
-        <v>20</v>
-      </c>
-      <c r="D29" s="157" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="160" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="161"/>
-      <c r="M29" s="161"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="161"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="161"/>
-      <c r="S29" s="161"/>
-      <c r="T29" s="161"/>
-      <c r="U29" s="161"/>
-      <c r="V29" s="161"/>
-      <c r="W29" s="161"/>
-      <c r="X29" s="161"/>
-      <c r="Y29" s="161"/>
-      <c r="Z29" s="161"/>
-      <c r="AA29" s="161"/>
-      <c r="AB29" s="161"/>
-      <c r="AC29" s="161"/>
-      <c r="AD29" s="161"/>
-      <c r="AE29" s="162"/>
-      <c r="AF29" s="91"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="92"/>
-      <c r="AJ29" s="93"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="80"/>
+      <c r="AG29" s="81"/>
+      <c r="AH29" s="81"/>
+      <c r="AI29" s="81"/>
+      <c r="AJ29" s="82"/>
     </row>
     <row r="30" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="73">
-        <f>C29+1</f>
+        <f>C28+1</f>
         <v>21</v>
       </c>
-      <c r="D30" s="157" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="160" t="s">
-        <v>84</v>
-      </c>
-      <c r="L30" s="161"/>
-      <c r="M30" s="161"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="161"/>
-      <c r="Q30" s="161"/>
-      <c r="R30" s="161"/>
-      <c r="S30" s="161"/>
-      <c r="T30" s="161"/>
-      <c r="U30" s="161"/>
-      <c r="V30" s="161"/>
-      <c r="W30" s="161"/>
-      <c r="X30" s="161"/>
-      <c r="Y30" s="161"/>
-      <c r="Z30" s="161"/>
-      <c r="AA30" s="161"/>
-      <c r="AB30" s="161"/>
-      <c r="AC30" s="161"/>
-      <c r="AD30" s="161"/>
-      <c r="AE30" s="162"/>
-      <c r="AF30" s="91"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="92"/>
-      <c r="AJ30" s="93"/>
+      <c r="D30" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="161" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="162"/>
+      <c r="M30" s="162"/>
+      <c r="N30" s="162"/>
+      <c r="O30" s="162"/>
+      <c r="P30" s="162"/>
+      <c r="Q30" s="162"/>
+      <c r="R30" s="162"/>
+      <c r="S30" s="162"/>
+      <c r="T30" s="162"/>
+      <c r="U30" s="162"/>
+      <c r="V30" s="162"/>
+      <c r="W30" s="162"/>
+      <c r="X30" s="162"/>
+      <c r="Y30" s="162"/>
+      <c r="Z30" s="162"/>
+      <c r="AA30" s="162"/>
+      <c r="AB30" s="162"/>
+      <c r="AC30" s="162"/>
+      <c r="AD30" s="162"/>
+      <c r="AE30" s="163"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="132"/>
+      <c r="AJ30" s="133"/>
     </row>
     <row r="31" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="73">
-        <f t="shared" ref="C31:C34" si="2">C30+1</f>
+        <f>C30+1</f>
         <v>22</v>
       </c>
-      <c r="D31" s="157" t="s">
+      <c r="D31" s="183" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="161" t="s">
+        <v>84</v>
+      </c>
+      <c r="L31" s="162"/>
+      <c r="M31" s="162"/>
+      <c r="N31" s="162"/>
+      <c r="O31" s="162"/>
+      <c r="P31" s="162"/>
+      <c r="Q31" s="162"/>
+      <c r="R31" s="162"/>
+      <c r="S31" s="162"/>
+      <c r="T31" s="162"/>
+      <c r="U31" s="162"/>
+      <c r="V31" s="162"/>
+      <c r="W31" s="162"/>
+      <c r="X31" s="162"/>
+      <c r="Y31" s="162"/>
+      <c r="Z31" s="162"/>
+      <c r="AA31" s="162"/>
+      <c r="AB31" s="162"/>
+      <c r="AC31" s="162"/>
+      <c r="AD31" s="162"/>
+      <c r="AE31" s="163"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="132"/>
+      <c r="AJ31" s="133"/>
+    </row>
+    <row r="32" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="73">
+        <f t="shared" ref="C32:C35" si="3">C31+1</f>
+        <v>23</v>
+      </c>
+      <c r="D32" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="160" t="s">
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="L31" s="161"/>
-      <c r="M31" s="161"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="161"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="161"/>
-      <c r="S31" s="161"/>
-      <c r="T31" s="161"/>
-      <c r="U31" s="161"/>
-      <c r="V31" s="161"/>
-      <c r="W31" s="161"/>
-      <c r="X31" s="161"/>
-      <c r="Y31" s="161"/>
-      <c r="Z31" s="161"/>
-      <c r="AA31" s="161"/>
-      <c r="AB31" s="161"/>
-      <c r="AC31" s="161"/>
-      <c r="AD31" s="161"/>
-      <c r="AE31" s="162"/>
-      <c r="AF31" s="91"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="92"/>
-      <c r="AJ31" s="93"/>
-    </row>
-    <row r="32" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="73">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="D32" s="157" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="160" t="s">
-        <v>78</v>
-      </c>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="161"/>
-      <c r="S32" s="161"/>
-      <c r="T32" s="161"/>
-      <c r="U32" s="161"/>
-      <c r="V32" s="161"/>
-      <c r="W32" s="161"/>
-      <c r="X32" s="161"/>
-      <c r="Y32" s="161"/>
-      <c r="Z32" s="161"/>
-      <c r="AA32" s="161"/>
-      <c r="AB32" s="161"/>
-      <c r="AC32" s="161"/>
-      <c r="AD32" s="161"/>
-      <c r="AE32" s="162"/>
-      <c r="AF32" s="91"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="92"/>
-      <c r="AJ32" s="93"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="162"/>
+      <c r="N32" s="162"/>
+      <c r="O32" s="162"/>
+      <c r="P32" s="162"/>
+      <c r="Q32" s="162"/>
+      <c r="R32" s="162"/>
+      <c r="S32" s="162"/>
+      <c r="T32" s="162"/>
+      <c r="U32" s="162"/>
+      <c r="V32" s="162"/>
+      <c r="W32" s="162"/>
+      <c r="X32" s="162"/>
+      <c r="Y32" s="162"/>
+      <c r="Z32" s="162"/>
+      <c r="AA32" s="162"/>
+      <c r="AB32" s="162"/>
+      <c r="AC32" s="162"/>
+      <c r="AD32" s="162"/>
+      <c r="AE32" s="163"/>
+      <c r="AF32" s="137"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="132"/>
+      <c r="AJ32" s="133"/>
     </row>
     <row r="33" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="D33" s="157" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="160" t="s">
-        <v>80</v>
-      </c>
-      <c r="L33" s="161"/>
-      <c r="M33" s="161"/>
-      <c r="N33" s="161"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="161"/>
-      <c r="Q33" s="161"/>
-      <c r="R33" s="161"/>
-      <c r="S33" s="161"/>
-      <c r="T33" s="161"/>
-      <c r="U33" s="161"/>
-      <c r="V33" s="161"/>
-      <c r="W33" s="161"/>
-      <c r="X33" s="161"/>
-      <c r="Y33" s="161"/>
-      <c r="Z33" s="161"/>
-      <c r="AA33" s="161"/>
-      <c r="AB33" s="161"/>
-      <c r="AC33" s="161"/>
-      <c r="AD33" s="161"/>
-      <c r="AE33" s="162"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="92"/>
-      <c r="AJ33" s="93"/>
+      <c r="D33" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="161" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="162"/>
+      <c r="M33" s="162"/>
+      <c r="N33" s="162"/>
+      <c r="O33" s="162"/>
+      <c r="P33" s="162"/>
+      <c r="Q33" s="162"/>
+      <c r="R33" s="162"/>
+      <c r="S33" s="162"/>
+      <c r="T33" s="162"/>
+      <c r="U33" s="162"/>
+      <c r="V33" s="162"/>
+      <c r="W33" s="162"/>
+      <c r="X33" s="162"/>
+      <c r="Y33" s="162"/>
+      <c r="Z33" s="162"/>
+      <c r="AA33" s="162"/>
+      <c r="AB33" s="162"/>
+      <c r="AC33" s="162"/>
+      <c r="AD33" s="162"/>
+      <c r="AE33" s="163"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="132"/>
+      <c r="AJ33" s="133"/>
     </row>
     <row r="34" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="D34" s="157" t="s">
+      <c r="D34" s="183" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="184"/>
+      <c r="J34" s="185"/>
+      <c r="K34" s="161" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34" s="162"/>
+      <c r="M34" s="162"/>
+      <c r="N34" s="162"/>
+      <c r="O34" s="162"/>
+      <c r="P34" s="162"/>
+      <c r="Q34" s="162"/>
+      <c r="R34" s="162"/>
+      <c r="S34" s="162"/>
+      <c r="T34" s="162"/>
+      <c r="U34" s="162"/>
+      <c r="V34" s="162"/>
+      <c r="W34" s="162"/>
+      <c r="X34" s="162"/>
+      <c r="Y34" s="162"/>
+      <c r="Z34" s="162"/>
+      <c r="AA34" s="162"/>
+      <c r="AB34" s="162"/>
+      <c r="AC34" s="162"/>
+      <c r="AD34" s="162"/>
+      <c r="AE34" s="163"/>
+      <c r="AF34" s="137"/>
+      <c r="AG34" s="132"/>
+      <c r="AH34" s="132"/>
+      <c r="AI34" s="132"/>
+      <c r="AJ34" s="133"/>
+    </row>
+    <row r="35" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="73">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="D35" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="159"/>
-      <c r="K34" s="160" t="s">
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="184"/>
+      <c r="J35" s="185"/>
+      <c r="K35" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="L34" s="161"/>
-      <c r="M34" s="161"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="161"/>
-      <c r="P34" s="161"/>
-      <c r="Q34" s="161"/>
-      <c r="R34" s="161"/>
-      <c r="S34" s="161"/>
-      <c r="T34" s="161"/>
-      <c r="U34" s="161"/>
-      <c r="V34" s="161"/>
-      <c r="W34" s="161"/>
-      <c r="X34" s="161"/>
-      <c r="Y34" s="161"/>
-      <c r="Z34" s="161"/>
-      <c r="AA34" s="161"/>
-      <c r="AB34" s="161"/>
-      <c r="AC34" s="161"/>
-      <c r="AD34" s="161"/>
-      <c r="AE34" s="162"/>
-      <c r="AF34" s="91"/>
-      <c r="AG34" s="92"/>
-      <c r="AH34" s="92"/>
-      <c r="AI34" s="92"/>
-      <c r="AJ34" s="93"/>
-    </row>
-    <row r="35" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="162"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="162"/>
+      <c r="P35" s="162"/>
+      <c r="Q35" s="162"/>
+      <c r="R35" s="162"/>
+      <c r="S35" s="162"/>
+      <c r="T35" s="162"/>
+      <c r="U35" s="162"/>
+      <c r="V35" s="162"/>
+      <c r="W35" s="162"/>
+      <c r="X35" s="162"/>
+      <c r="Y35" s="162"/>
+      <c r="Z35" s="162"/>
+      <c r="AA35" s="162"/>
+      <c r="AB35" s="162"/>
+      <c r="AC35" s="162"/>
+      <c r="AD35" s="162"/>
+      <c r="AE35" s="163"/>
+      <c r="AF35" s="137"/>
+      <c r="AG35" s="132"/>
+      <c r="AH35" s="132"/>
+      <c r="AI35" s="132"/>
+      <c r="AJ35" s="133"/>
+    </row>
     <row r="36" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7259,13 +7309,86 @@
     <row r="48" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+  <mergeCells count="98">
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:AE35"/>
+    <mergeCell ref="AF35:AJ35"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:AE33"/>
+    <mergeCell ref="AF33:AJ33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:AE34"/>
+    <mergeCell ref="AF34:AJ34"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:AE32"/>
+    <mergeCell ref="AF32:AJ32"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:AE31"/>
+    <mergeCell ref="AF31:AJ31"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:AE28"/>
+    <mergeCell ref="AF28:AJ28"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:AE30"/>
+    <mergeCell ref="AF30:AJ30"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AE26"/>
+    <mergeCell ref="AF26:AJ26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:AE27"/>
+    <mergeCell ref="AF27:AJ27"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AE24"/>
+    <mergeCell ref="AF24:AJ24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:AE25"/>
+    <mergeCell ref="AF25:AJ25"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:AE22"/>
+    <mergeCell ref="AF22:AJ22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:AE23"/>
+    <mergeCell ref="AF23:AJ23"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:AE20"/>
+    <mergeCell ref="AF20:AJ20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:AE21"/>
+    <mergeCell ref="AF21:AJ21"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:AE18"/>
+    <mergeCell ref="AF18:AJ18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="K19:AE19"/>
+    <mergeCell ref="AF19:AJ19"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="K16:AE16"/>
+    <mergeCell ref="AF16:AJ16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:AE17"/>
+    <mergeCell ref="AF17:AJ17"/>
+    <mergeCell ref="AF7:AJ7"/>
+    <mergeCell ref="AF8:AJ8"/>
+    <mergeCell ref="AF12:AJ12"/>
+    <mergeCell ref="AF9:AJ9"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:AE15"/>
+    <mergeCell ref="AF15:AJ15"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K10:AE10"/>
+    <mergeCell ref="AF10:AJ10"/>
+    <mergeCell ref="AF13:AJ13"/>
+    <mergeCell ref="K12:AE12"/>
+    <mergeCell ref="K9:AE9"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="K13:AE13"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:AE11"/>
+    <mergeCell ref="AF11:AJ11"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="K7:AE7"/>
@@ -7282,80 +7405,11 @@
     <mergeCell ref="E1:P1"/>
     <mergeCell ref="E2:P2"/>
     <mergeCell ref="E3:P3"/>
-    <mergeCell ref="AF12:AJ12"/>
-    <mergeCell ref="K11:AE11"/>
-    <mergeCell ref="K9:AE9"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:AE12"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K10:AE10"/>
-    <mergeCell ref="AF10:AJ10"/>
-    <mergeCell ref="AF7:AJ7"/>
-    <mergeCell ref="AF8:AJ8"/>
-    <mergeCell ref="AF11:AJ11"/>
-    <mergeCell ref="AF9:AJ9"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="K14:AE14"/>
-    <mergeCell ref="AF14:AJ14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="K15:AE15"/>
-    <mergeCell ref="AF15:AJ15"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="K16:AE16"/>
-    <mergeCell ref="AF16:AJ16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:AE17"/>
-    <mergeCell ref="AF17:AJ17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:AE18"/>
-    <mergeCell ref="AF18:AJ18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="K19:AE19"/>
-    <mergeCell ref="AF19:AJ19"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:AE20"/>
-    <mergeCell ref="AF20:AJ20"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:AE21"/>
-    <mergeCell ref="AF21:AJ21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:AE22"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="K23:AE23"/>
-    <mergeCell ref="AF23:AJ23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:AE24"/>
-    <mergeCell ref="AF24:AJ24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:AE25"/>
-    <mergeCell ref="AF25:AJ25"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:AE26"/>
-    <mergeCell ref="AF26:AJ26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:AE27"/>
-    <mergeCell ref="AF27:AJ27"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:AE29"/>
-    <mergeCell ref="AF29:AJ29"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:AE31"/>
-    <mergeCell ref="AF31:AJ31"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:AE30"/>
-    <mergeCell ref="AF30:AJ30"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:AE34"/>
-    <mergeCell ref="AF34:AJ34"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:AE32"/>
-    <mergeCell ref="AF32:AJ32"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:AE33"/>
-    <mergeCell ref="AF33:AJ33"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(画面)_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(画面)_A1_プロジェクト管理システム.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EBF672-5F97-4283-8417-E121CB09ABB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34DE19F-F98D-4305-91F0-F009A9EE38A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc46209822" localSheetId="3">ja!$B$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ja!$A$1:$AK$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ja!$A$1:$AK$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$33</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>PJ名</t>
   </si>
@@ -122,16 +122,6 @@
   <si>
     <t>No.</t>
     <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -434,6 +424,42 @@
   </si>
   <si>
     <t>備考は512文字以下のシステム許容文字で入力してください。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.app.entity.core.validation.validator.DateRelationUtil.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>終了日には、開始日より後の日付を入力して下さい。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>不足メッセージを追加</t>
+    <rPh sb="0" eb="2">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>errors.doubleSubmission</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>画面遷移が不正です。</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -812,7 +838,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -989,6 +1015,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1139,63 +1189,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1281,30 +1334,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2122,7 +2151,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="6" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2134,12 +2163,12 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="76">
+      <c r="I25" s="84">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43805</v>
-      </c>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
+        <v>44819</v>
+      </c>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
@@ -2737,57 +2766,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="93" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="111" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="77">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="85">
         <f>IF(D8="","",D8)</f>
         <v>43601</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="79"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="87"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -2795,53 +2824,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="90" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="98" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="77">
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="85">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43805</v>
-      </c>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="79"/>
+        <v>44819</v>
+      </c>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="87"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -2849,45 +2878,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="79"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="87"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -2924,1040 +2953,1042 @@
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="80" t="s">
+      <c r="C7" s="89"/>
+      <c r="D7" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="80" t="s">
+      <c r="E7" s="90"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="80" t="s">
+      <c r="H7" s="90"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="80" t="s">
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="81"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="89"/>
     </row>
     <row r="8" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B8" s="130">
+      <c r="B8" s="138">
         <v>1</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132">
+      <c r="C8" s="139"/>
+      <c r="D8" s="140">
         <v>43601</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135" t="s">
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="143" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="144"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138" t="s">
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="141" t="s">
+      <c r="R8" s="150"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="150"/>
+      <c r="Z8" s="150"/>
+      <c r="AA8" s="150"/>
+      <c r="AB8" s="150"/>
+      <c r="AC8" s="150"/>
+      <c r="AD8" s="150"/>
+      <c r="AE8" s="151"/>
+      <c r="AF8" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="142"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="142"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="138" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG8" s="139"/>
-      <c r="AH8" s="139"/>
-      <c r="AI8" s="140"/>
+      <c r="AG8" s="147"/>
+      <c r="AH8" s="147"/>
+      <c r="AI8" s="148"/>
     </row>
     <row r="9" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>2</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="123">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117">
-        <v>43805</v>
-      </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120" t="s">
+      <c r="C9" s="124"/>
+      <c r="D9" s="125">
+        <v>44819</v>
+      </c>
+      <c r="E9" s="126"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="123" t="s">
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="134" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="136"/>
+      <c r="AF9" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="128"/>
-      <c r="AF9" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG9" s="124"/>
-      <c r="AH9" s="124"/>
-      <c r="AI9" s="125"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="133"/>
     </row>
     <row r="10" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="129"/>
-      <c r="AG10" s="124"/>
-      <c r="AH10" s="124"/>
-      <c r="AI10" s="125"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="136"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="133"/>
     </row>
     <row r="11" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="127"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="127"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="127"/>
-      <c r="AE11" s="128"/>
-      <c r="AF11" s="129"/>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="124"/>
-      <c r="AI11" s="125"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="133"/>
     </row>
     <row r="12" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="127"/>
-      <c r="T12" s="127"/>
-      <c r="U12" s="127"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="127"/>
-      <c r="AE12" s="128"/>
-      <c r="AF12" s="129"/>
-      <c r="AG12" s="124"/>
-      <c r="AH12" s="124"/>
-      <c r="AI12" s="125"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="136"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="133"/>
     </row>
     <row r="13" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="124"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="128"/>
-      <c r="AF13" s="129"/>
-      <c r="AG13" s="124"/>
-      <c r="AH13" s="124"/>
-      <c r="AI13" s="125"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="133"/>
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="127"/>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="128"/>
-      <c r="AF14" s="129"/>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="125"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="137"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="132"/>
+      <c r="AI14" s="133"/>
     </row>
     <row r="15" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="127"/>
-      <c r="AE15" s="128"/>
-      <c r="AF15" s="129"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="125"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="133"/>
     </row>
     <row r="16" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="128"/>
-      <c r="AF16" s="129"/>
-      <c r="AG16" s="124"/>
-      <c r="AH16" s="124"/>
-      <c r="AI16" s="125"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="133"/>
     </row>
     <row r="17" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="127"/>
-      <c r="AE17" s="128"/>
-      <c r="AF17" s="129"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="124"/>
-      <c r="AI17" s="125"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="133"/>
     </row>
     <row r="18" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="127"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="127"/>
-      <c r="AE18" s="128"/>
-      <c r="AF18" s="129"/>
-      <c r="AG18" s="124"/>
-      <c r="AH18" s="124"/>
-      <c r="AI18" s="125"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="136"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="133"/>
     </row>
     <row r="19" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="127"/>
-      <c r="T19" s="127"/>
-      <c r="U19" s="127"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="127"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="127"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="129"/>
-      <c r="AG19" s="124"/>
-      <c r="AH19" s="124"/>
-      <c r="AI19" s="125"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="133"/>
     </row>
     <row r="20" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="127"/>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="128"/>
-      <c r="AF20" s="129"/>
-      <c r="AG20" s="124"/>
-      <c r="AH20" s="124"/>
-      <c r="AI20" s="125"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="135"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="136"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="133"/>
     </row>
     <row r="21" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="127"/>
-      <c r="U21" s="127"/>
-      <c r="V21" s="127"/>
-      <c r="W21" s="127"/>
-      <c r="X21" s="127"/>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="127"/>
-      <c r="AC21" s="127"/>
-      <c r="AD21" s="127"/>
-      <c r="AE21" s="128"/>
-      <c r="AF21" s="129"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="125"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="135"/>
+      <c r="AE21" s="136"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="133"/>
     </row>
     <row r="22" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
-      <c r="U22" s="127"/>
-      <c r="V22" s="127"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="127"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="129"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="125"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="135"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="135"/>
+      <c r="AE22" s="136"/>
+      <c r="AF22" s="137"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="133"/>
     </row>
     <row r="23" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="124"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="127"/>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="127"/>
-      <c r="AC23" s="127"/>
-      <c r="AD23" s="127"/>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="129"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="125"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="137"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="133"/>
     </row>
     <row r="24" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="124"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="127"/>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="127"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="128"/>
-      <c r="AF24" s="129"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="125"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="133"/>
     </row>
     <row r="25" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="127"/>
-      <c r="T25" s="127"/>
-      <c r="U25" s="127"/>
-      <c r="V25" s="127"/>
-      <c r="W25" s="127"/>
-      <c r="X25" s="127"/>
-      <c r="Y25" s="127"/>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="127"/>
-      <c r="AC25" s="127"/>
-      <c r="AD25" s="127"/>
-      <c r="AE25" s="128"/>
-      <c r="AF25" s="129"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="125"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="153"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="133"/>
     </row>
     <row r="26" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="124"/>
-      <c r="N26" s="124"/>
-      <c r="O26" s="124"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="128"/>
-      <c r="AF26" s="129"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="125"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="135"/>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="133"/>
     </row>
     <row r="27" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="124"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="124"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="127"/>
-      <c r="T27" s="127"/>
-      <c r="U27" s="127"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="127"/>
-      <c r="Z27" s="127"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="127"/>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="127"/>
-      <c r="AE27" s="128"/>
-      <c r="AF27" s="129"/>
-      <c r="AG27" s="124"/>
-      <c r="AH27" s="124"/>
-      <c r="AI27" s="125"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="153"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="133"/>
     </row>
     <row r="28" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="124"/>
-      <c r="N28" s="124"/>
-      <c r="O28" s="124"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="127"/>
-      <c r="U28" s="127"/>
-      <c r="V28" s="127"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="127"/>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="127"/>
-      <c r="AE28" s="128"/>
-      <c r="AF28" s="129"/>
-      <c r="AG28" s="124"/>
-      <c r="AH28" s="124"/>
-      <c r="AI28" s="125"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="133"/>
     </row>
     <row r="29" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="124"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="125"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="127"/>
-      <c r="U29" s="127"/>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="127"/>
-      <c r="AC29" s="127"/>
-      <c r="AD29" s="127"/>
-      <c r="AE29" s="128"/>
-      <c r="AF29" s="129"/>
-      <c r="AG29" s="124"/>
-      <c r="AH29" s="124"/>
-      <c r="AI29" s="125"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="136"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="133"/>
     </row>
     <row r="30" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="124"/>
-      <c r="N30" s="124"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="125"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="127"/>
-      <c r="U30" s="127"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="127"/>
-      <c r="AC30" s="127"/>
-      <c r="AD30" s="127"/>
-      <c r="AE30" s="128"/>
-      <c r="AF30" s="129"/>
-      <c r="AG30" s="124"/>
-      <c r="AH30" s="124"/>
-      <c r="AI30" s="125"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="153"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="135"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="133"/>
     </row>
     <row r="31" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="124"/>
-      <c r="N31" s="124"/>
-      <c r="O31" s="124"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="127"/>
-      <c r="U31" s="127"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="127"/>
-      <c r="AC31" s="127"/>
-      <c r="AD31" s="127"/>
-      <c r="AE31" s="128"/>
-      <c r="AF31" s="129"/>
-      <c r="AG31" s="124"/>
-      <c r="AH31" s="124"/>
-      <c r="AI31" s="125"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="133"/>
+      <c r="Q31" s="153"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="133"/>
     </row>
     <row r="32" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="124"/>
-      <c r="N32" s="124"/>
-      <c r="O32" s="124"/>
-      <c r="P32" s="125"/>
-      <c r="Q32" s="126"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="128"/>
-      <c r="AF32" s="129"/>
-      <c r="AG32" s="124"/>
-      <c r="AH32" s="124"/>
-      <c r="AI32" s="125"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="153"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="135"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="137"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="133"/>
     </row>
     <row r="33" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="124"/>
-      <c r="N33" s="124"/>
-      <c r="O33" s="124"/>
-      <c r="P33" s="125"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="127"/>
-      <c r="T33" s="127"/>
-      <c r="U33" s="127"/>
-      <c r="V33" s="127"/>
-      <c r="W33" s="127"/>
-      <c r="X33" s="127"/>
-      <c r="Y33" s="127"/>
-      <c r="Z33" s="127"/>
-      <c r="AA33" s="127"/>
-      <c r="AB33" s="127"/>
-      <c r="AC33" s="127"/>
-      <c r="AD33" s="127"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="129"/>
-      <c r="AG33" s="124"/>
-      <c r="AH33" s="124"/>
-      <c r="AI33" s="125"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="153"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="133"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
@@ -4299,163 +4330,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="102" t="str">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>メッセージ設計書</v>
       </c>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="111" t="str">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="146">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="155">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43601</v>
       </c>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="157"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="111" t="str">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="146">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="155">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43805</v>
-      </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
+        <v>44819</v>
+      </c>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="157"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="111" t="str">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="146" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="157"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -4515,7 +4546,7 @@
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
@@ -4576,7 +4607,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -5838,7 +5869,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN49"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -5850,169 +5881,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="155" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="164" t="str">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="164" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>メッセージ設計書</v>
       </c>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="84" t="s">
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="111" t="str">
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="146">
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="155">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43601</v>
       </c>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="148"/>
+      <c r="AJ1" s="156"/>
+      <c r="AK1" s="157"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="84" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="111" t="str">
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="146">
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="155">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43805</v>
-      </c>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="148"/>
+        <v>44819</v>
+      </c>
+      <c r="AJ2" s="156"/>
+      <c r="AK2" s="157"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="111" t="str">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="180"/>
+      <c r="AB3" s="181"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="146" t="str">
+      <c r="AF3" s="120"/>
+      <c r="AG3" s="120"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AJ3" s="147"/>
-      <c r="AK3" s="148"/>
+      <c r="AJ3" s="156"/>
+      <c r="AK3" s="157"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
@@ -6020,7 +6051,7 @@
     <row r="4" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6028,1157 +6059,1241 @@
     </row>
     <row r="7" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="149" t="s">
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="150"/>
-      <c r="AD7" s="150"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="173" t="s">
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
+      <c r="V7" s="159"/>
+      <c r="W7" s="159"/>
+      <c r="X7" s="159"/>
+      <c r="Y7" s="159"/>
+      <c r="Z7" s="159"/>
+      <c r="AA7" s="159"/>
+      <c r="AB7" s="159"/>
+      <c r="AC7" s="159"/>
+      <c r="AD7" s="159"/>
+      <c r="AE7" s="160"/>
+      <c r="AF7" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="150"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="150"/>
-      <c r="AJ7" s="151"/>
+      <c r="AG7" s="159"/>
+      <c r="AH7" s="159"/>
+      <c r="AI7" s="159"/>
+      <c r="AJ7" s="160"/>
     </row>
     <row r="8" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="73">
         <v>1</v>
       </c>
-      <c r="D8" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="152" t="s">
+      <c r="D8" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="153"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="153"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="153"/>
-      <c r="AB8" s="153"/>
-      <c r="AC8" s="153"/>
-      <c r="AD8" s="153"/>
-      <c r="AE8" s="154"/>
-      <c r="AF8" s="129"/>
-      <c r="AG8" s="124"/>
-      <c r="AH8" s="124"/>
-      <c r="AI8" s="124"/>
-      <c r="AJ8" s="125"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="161" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="162"/>
+      <c r="T8" s="162"/>
+      <c r="U8" s="162"/>
+      <c r="V8" s="162"/>
+      <c r="W8" s="162"/>
+      <c r="X8" s="162"/>
+      <c r="Y8" s="162"/>
+      <c r="Z8" s="162"/>
+      <c r="AA8" s="162"/>
+      <c r="AB8" s="162"/>
+      <c r="AC8" s="162"/>
+      <c r="AD8" s="162"/>
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="137"/>
+      <c r="AG8" s="132"/>
+      <c r="AH8" s="132"/>
+      <c r="AI8" s="132"/>
+      <c r="AJ8" s="133"/>
     </row>
     <row r="9" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="73">
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="161" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="152" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="153"/>
-      <c r="AB9" s="153"/>
-      <c r="AC9" s="153"/>
-      <c r="AD9" s="153"/>
-      <c r="AE9" s="154"/>
-      <c r="AF9" s="129"/>
-      <c r="AG9" s="124"/>
-      <c r="AH9" s="124"/>
-      <c r="AI9" s="124"/>
-      <c r="AJ9" s="125"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="162"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="162"/>
+      <c r="T9" s="162"/>
+      <c r="U9" s="162"/>
+      <c r="V9" s="162"/>
+      <c r="W9" s="162"/>
+      <c r="X9" s="162"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="162"/>
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="162"/>
+      <c r="AE9" s="163"/>
+      <c r="AF9" s="137"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="132"/>
+      <c r="AJ9" s="133"/>
     </row>
     <row r="10" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="73">
-        <f t="shared" ref="C10:C12" si="0">C9+1</f>
+        <f t="shared" ref="C10:C11" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="161" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="152" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="154"/>
-      <c r="AF10" s="129"/>
-      <c r="AG10" s="124"/>
-      <c r="AH10" s="124"/>
-      <c r="AI10" s="124"/>
-      <c r="AJ10" s="125"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="162"/>
+      <c r="T10" s="162"/>
+      <c r="U10" s="162"/>
+      <c r="V10" s="162"/>
+      <c r="W10" s="162"/>
+      <c r="X10" s="162"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="162"/>
+      <c r="AA10" s="162"/>
+      <c r="AB10" s="162"/>
+      <c r="AC10" s="162"/>
+      <c r="AD10" s="162"/>
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="132"/>
+      <c r="AJ10" s="133"/>
     </row>
     <row r="11" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="73">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="152" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="153"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="153"/>
-      <c r="AA11" s="153"/>
-      <c r="AB11" s="153"/>
-      <c r="AC11" s="153"/>
-      <c r="AD11" s="153"/>
-      <c r="AE11" s="154"/>
-      <c r="AF11" s="129"/>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="124"/>
-      <c r="AI11" s="124"/>
-      <c r="AJ11" s="125"/>
+      <c r="D11" s="161" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="162"/>
+      <c r="T11" s="162"/>
+      <c r="U11" s="162"/>
+      <c r="V11" s="162"/>
+      <c r="W11" s="162"/>
+      <c r="X11" s="162"/>
+      <c r="Y11" s="162"/>
+      <c r="Z11" s="162"/>
+      <c r="AA11" s="162"/>
+      <c r="AB11" s="162"/>
+      <c r="AC11" s="162"/>
+      <c r="AD11" s="162"/>
+      <c r="AE11" s="163"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="132"/>
+      <c r="AJ11" s="133"/>
     </row>
     <row r="12" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="73">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C12:C13" si="1">C11+1</f>
         <v>5</v>
       </c>
-      <c r="D12" s="152" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="152" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="153"/>
-      <c r="AA12" s="153"/>
-      <c r="AB12" s="153"/>
-      <c r="AC12" s="153"/>
-      <c r="AD12" s="153"/>
-      <c r="AE12" s="154"/>
-      <c r="AF12" s="129"/>
-      <c r="AG12" s="124"/>
-      <c r="AH12" s="124"/>
-      <c r="AI12" s="124"/>
-      <c r="AJ12" s="125"/>
+      <c r="D12" s="161" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="161" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="162"/>
+      <c r="R12" s="162"/>
+      <c r="S12" s="162"/>
+      <c r="T12" s="162"/>
+      <c r="U12" s="162"/>
+      <c r="V12" s="162"/>
+      <c r="W12" s="162"/>
+      <c r="X12" s="162"/>
+      <c r="Y12" s="162"/>
+      <c r="Z12" s="162"/>
+      <c r="AA12" s="162"/>
+      <c r="AB12" s="162"/>
+      <c r="AC12" s="162"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="163"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="132"/>
+      <c r="AJ12" s="133"/>
     </row>
     <row r="13" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="181" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="175"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="176"/>
-      <c r="N13" s="176"/>
-      <c r="O13" s="176"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="176"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="176"/>
-      <c r="U13" s="176"/>
-      <c r="V13" s="176"/>
-      <c r="W13" s="176"/>
-      <c r="X13" s="176"/>
-      <c r="Y13" s="176"/>
-      <c r="Z13" s="176"/>
-      <c r="AA13" s="176"/>
-      <c r="AB13" s="176"/>
-      <c r="AC13" s="176"/>
-      <c r="AD13" s="176"/>
-      <c r="AE13" s="177"/>
-      <c r="AF13" s="178"/>
-      <c r="AG13" s="179"/>
-      <c r="AH13" s="179"/>
-      <c r="AI13" s="179"/>
-      <c r="AJ13" s="180"/>
-    </row>
-    <row r="14" spans="1:40" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="73">
-        <f>C12+1</f>
+      <c r="C13" s="73">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D14" s="182" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="152" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="153"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="153"/>
-      <c r="X14" s="153"/>
-      <c r="Y14" s="153"/>
-      <c r="Z14" s="153"/>
-      <c r="AA14" s="153"/>
-      <c r="AB14" s="153"/>
-      <c r="AC14" s="153"/>
-      <c r="AD14" s="153"/>
-      <c r="AE14" s="154"/>
-      <c r="AF14" s="129"/>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="124"/>
-      <c r="AJ14" s="125"/>
+      <c r="D13" s="161" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="161" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="162"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="162"/>
+      <c r="U13" s="162"/>
+      <c r="V13" s="162"/>
+      <c r="W13" s="162"/>
+      <c r="X13" s="162"/>
+      <c r="Y13" s="162"/>
+      <c r="Z13" s="162"/>
+      <c r="AA13" s="162"/>
+      <c r="AB13" s="162"/>
+      <c r="AC13" s="162"/>
+      <c r="AD13" s="162"/>
+      <c r="AE13" s="163"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="132"/>
+      <c r="AJ13" s="133"/>
+    </row>
+    <row r="14" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="78"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="82"/>
     </row>
     <row r="15" spans="1:40" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="73">
-        <f t="shared" ref="C14:C27" si="1">C14+1</f>
+        <f>C13+1</f>
         <v>7</v>
       </c>
-      <c r="D15" s="182" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="153"/>
-      <c r="U15" s="153"/>
-      <c r="V15" s="153"/>
-      <c r="W15" s="153"/>
-      <c r="X15" s="153"/>
-      <c r="Y15" s="153"/>
-      <c r="Z15" s="153"/>
-      <c r="AA15" s="153"/>
-      <c r="AB15" s="153"/>
-      <c r="AC15" s="153"/>
-      <c r="AD15" s="153"/>
-      <c r="AE15" s="154"/>
-      <c r="AF15" s="129"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="124"/>
-      <c r="AJ15" s="125"/>
+      <c r="D15" s="183" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="161" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="162"/>
+      <c r="T15" s="162"/>
+      <c r="U15" s="162"/>
+      <c r="V15" s="162"/>
+      <c r="W15" s="162"/>
+      <c r="X15" s="162"/>
+      <c r="Y15" s="162"/>
+      <c r="Z15" s="162"/>
+      <c r="AA15" s="162"/>
+      <c r="AB15" s="162"/>
+      <c r="AC15" s="162"/>
+      <c r="AD15" s="162"/>
+      <c r="AE15" s="163"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="132"/>
+      <c r="AJ15" s="133"/>
     </row>
     <row r="16" spans="1:40" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C16:C28" si="2">C15+1</f>
         <v>8</v>
       </c>
-      <c r="D16" s="182" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="184"/>
-      <c r="K16" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="153"/>
-      <c r="T16" s="153"/>
-      <c r="U16" s="153"/>
-      <c r="V16" s="153"/>
-      <c r="W16" s="153"/>
-      <c r="X16" s="153"/>
-      <c r="Y16" s="153"/>
-      <c r="Z16" s="153"/>
-      <c r="AA16" s="153"/>
-      <c r="AB16" s="153"/>
-      <c r="AC16" s="153"/>
-      <c r="AD16" s="153"/>
-      <c r="AE16" s="154"/>
-      <c r="AF16" s="129"/>
-      <c r="AG16" s="124"/>
-      <c r="AH16" s="124"/>
-      <c r="AI16" s="124"/>
-      <c r="AJ16" s="125"/>
+      <c r="D16" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="161" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="162"/>
+      <c r="R16" s="162"/>
+      <c r="S16" s="162"/>
+      <c r="T16" s="162"/>
+      <c r="U16" s="162"/>
+      <c r="V16" s="162"/>
+      <c r="W16" s="162"/>
+      <c r="X16" s="162"/>
+      <c r="Y16" s="162"/>
+      <c r="Z16" s="162"/>
+      <c r="AA16" s="162"/>
+      <c r="AB16" s="162"/>
+      <c r="AC16" s="162"/>
+      <c r="AD16" s="162"/>
+      <c r="AE16" s="163"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="132"/>
+      <c r="AJ16" s="133"/>
     </row>
     <row r="17" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D17" s="182" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="184"/>
-      <c r="K17" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="153"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="153"/>
-      <c r="W17" s="153"/>
-      <c r="X17" s="153"/>
-      <c r="Y17" s="153"/>
-      <c r="Z17" s="153"/>
-      <c r="AA17" s="153"/>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="153"/>
-      <c r="AD17" s="153"/>
-      <c r="AE17" s="154"/>
-      <c r="AF17" s="129"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="124"/>
-      <c r="AI17" s="124"/>
-      <c r="AJ17" s="125"/>
+      <c r="D17" s="183" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="184"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="161" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
+      <c r="Q17" s="162"/>
+      <c r="R17" s="162"/>
+      <c r="S17" s="162"/>
+      <c r="T17" s="162"/>
+      <c r="U17" s="162"/>
+      <c r="V17" s="162"/>
+      <c r="W17" s="162"/>
+      <c r="X17" s="162"/>
+      <c r="Y17" s="162"/>
+      <c r="Z17" s="162"/>
+      <c r="AA17" s="162"/>
+      <c r="AB17" s="162"/>
+      <c r="AC17" s="162"/>
+      <c r="AD17" s="162"/>
+      <c r="AE17" s="163"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="132"/>
+      <c r="AJ17" s="133"/>
     </row>
     <row r="18" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D18" s="182" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="184"/>
-      <c r="K18" s="152" t="s">
+      <c r="D18" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="153"/>
-      <c r="T18" s="153"/>
-      <c r="U18" s="153"/>
-      <c r="V18" s="153"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="153"/>
-      <c r="Z18" s="153"/>
-      <c r="AA18" s="153"/>
-      <c r="AB18" s="153"/>
-      <c r="AC18" s="153"/>
-      <c r="AD18" s="153"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="129"/>
-      <c r="AG18" s="124"/>
-      <c r="AH18" s="124"/>
-      <c r="AI18" s="124"/>
-      <c r="AJ18" s="125"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="161" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="162"/>
+      <c r="Q18" s="162"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="162"/>
+      <c r="T18" s="162"/>
+      <c r="U18" s="162"/>
+      <c r="V18" s="162"/>
+      <c r="W18" s="162"/>
+      <c r="X18" s="162"/>
+      <c r="Y18" s="162"/>
+      <c r="Z18" s="162"/>
+      <c r="AA18" s="162"/>
+      <c r="AB18" s="162"/>
+      <c r="AC18" s="162"/>
+      <c r="AD18" s="162"/>
+      <c r="AE18" s="163"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="132"/>
+      <c r="AJ18" s="133"/>
     </row>
     <row r="19" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="D19" s="182" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="184"/>
-      <c r="K19" s="152" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="153"/>
-      <c r="U19" s="153"/>
-      <c r="V19" s="153"/>
-      <c r="W19" s="153"/>
-      <c r="X19" s="153"/>
-      <c r="Y19" s="153"/>
-      <c r="Z19" s="153"/>
-      <c r="AA19" s="153"/>
-      <c r="AB19" s="153"/>
-      <c r="AC19" s="153"/>
-      <c r="AD19" s="153"/>
-      <c r="AE19" s="154"/>
-      <c r="AF19" s="129"/>
-      <c r="AG19" s="124"/>
-      <c r="AH19" s="124"/>
-      <c r="AI19" s="124"/>
-      <c r="AJ19" s="125"/>
+      <c r="D19" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="161" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="162"/>
+      <c r="Q19" s="162"/>
+      <c r="R19" s="162"/>
+      <c r="S19" s="162"/>
+      <c r="T19" s="162"/>
+      <c r="U19" s="162"/>
+      <c r="V19" s="162"/>
+      <c r="W19" s="162"/>
+      <c r="X19" s="162"/>
+      <c r="Y19" s="162"/>
+      <c r="Z19" s="162"/>
+      <c r="AA19" s="162"/>
+      <c r="AB19" s="162"/>
+      <c r="AC19" s="162"/>
+      <c r="AD19" s="162"/>
+      <c r="AE19" s="163"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="132"/>
+      <c r="AJ19" s="133"/>
     </row>
     <row r="20" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="D20" s="182" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="184"/>
-      <c r="K20" s="152" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="153"/>
-      <c r="T20" s="153"/>
-      <c r="U20" s="153"/>
-      <c r="V20" s="153"/>
-      <c r="W20" s="153"/>
-      <c r="X20" s="153"/>
-      <c r="Y20" s="153"/>
-      <c r="Z20" s="153"/>
-      <c r="AA20" s="153"/>
-      <c r="AB20" s="153"/>
-      <c r="AC20" s="153"/>
-      <c r="AD20" s="153"/>
-      <c r="AE20" s="154"/>
-      <c r="AF20" s="129"/>
-      <c r="AG20" s="124"/>
-      <c r="AH20" s="124"/>
-      <c r="AI20" s="124"/>
-      <c r="AJ20" s="125"/>
+      <c r="D20" s="183" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="185"/>
+      <c r="K20" s="161" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="162"/>
+      <c r="R20" s="162"/>
+      <c r="S20" s="162"/>
+      <c r="T20" s="162"/>
+      <c r="U20" s="162"/>
+      <c r="V20" s="162"/>
+      <c r="W20" s="162"/>
+      <c r="X20" s="162"/>
+      <c r="Y20" s="162"/>
+      <c r="Z20" s="162"/>
+      <c r="AA20" s="162"/>
+      <c r="AB20" s="162"/>
+      <c r="AC20" s="162"/>
+      <c r="AD20" s="162"/>
+      <c r="AE20" s="163"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="132"/>
+      <c r="AJ20" s="133"/>
     </row>
     <row r="21" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="D21" s="182" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="184"/>
-      <c r="K21" s="152" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="153"/>
-      <c r="T21" s="153"/>
-      <c r="U21" s="153"/>
-      <c r="V21" s="153"/>
-      <c r="W21" s="153"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="153"/>
-      <c r="Z21" s="153"/>
-      <c r="AA21" s="153"/>
-      <c r="AB21" s="153"/>
-      <c r="AC21" s="153"/>
-      <c r="AD21" s="153"/>
-      <c r="AE21" s="154"/>
-      <c r="AF21" s="129"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="124"/>
-      <c r="AJ21" s="125"/>
+      <c r="D21" s="183" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="161" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="162"/>
+      <c r="P21" s="162"/>
+      <c r="Q21" s="162"/>
+      <c r="R21" s="162"/>
+      <c r="S21" s="162"/>
+      <c r="T21" s="162"/>
+      <c r="U21" s="162"/>
+      <c r="V21" s="162"/>
+      <c r="W21" s="162"/>
+      <c r="X21" s="162"/>
+      <c r="Y21" s="162"/>
+      <c r="Z21" s="162"/>
+      <c r="AA21" s="162"/>
+      <c r="AB21" s="162"/>
+      <c r="AC21" s="162"/>
+      <c r="AD21" s="162"/>
+      <c r="AE21" s="163"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="132"/>
+      <c r="AJ21" s="133"/>
     </row>
     <row r="22" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="D22" s="182" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="152" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="153"/>
-      <c r="T22" s="153"/>
-      <c r="U22" s="153"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="153"/>
-      <c r="Z22" s="153"/>
-      <c r="AA22" s="153"/>
-      <c r="AB22" s="153"/>
-      <c r="AC22" s="153"/>
-      <c r="AD22" s="153"/>
-      <c r="AE22" s="154"/>
-      <c r="AF22" s="129"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="124"/>
-      <c r="AJ22" s="125"/>
+      <c r="D22" s="183" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="185"/>
+      <c r="K22" s="161" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="162"/>
+      <c r="V22" s="162"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="162"/>
+      <c r="Y22" s="162"/>
+      <c r="Z22" s="162"/>
+      <c r="AA22" s="162"/>
+      <c r="AB22" s="162"/>
+      <c r="AC22" s="162"/>
+      <c r="AD22" s="162"/>
+      <c r="AE22" s="163"/>
+      <c r="AF22" s="137"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="132"/>
+      <c r="AJ22" s="133"/>
     </row>
     <row r="23" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="D23" s="182" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="152" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="153"/>
-      <c r="T23" s="153"/>
-      <c r="U23" s="153"/>
-      <c r="V23" s="153"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153"/>
-      <c r="Y23" s="153"/>
-      <c r="Z23" s="153"/>
-      <c r="AA23" s="153"/>
-      <c r="AB23" s="153"/>
-      <c r="AC23" s="153"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="154"/>
-      <c r="AF23" s="129"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="124"/>
-      <c r="AJ23" s="125"/>
+      <c r="D23" s="183" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="161" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="162"/>
+      <c r="S23" s="162"/>
+      <c r="T23" s="162"/>
+      <c r="U23" s="162"/>
+      <c r="V23" s="162"/>
+      <c r="W23" s="162"/>
+      <c r="X23" s="162"/>
+      <c r="Y23" s="162"/>
+      <c r="Z23" s="162"/>
+      <c r="AA23" s="162"/>
+      <c r="AB23" s="162"/>
+      <c r="AC23" s="162"/>
+      <c r="AD23" s="162"/>
+      <c r="AE23" s="163"/>
+      <c r="AF23" s="137"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="132"/>
+      <c r="AJ23" s="133"/>
     </row>
     <row r="24" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="D24" s="182" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="184"/>
-      <c r="K24" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="153"/>
-      <c r="T24" s="153"/>
-      <c r="U24" s="153"/>
-      <c r="V24" s="153"/>
-      <c r="W24" s="153"/>
-      <c r="X24" s="153"/>
-      <c r="Y24" s="153"/>
-      <c r="Z24" s="153"/>
-      <c r="AA24" s="153"/>
-      <c r="AB24" s="153"/>
-      <c r="AC24" s="153"/>
-      <c r="AD24" s="153"/>
-      <c r="AE24" s="154"/>
-      <c r="AF24" s="129"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="124"/>
-      <c r="AJ24" s="125"/>
+      <c r="D24" s="183" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="161" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="162"/>
+      <c r="M24" s="162"/>
+      <c r="N24" s="162"/>
+      <c r="O24" s="162"/>
+      <c r="P24" s="162"/>
+      <c r="Q24" s="162"/>
+      <c r="R24" s="162"/>
+      <c r="S24" s="162"/>
+      <c r="T24" s="162"/>
+      <c r="U24" s="162"/>
+      <c r="V24" s="162"/>
+      <c r="W24" s="162"/>
+      <c r="X24" s="162"/>
+      <c r="Y24" s="162"/>
+      <c r="Z24" s="162"/>
+      <c r="AA24" s="162"/>
+      <c r="AB24" s="162"/>
+      <c r="AC24" s="162"/>
+      <c r="AD24" s="162"/>
+      <c r="AE24" s="163"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="132"/>
+      <c r="AJ24" s="133"/>
     </row>
     <row r="25" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="D25" s="182" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="152" t="s">
-        <v>69</v>
-      </c>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="153"/>
-      <c r="T25" s="153"/>
-      <c r="U25" s="153"/>
-      <c r="V25" s="153"/>
-      <c r="W25" s="153"/>
-      <c r="X25" s="153"/>
-      <c r="Y25" s="153"/>
-      <c r="Z25" s="153"/>
-      <c r="AA25" s="153"/>
-      <c r="AB25" s="153"/>
-      <c r="AC25" s="153"/>
-      <c r="AD25" s="153"/>
-      <c r="AE25" s="154"/>
-      <c r="AF25" s="129"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="125"/>
+      <c r="D25" s="183" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="161" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="162"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="162"/>
+      <c r="P25" s="162"/>
+      <c r="Q25" s="162"/>
+      <c r="R25" s="162"/>
+      <c r="S25" s="162"/>
+      <c r="T25" s="162"/>
+      <c r="U25" s="162"/>
+      <c r="V25" s="162"/>
+      <c r="W25" s="162"/>
+      <c r="X25" s="162"/>
+      <c r="Y25" s="162"/>
+      <c r="Z25" s="162"/>
+      <c r="AA25" s="162"/>
+      <c r="AB25" s="162"/>
+      <c r="AC25" s="162"/>
+      <c r="AD25" s="162"/>
+      <c r="AE25" s="163"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="132"/>
+      <c r="AJ25" s="133"/>
     </row>
     <row r="26" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="D26" s="182" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="184"/>
-      <c r="K26" s="152" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="153"/>
-      <c r="T26" s="153"/>
-      <c r="U26" s="153"/>
-      <c r="V26" s="153"/>
-      <c r="W26" s="153"/>
-      <c r="X26" s="153"/>
-      <c r="Y26" s="153"/>
-      <c r="Z26" s="153"/>
-      <c r="AA26" s="153"/>
-      <c r="AB26" s="153"/>
-      <c r="AC26" s="153"/>
-      <c r="AD26" s="153"/>
-      <c r="AE26" s="154"/>
-      <c r="AF26" s="129"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="124"/>
-      <c r="AJ26" s="125"/>
+      <c r="D26" s="183" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="161" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="162"/>
+      <c r="M26" s="162"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="162"/>
+      <c r="Q26" s="162"/>
+      <c r="R26" s="162"/>
+      <c r="S26" s="162"/>
+      <c r="T26" s="162"/>
+      <c r="U26" s="162"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="162"/>
+      <c r="X26" s="162"/>
+      <c r="Y26" s="162"/>
+      <c r="Z26" s="162"/>
+      <c r="AA26" s="162"/>
+      <c r="AB26" s="162"/>
+      <c r="AC26" s="162"/>
+      <c r="AD26" s="162"/>
+      <c r="AE26" s="163"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="132"/>
+      <c r="AJ26" s="133"/>
     </row>
     <row r="27" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="D27" s="182" t="s">
+      <c r="D27" s="183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="162"/>
+      <c r="M27" s="162"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="162"/>
+      <c r="P27" s="162"/>
+      <c r="Q27" s="162"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="162"/>
+      <c r="T27" s="162"/>
+      <c r="U27" s="162"/>
+      <c r="V27" s="162"/>
+      <c r="W27" s="162"/>
+      <c r="X27" s="162"/>
+      <c r="Y27" s="162"/>
+      <c r="Z27" s="162"/>
+      <c r="AA27" s="162"/>
+      <c r="AB27" s="162"/>
+      <c r="AC27" s="162"/>
+      <c r="AD27" s="162"/>
+      <c r="AE27" s="163"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="132"/>
+      <c r="AJ27" s="133"/>
+    </row>
+    <row r="28" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="73">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D28" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="184"/>
-      <c r="K27" s="152" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="153"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="153"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
-      <c r="Z27" s="153"/>
-      <c r="AA27" s="153"/>
-      <c r="AB27" s="153"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="154"/>
-      <c r="AF27" s="129"/>
-      <c r="AG27" s="124"/>
-      <c r="AH27" s="124"/>
-      <c r="AI27" s="124"/>
-      <c r="AJ27" s="125"/>
-    </row>
-    <row r="28" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="174" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="175"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="177"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="176"/>
-      <c r="N28" s="176"/>
-      <c r="O28" s="176"/>
-      <c r="P28" s="176"/>
-      <c r="Q28" s="176"/>
-      <c r="R28" s="176"/>
-      <c r="S28" s="176"/>
-      <c r="T28" s="176"/>
-      <c r="U28" s="176"/>
-      <c r="V28" s="176"/>
-      <c r="W28" s="176"/>
-      <c r="X28" s="176"/>
-      <c r="Y28" s="176"/>
-      <c r="Z28" s="176"/>
-      <c r="AA28" s="176"/>
-      <c r="AB28" s="176"/>
-      <c r="AC28" s="176"/>
-      <c r="AD28" s="176"/>
-      <c r="AE28" s="177"/>
-      <c r="AF28" s="178"/>
-      <c r="AG28" s="179"/>
-      <c r="AH28" s="179"/>
-      <c r="AI28" s="179"/>
-      <c r="AJ28" s="180"/>
-    </row>
-    <row r="29" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="73">
-        <f>C27+1</f>
-        <v>20</v>
-      </c>
-      <c r="D29" s="182" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="152" t="s">
-        <v>75</v>
-      </c>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="153"/>
-      <c r="T29" s="153"/>
-      <c r="U29" s="153"/>
-      <c r="V29" s="153"/>
-      <c r="W29" s="153"/>
-      <c r="X29" s="153"/>
-      <c r="Y29" s="153"/>
-      <c r="Z29" s="153"/>
-      <c r="AA29" s="153"/>
-      <c r="AB29" s="153"/>
-      <c r="AC29" s="153"/>
-      <c r="AD29" s="153"/>
-      <c r="AE29" s="154"/>
-      <c r="AF29" s="129"/>
-      <c r="AG29" s="124"/>
-      <c r="AH29" s="124"/>
-      <c r="AI29" s="124"/>
-      <c r="AJ29" s="125"/>
+      <c r="L28" s="162"/>
+      <c r="M28" s="162"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="162"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="162"/>
+      <c r="R28" s="162"/>
+      <c r="S28" s="162"/>
+      <c r="T28" s="162"/>
+      <c r="U28" s="162"/>
+      <c r="V28" s="162"/>
+      <c r="W28" s="162"/>
+      <c r="X28" s="162"/>
+      <c r="Y28" s="162"/>
+      <c r="Z28" s="162"/>
+      <c r="AA28" s="162"/>
+      <c r="AB28" s="162"/>
+      <c r="AC28" s="162"/>
+      <c r="AD28" s="162"/>
+      <c r="AE28" s="163"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="132"/>
+      <c r="AJ28" s="133"/>
+    </row>
+    <row r="29" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="77"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="80"/>
+      <c r="AG29" s="81"/>
+      <c r="AH29" s="81"/>
+      <c r="AI29" s="81"/>
+      <c r="AJ29" s="82"/>
     </row>
     <row r="30" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="73">
-        <f t="shared" ref="C29:C33" si="2">C29+1</f>
+        <f>C28+1</f>
         <v>21</v>
       </c>
-      <c r="D30" s="182" t="s">
+      <c r="D30" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="161" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="162"/>
+      <c r="M30" s="162"/>
+      <c r="N30" s="162"/>
+      <c r="O30" s="162"/>
+      <c r="P30" s="162"/>
+      <c r="Q30" s="162"/>
+      <c r="R30" s="162"/>
+      <c r="S30" s="162"/>
+      <c r="T30" s="162"/>
+      <c r="U30" s="162"/>
+      <c r="V30" s="162"/>
+      <c r="W30" s="162"/>
+      <c r="X30" s="162"/>
+      <c r="Y30" s="162"/>
+      <c r="Z30" s="162"/>
+      <c r="AA30" s="162"/>
+      <c r="AB30" s="162"/>
+      <c r="AC30" s="162"/>
+      <c r="AD30" s="162"/>
+      <c r="AE30" s="163"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="132"/>
+      <c r="AJ30" s="133"/>
+    </row>
+    <row r="31" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="73">
+        <f>C30+1</f>
+        <v>22</v>
+      </c>
+      <c r="D31" s="183" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="161" t="s">
+        <v>84</v>
+      </c>
+      <c r="L31" s="162"/>
+      <c r="M31" s="162"/>
+      <c r="N31" s="162"/>
+      <c r="O31" s="162"/>
+      <c r="P31" s="162"/>
+      <c r="Q31" s="162"/>
+      <c r="R31" s="162"/>
+      <c r="S31" s="162"/>
+      <c r="T31" s="162"/>
+      <c r="U31" s="162"/>
+      <c r="V31" s="162"/>
+      <c r="W31" s="162"/>
+      <c r="X31" s="162"/>
+      <c r="Y31" s="162"/>
+      <c r="Z31" s="162"/>
+      <c r="AA31" s="162"/>
+      <c r="AB31" s="162"/>
+      <c r="AC31" s="162"/>
+      <c r="AD31" s="162"/>
+      <c r="AE31" s="163"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="132"/>
+      <c r="AJ31" s="133"/>
+    </row>
+    <row r="32" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="73">
+        <f t="shared" ref="C32:C35" si="3">C31+1</f>
+        <v>23</v>
+      </c>
+      <c r="D32" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="152" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="153"/>
-      <c r="R30" s="153"/>
-      <c r="S30" s="153"/>
-      <c r="T30" s="153"/>
-      <c r="U30" s="153"/>
-      <c r="V30" s="153"/>
-      <c r="W30" s="153"/>
-      <c r="X30" s="153"/>
-      <c r="Y30" s="153"/>
-      <c r="Z30" s="153"/>
-      <c r="AA30" s="153"/>
-      <c r="AB30" s="153"/>
-      <c r="AC30" s="153"/>
-      <c r="AD30" s="153"/>
-      <c r="AE30" s="154"/>
-      <c r="AF30" s="129"/>
-      <c r="AG30" s="124"/>
-      <c r="AH30" s="124"/>
-      <c r="AI30" s="124"/>
-      <c r="AJ30" s="125"/>
-    </row>
-    <row r="31" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="73">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="D31" s="182" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="152" t="s">
-        <v>79</v>
-      </c>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="153"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="153"/>
-      <c r="T31" s="153"/>
-      <c r="U31" s="153"/>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
-      <c r="X31" s="153"/>
-      <c r="Y31" s="153"/>
-      <c r="Z31" s="153"/>
-      <c r="AA31" s="153"/>
-      <c r="AB31" s="153"/>
-      <c r="AC31" s="153"/>
-      <c r="AD31" s="153"/>
-      <c r="AE31" s="154"/>
-      <c r="AF31" s="129"/>
-      <c r="AG31" s="124"/>
-      <c r="AH31" s="124"/>
-      <c r="AI31" s="124"/>
-      <c r="AJ31" s="125"/>
-    </row>
-    <row r="32" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="73">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="D32" s="182" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="183"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="152" t="s">
-        <v>81</v>
-      </c>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="153"/>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="153"/>
-      <c r="R32" s="153"/>
-      <c r="S32" s="153"/>
-      <c r="T32" s="153"/>
-      <c r="U32" s="153"/>
-      <c r="V32" s="153"/>
-      <c r="W32" s="153"/>
-      <c r="X32" s="153"/>
-      <c r="Y32" s="153"/>
-      <c r="Z32" s="153"/>
-      <c r="AA32" s="153"/>
-      <c r="AB32" s="153"/>
-      <c r="AC32" s="153"/>
-      <c r="AD32" s="153"/>
-      <c r="AE32" s="154"/>
-      <c r="AF32" s="129"/>
-      <c r="AG32" s="124"/>
-      <c r="AH32" s="124"/>
-      <c r="AI32" s="124"/>
-      <c r="AJ32" s="125"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="162"/>
+      <c r="N32" s="162"/>
+      <c r="O32" s="162"/>
+      <c r="P32" s="162"/>
+      <c r="Q32" s="162"/>
+      <c r="R32" s="162"/>
+      <c r="S32" s="162"/>
+      <c r="T32" s="162"/>
+      <c r="U32" s="162"/>
+      <c r="V32" s="162"/>
+      <c r="W32" s="162"/>
+      <c r="X32" s="162"/>
+      <c r="Y32" s="162"/>
+      <c r="Z32" s="162"/>
+      <c r="AA32" s="162"/>
+      <c r="AB32" s="162"/>
+      <c r="AC32" s="162"/>
+      <c r="AD32" s="162"/>
+      <c r="AE32" s="163"/>
+      <c r="AF32" s="137"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="132"/>
+      <c r="AJ32" s="133"/>
     </row>
     <row r="33" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="D33" s="182" t="s">
+      <c r="D33" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="161" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="162"/>
+      <c r="M33" s="162"/>
+      <c r="N33" s="162"/>
+      <c r="O33" s="162"/>
+      <c r="P33" s="162"/>
+      <c r="Q33" s="162"/>
+      <c r="R33" s="162"/>
+      <c r="S33" s="162"/>
+      <c r="T33" s="162"/>
+      <c r="U33" s="162"/>
+      <c r="V33" s="162"/>
+      <c r="W33" s="162"/>
+      <c r="X33" s="162"/>
+      <c r="Y33" s="162"/>
+      <c r="Z33" s="162"/>
+      <c r="AA33" s="162"/>
+      <c r="AB33" s="162"/>
+      <c r="AC33" s="162"/>
+      <c r="AD33" s="162"/>
+      <c r="AE33" s="163"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="132"/>
+      <c r="AJ33" s="133"/>
+    </row>
+    <row r="34" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="73">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D34" s="183" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="184"/>
+      <c r="J34" s="185"/>
+      <c r="K34" s="161" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34" s="162"/>
+      <c r="M34" s="162"/>
+      <c r="N34" s="162"/>
+      <c r="O34" s="162"/>
+      <c r="P34" s="162"/>
+      <c r="Q34" s="162"/>
+      <c r="R34" s="162"/>
+      <c r="S34" s="162"/>
+      <c r="T34" s="162"/>
+      <c r="U34" s="162"/>
+      <c r="V34" s="162"/>
+      <c r="W34" s="162"/>
+      <c r="X34" s="162"/>
+      <c r="Y34" s="162"/>
+      <c r="Z34" s="162"/>
+      <c r="AA34" s="162"/>
+      <c r="AB34" s="162"/>
+      <c r="AC34" s="162"/>
+      <c r="AD34" s="162"/>
+      <c r="AE34" s="163"/>
+      <c r="AF34" s="137"/>
+      <c r="AG34" s="132"/>
+      <c r="AH34" s="132"/>
+      <c r="AI34" s="132"/>
+      <c r="AJ34" s="133"/>
+    </row>
+    <row r="35" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="73">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="D35" s="183" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="184"/>
+      <c r="J35" s="185"/>
+      <c r="K35" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="152" t="s">
-        <v>83</v>
-      </c>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="153"/>
-      <c r="P33" s="153"/>
-      <c r="Q33" s="153"/>
-      <c r="R33" s="153"/>
-      <c r="S33" s="153"/>
-      <c r="T33" s="153"/>
-      <c r="U33" s="153"/>
-      <c r="V33" s="153"/>
-      <c r="W33" s="153"/>
-      <c r="X33" s="153"/>
-      <c r="Y33" s="153"/>
-      <c r="Z33" s="153"/>
-      <c r="AA33" s="153"/>
-      <c r="AB33" s="153"/>
-      <c r="AC33" s="153"/>
-      <c r="AD33" s="153"/>
-      <c r="AE33" s="154"/>
-      <c r="AF33" s="129"/>
-      <c r="AG33" s="124"/>
-      <c r="AH33" s="124"/>
-      <c r="AI33" s="124"/>
-      <c r="AJ33" s="125"/>
-    </row>
-    <row r="34" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="162"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="162"/>
+      <c r="P35" s="162"/>
+      <c r="Q35" s="162"/>
+      <c r="R35" s="162"/>
+      <c r="S35" s="162"/>
+      <c r="T35" s="162"/>
+      <c r="U35" s="162"/>
+      <c r="V35" s="162"/>
+      <c r="W35" s="162"/>
+      <c r="X35" s="162"/>
+      <c r="Y35" s="162"/>
+      <c r="Z35" s="162"/>
+      <c r="AA35" s="162"/>
+      <c r="AB35" s="162"/>
+      <c r="AC35" s="162"/>
+      <c r="AD35" s="162"/>
+      <c r="AE35" s="163"/>
+      <c r="AF35" s="137"/>
+      <c r="AG35" s="132"/>
+      <c r="AH35" s="132"/>
+      <c r="AI35" s="132"/>
+      <c r="AJ35" s="133"/>
+    </row>
     <row r="36" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7193,20 +7308,28 @@
     <row r="47" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="98">
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:AE35"/>
+    <mergeCell ref="AF35:AJ35"/>
     <mergeCell ref="D33:J33"/>
     <mergeCell ref="K33:AE33"/>
     <mergeCell ref="AF33:AJ33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:AE34"/>
+    <mergeCell ref="AF34:AJ34"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:AE32"/>
+    <mergeCell ref="AF32:AJ32"/>
     <mergeCell ref="D31:J31"/>
     <mergeCell ref="K31:AE31"/>
     <mergeCell ref="AF31:AJ31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:AE32"/>
-    <mergeCell ref="AF32:AJ32"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:AE29"/>
-    <mergeCell ref="AF29:AJ29"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:AE28"/>
+    <mergeCell ref="AF28:AJ28"/>
     <mergeCell ref="D30:J30"/>
     <mergeCell ref="K30:AE30"/>
     <mergeCell ref="AF30:AJ30"/>
@@ -7246,26 +7369,26 @@
     <mergeCell ref="D17:J17"/>
     <mergeCell ref="K17:AE17"/>
     <mergeCell ref="AF17:AJ17"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="K14:AE14"/>
-    <mergeCell ref="AF14:AJ14"/>
+    <mergeCell ref="AF7:AJ7"/>
+    <mergeCell ref="AF8:AJ8"/>
+    <mergeCell ref="AF12:AJ12"/>
+    <mergeCell ref="AF9:AJ9"/>
     <mergeCell ref="D15:J15"/>
     <mergeCell ref="K15:AE15"/>
     <mergeCell ref="AF15:AJ15"/>
+    <mergeCell ref="D10:J10"/>
     <mergeCell ref="K10:AE10"/>
     <mergeCell ref="AF10:AJ10"/>
-    <mergeCell ref="AF7:AJ7"/>
-    <mergeCell ref="AF8:AJ8"/>
+    <mergeCell ref="AF13:AJ13"/>
+    <mergeCell ref="K12:AE12"/>
+    <mergeCell ref="K9:AE9"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="K13:AE13"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:AE11"/>
     <mergeCell ref="AF11:AJ11"/>
-    <mergeCell ref="AF9:AJ9"/>
-    <mergeCell ref="AF12:AJ12"/>
-    <mergeCell ref="K11:AE11"/>
-    <mergeCell ref="K9:AE9"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:AE12"/>
-    <mergeCell ref="D10:J10"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="K7:AE7"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(画面)_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(画面)_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34DE19F-F98D-4305-91F0-F009A9EE38A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668E019A-DA90-4C7E-82C3-19DF1C0BB92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -28,7 +28,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -268,14 +271,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>FROMには、TOより後の日付を入力して下さい。</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>FROMには、TOより大きな金額を入力して下さい。</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>## 独自バリデーション</t>
   </si>
   <si>
@@ -460,6 +455,14 @@
   </si>
   <si>
     <t>画面遷移が不正です。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TOには、FROMより後の日付を入力して下さい。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TOには、FROMより大きな金額を入力して下さい。</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -1261,6 +1264,69 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1269,69 +1335,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2151,7 +2154,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3079,7 +3082,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="133"/>
       <c r="Q9" s="134" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R9" s="135"/>
       <c r="S9" s="135"/>
@@ -5902,23 +5905,23 @@
       <c r="N1" s="96"/>
       <c r="O1" s="96"/>
       <c r="P1" s="97"/>
-      <c r="Q1" s="164" t="s">
+      <c r="Q1" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="173" t="str">
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>メッセージ設計書</v>
       </c>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="175"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="169"/>
       <c r="AC1" s="92" t="s">
         <v>3</v>
       </c>
@@ -5962,18 +5965,18 @@
       <c r="N2" s="96"/>
       <c r="O2" s="96"/>
       <c r="P2" s="97"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="178"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="172"/>
       <c r="AC2" s="92" t="s">
         <v>4</v>
       </c>
@@ -6017,18 +6020,18 @@
       <c r="N3" s="96"/>
       <c r="O3" s="96"/>
       <c r="P3" s="97"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="180"/>
-      <c r="AA3" s="180"/>
-      <c r="AB3" s="181"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
       <c r="AC3" s="92"/>
       <c r="AD3" s="94"/>
       <c r="AE3" s="119" t="str">
@@ -6061,82 +6064,82 @@
       <c r="C7" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="158" t="s">
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="160"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="181"/>
       <c r="AF7" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="159"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="159"/>
-      <c r="AJ7" s="160"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="180"/>
+      <c r="AJ7" s="181"/>
     </row>
     <row r="8" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="73">
         <v>1</v>
       </c>
-      <c r="D8" s="161" t="s">
+      <c r="D8" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="161" t="s">
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="162"/>
-      <c r="P8" s="162"/>
-      <c r="Q8" s="162"/>
-      <c r="R8" s="162"/>
-      <c r="S8" s="162"/>
-      <c r="T8" s="162"/>
-      <c r="U8" s="162"/>
-      <c r="V8" s="162"/>
-      <c r="W8" s="162"/>
-      <c r="X8" s="162"/>
-      <c r="Y8" s="162"/>
-      <c r="Z8" s="162"/>
-      <c r="AA8" s="162"/>
-      <c r="AB8" s="162"/>
-      <c r="AC8" s="162"/>
-      <c r="AD8" s="162"/>
-      <c r="AE8" s="163"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="177"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="177"/>
+      <c r="S8" s="177"/>
+      <c r="T8" s="177"/>
+      <c r="U8" s="177"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="177"/>
+      <c r="Z8" s="177"/>
+      <c r="AA8" s="177"/>
+      <c r="AB8" s="177"/>
+      <c r="AC8" s="177"/>
+      <c r="AD8" s="177"/>
+      <c r="AE8" s="178"/>
       <c r="AF8" s="137"/>
       <c r="AG8" s="132"/>
       <c r="AH8" s="132"/>
@@ -6148,38 +6151,38 @@
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="161" t="s">
+      <c r="D9" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="161" t="s">
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="162"/>
-      <c r="R9" s="162"/>
-      <c r="S9" s="162"/>
-      <c r="T9" s="162"/>
-      <c r="U9" s="162"/>
-      <c r="V9" s="162"/>
-      <c r="W9" s="162"/>
-      <c r="X9" s="162"/>
-      <c r="Y9" s="162"/>
-      <c r="Z9" s="162"/>
-      <c r="AA9" s="162"/>
-      <c r="AB9" s="162"/>
-      <c r="AC9" s="162"/>
-      <c r="AD9" s="162"/>
-      <c r="AE9" s="163"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="177"/>
+      <c r="T9" s="177"/>
+      <c r="U9" s="177"/>
+      <c r="V9" s="177"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="177"/>
+      <c r="Z9" s="177"/>
+      <c r="AA9" s="177"/>
+      <c r="AB9" s="177"/>
+      <c r="AC9" s="177"/>
+      <c r="AD9" s="177"/>
+      <c r="AE9" s="178"/>
       <c r="AF9" s="137"/>
       <c r="AG9" s="132"/>
       <c r="AH9" s="132"/>
@@ -6191,38 +6194,38 @@
         <f t="shared" ref="C10:C11" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="161" t="s">
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="162"/>
-      <c r="S10" s="162"/>
-      <c r="T10" s="162"/>
-      <c r="U10" s="162"/>
-      <c r="V10" s="162"/>
-      <c r="W10" s="162"/>
-      <c r="X10" s="162"/>
-      <c r="Y10" s="162"/>
-      <c r="Z10" s="162"/>
-      <c r="AA10" s="162"/>
-      <c r="AB10" s="162"/>
-      <c r="AC10" s="162"/>
-      <c r="AD10" s="162"/>
-      <c r="AE10" s="163"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="177"/>
+      <c r="T10" s="177"/>
+      <c r="U10" s="177"/>
+      <c r="V10" s="177"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="177"/>
+      <c r="Y10" s="177"/>
+      <c r="Z10" s="177"/>
+      <c r="AA10" s="177"/>
+      <c r="AB10" s="177"/>
+      <c r="AC10" s="177"/>
+      <c r="AD10" s="177"/>
+      <c r="AE10" s="178"/>
       <c r="AF10" s="137"/>
       <c r="AG10" s="132"/>
       <c r="AH10" s="132"/>
@@ -6234,38 +6237,38 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="161" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="161" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="162"/>
-      <c r="W11" s="162"/>
-      <c r="X11" s="162"/>
-      <c r="Y11" s="162"/>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="162"/>
-      <c r="AB11" s="162"/>
-      <c r="AC11" s="162"/>
-      <c r="AD11" s="162"/>
-      <c r="AE11" s="163"/>
+      <c r="D11" s="176" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="176" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="177"/>
+      <c r="M11" s="177"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="177"/>
+      <c r="S11" s="177"/>
+      <c r="T11" s="177"/>
+      <c r="U11" s="177"/>
+      <c r="V11" s="177"/>
+      <c r="W11" s="177"/>
+      <c r="X11" s="177"/>
+      <c r="Y11" s="177"/>
+      <c r="Z11" s="177"/>
+      <c r="AA11" s="177"/>
+      <c r="AB11" s="177"/>
+      <c r="AC11" s="177"/>
+      <c r="AD11" s="177"/>
+      <c r="AE11" s="178"/>
       <c r="AF11" s="137"/>
       <c r="AG11" s="132"/>
       <c r="AH11" s="132"/>
@@ -6277,38 +6280,38 @@
         <f t="shared" ref="C12:C13" si="1">C11+1</f>
         <v>5</v>
       </c>
-      <c r="D12" s="161" t="s">
+      <c r="D12" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="162"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="161" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="162"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="162"/>
-      <c r="P12" s="162"/>
-      <c r="Q12" s="162"/>
-      <c r="R12" s="162"/>
-      <c r="S12" s="162"/>
-      <c r="T12" s="162"/>
-      <c r="U12" s="162"/>
-      <c r="V12" s="162"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="162"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="162"/>
-      <c r="AC12" s="162"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="163"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="176" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="177"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="177"/>
+      <c r="S12" s="177"/>
+      <c r="T12" s="177"/>
+      <c r="U12" s="177"/>
+      <c r="V12" s="177"/>
+      <c r="W12" s="177"/>
+      <c r="X12" s="177"/>
+      <c r="Y12" s="177"/>
+      <c r="Z12" s="177"/>
+      <c r="AA12" s="177"/>
+      <c r="AB12" s="177"/>
+      <c r="AC12" s="177"/>
+      <c r="AD12" s="177"/>
+      <c r="AE12" s="178"/>
       <c r="AF12" s="137"/>
       <c r="AG12" s="132"/>
       <c r="AH12" s="132"/>
@@ -6320,38 +6323,38 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="161" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="162"/>
-      <c r="U13" s="162"/>
-      <c r="V13" s="162"/>
-      <c r="W13" s="162"/>
-      <c r="X13" s="162"/>
-      <c r="Y13" s="162"/>
-      <c r="Z13" s="162"/>
-      <c r="AA13" s="162"/>
-      <c r="AB13" s="162"/>
-      <c r="AC13" s="162"/>
-      <c r="AD13" s="162"/>
-      <c r="AE13" s="163"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="176" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="177"/>
+      <c r="T13" s="177"/>
+      <c r="U13" s="177"/>
+      <c r="V13" s="177"/>
+      <c r="W13" s="177"/>
+      <c r="X13" s="177"/>
+      <c r="Y13" s="177"/>
+      <c r="Z13" s="177"/>
+      <c r="AA13" s="177"/>
+      <c r="AB13" s="177"/>
+      <c r="AC13" s="177"/>
+      <c r="AD13" s="177"/>
+      <c r="AE13" s="178"/>
       <c r="AF13" s="137"/>
       <c r="AG13" s="132"/>
       <c r="AH13" s="132"/>
@@ -6360,7 +6363,7 @@
     </row>
     <row r="14" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="77"/>
       <c r="E14" s="78"/>
@@ -6402,7 +6405,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="183" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" s="184"/>
       <c r="F15" s="184"/>
@@ -6410,29 +6413,29 @@
       <c r="H15" s="184"/>
       <c r="I15" s="184"/>
       <c r="J15" s="185"/>
-      <c r="K15" s="161" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="162"/>
-      <c r="V15" s="162"/>
-      <c r="W15" s="162"/>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="162"/>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="162"/>
-      <c r="AB15" s="162"/>
-      <c r="AC15" s="162"/>
-      <c r="AD15" s="162"/>
-      <c r="AE15" s="163"/>
+      <c r="K15" s="176" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="177"/>
+      <c r="V15" s="177"/>
+      <c r="W15" s="177"/>
+      <c r="X15" s="177"/>
+      <c r="Y15" s="177"/>
+      <c r="Z15" s="177"/>
+      <c r="AA15" s="177"/>
+      <c r="AB15" s="177"/>
+      <c r="AC15" s="177"/>
+      <c r="AD15" s="177"/>
+      <c r="AE15" s="178"/>
       <c r="AF15" s="137"/>
       <c r="AG15" s="132"/>
       <c r="AH15" s="132"/>
@@ -6445,7 +6448,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="183" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" s="184"/>
       <c r="F16" s="184"/>
@@ -6453,29 +6456,29 @@
       <c r="H16" s="184"/>
       <c r="I16" s="184"/>
       <c r="J16" s="185"/>
-      <c r="K16" s="161" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="162"/>
-      <c r="U16" s="162"/>
-      <c r="V16" s="162"/>
-      <c r="W16" s="162"/>
-      <c r="X16" s="162"/>
-      <c r="Y16" s="162"/>
-      <c r="Z16" s="162"/>
-      <c r="AA16" s="162"/>
-      <c r="AB16" s="162"/>
-      <c r="AC16" s="162"/>
-      <c r="AD16" s="162"/>
-      <c r="AE16" s="163"/>
+      <c r="K16" s="176" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="177"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="177"/>
+      <c r="Z16" s="177"/>
+      <c r="AA16" s="177"/>
+      <c r="AB16" s="177"/>
+      <c r="AC16" s="177"/>
+      <c r="AD16" s="177"/>
+      <c r="AE16" s="178"/>
       <c r="AF16" s="137"/>
       <c r="AG16" s="132"/>
       <c r="AH16" s="132"/>
@@ -6488,7 +6491,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="183" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="184"/>
       <c r="F17" s="184"/>
@@ -6496,29 +6499,29 @@
       <c r="H17" s="184"/>
       <c r="I17" s="184"/>
       <c r="J17" s="185"/>
-      <c r="K17" s="161" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="162"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="162"/>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="162"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="162"/>
-      <c r="U17" s="162"/>
-      <c r="V17" s="162"/>
-      <c r="W17" s="162"/>
-      <c r="X17" s="162"/>
-      <c r="Y17" s="162"/>
-      <c r="Z17" s="162"/>
-      <c r="AA17" s="162"/>
-      <c r="AB17" s="162"/>
-      <c r="AC17" s="162"/>
-      <c r="AD17" s="162"/>
-      <c r="AE17" s="163"/>
+      <c r="K17" s="176" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="177"/>
+      <c r="U17" s="177"/>
+      <c r="V17" s="177"/>
+      <c r="W17" s="177"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="177"/>
+      <c r="Z17" s="177"/>
+      <c r="AA17" s="177"/>
+      <c r="AB17" s="177"/>
+      <c r="AC17" s="177"/>
+      <c r="AD17" s="177"/>
+      <c r="AE17" s="178"/>
       <c r="AF17" s="137"/>
       <c r="AG17" s="132"/>
       <c r="AH17" s="132"/>
@@ -6531,7 +6534,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="183" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" s="184"/>
       <c r="F18" s="184"/>
@@ -6539,29 +6542,29 @@
       <c r="H18" s="184"/>
       <c r="I18" s="184"/>
       <c r="J18" s="185"/>
-      <c r="K18" s="161" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="162"/>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="162"/>
-      <c r="T18" s="162"/>
-      <c r="U18" s="162"/>
-      <c r="V18" s="162"/>
-      <c r="W18" s="162"/>
-      <c r="X18" s="162"/>
-      <c r="Y18" s="162"/>
-      <c r="Z18" s="162"/>
-      <c r="AA18" s="162"/>
-      <c r="AB18" s="162"/>
-      <c r="AC18" s="162"/>
-      <c r="AD18" s="162"/>
-      <c r="AE18" s="163"/>
+      <c r="K18" s="176" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
+      <c r="S18" s="177"/>
+      <c r="T18" s="177"/>
+      <c r="U18" s="177"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
+      <c r="AD18" s="177"/>
+      <c r="AE18" s="178"/>
       <c r="AF18" s="137"/>
       <c r="AG18" s="132"/>
       <c r="AH18" s="132"/>
@@ -6574,7 +6577,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="183" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="184"/>
       <c r="F19" s="184"/>
@@ -6582,29 +6585,29 @@
       <c r="H19" s="184"/>
       <c r="I19" s="184"/>
       <c r="J19" s="185"/>
-      <c r="K19" s="161" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="162"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="162"/>
-      <c r="U19" s="162"/>
-      <c r="V19" s="162"/>
-      <c r="W19" s="162"/>
-      <c r="X19" s="162"/>
-      <c r="Y19" s="162"/>
-      <c r="Z19" s="162"/>
-      <c r="AA19" s="162"/>
-      <c r="AB19" s="162"/>
-      <c r="AC19" s="162"/>
-      <c r="AD19" s="162"/>
-      <c r="AE19" s="163"/>
+      <c r="K19" s="176" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="177"/>
+      <c r="M19" s="177"/>
+      <c r="N19" s="177"/>
+      <c r="O19" s="177"/>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="177"/>
+      <c r="S19" s="177"/>
+      <c r="T19" s="177"/>
+      <c r="U19" s="177"/>
+      <c r="V19" s="177"/>
+      <c r="W19" s="177"/>
+      <c r="X19" s="177"/>
+      <c r="Y19" s="177"/>
+      <c r="Z19" s="177"/>
+      <c r="AA19" s="177"/>
+      <c r="AB19" s="177"/>
+      <c r="AC19" s="177"/>
+      <c r="AD19" s="177"/>
+      <c r="AE19" s="178"/>
       <c r="AF19" s="137"/>
       <c r="AG19" s="132"/>
       <c r="AH19" s="132"/>
@@ -6617,7 +6620,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="183" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="184"/>
       <c r="F20" s="184"/>
@@ -6625,29 +6628,29 @@
       <c r="H20" s="184"/>
       <c r="I20" s="184"/>
       <c r="J20" s="185"/>
-      <c r="K20" s="161" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="162"/>
-      <c r="R20" s="162"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="162"/>
-      <c r="U20" s="162"/>
-      <c r="V20" s="162"/>
-      <c r="W20" s="162"/>
-      <c r="X20" s="162"/>
-      <c r="Y20" s="162"/>
-      <c r="Z20" s="162"/>
-      <c r="AA20" s="162"/>
-      <c r="AB20" s="162"/>
-      <c r="AC20" s="162"/>
-      <c r="AD20" s="162"/>
-      <c r="AE20" s="163"/>
+      <c r="K20" s="176" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
+      <c r="S20" s="177"/>
+      <c r="T20" s="177"/>
+      <c r="U20" s="177"/>
+      <c r="V20" s="177"/>
+      <c r="W20" s="177"/>
+      <c r="X20" s="177"/>
+      <c r="Y20" s="177"/>
+      <c r="Z20" s="177"/>
+      <c r="AA20" s="177"/>
+      <c r="AB20" s="177"/>
+      <c r="AC20" s="177"/>
+      <c r="AD20" s="177"/>
+      <c r="AE20" s="178"/>
       <c r="AF20" s="137"/>
       <c r="AG20" s="132"/>
       <c r="AH20" s="132"/>
@@ -6660,7 +6663,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="183" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="184"/>
       <c r="F21" s="184"/>
@@ -6668,29 +6671,29 @@
       <c r="H21" s="184"/>
       <c r="I21" s="184"/>
       <c r="J21" s="185"/>
-      <c r="K21" s="161" t="s">
-        <v>58</v>
-      </c>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="162"/>
-      <c r="O21" s="162"/>
-      <c r="P21" s="162"/>
-      <c r="Q21" s="162"/>
-      <c r="R21" s="162"/>
-      <c r="S21" s="162"/>
-      <c r="T21" s="162"/>
-      <c r="U21" s="162"/>
-      <c r="V21" s="162"/>
-      <c r="W21" s="162"/>
-      <c r="X21" s="162"/>
-      <c r="Y21" s="162"/>
-      <c r="Z21" s="162"/>
-      <c r="AA21" s="162"/>
-      <c r="AB21" s="162"/>
-      <c r="AC21" s="162"/>
-      <c r="AD21" s="162"/>
-      <c r="AE21" s="163"/>
+      <c r="K21" s="176" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="S21" s="177"/>
+      <c r="T21" s="177"/>
+      <c r="U21" s="177"/>
+      <c r="V21" s="177"/>
+      <c r="W21" s="177"/>
+      <c r="X21" s="177"/>
+      <c r="Y21" s="177"/>
+      <c r="Z21" s="177"/>
+      <c r="AA21" s="177"/>
+      <c r="AB21" s="177"/>
+      <c r="AC21" s="177"/>
+      <c r="AD21" s="177"/>
+      <c r="AE21" s="178"/>
       <c r="AF21" s="137"/>
       <c r="AG21" s="132"/>
       <c r="AH21" s="132"/>
@@ -6703,7 +6706,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="183" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="184"/>
       <c r="F22" s="184"/>
@@ -6711,29 +6714,29 @@
       <c r="H22" s="184"/>
       <c r="I22" s="184"/>
       <c r="J22" s="185"/>
-      <c r="K22" s="161" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="162"/>
-      <c r="S22" s="162"/>
-      <c r="T22" s="162"/>
-      <c r="U22" s="162"/>
-      <c r="V22" s="162"/>
-      <c r="W22" s="162"/>
-      <c r="X22" s="162"/>
-      <c r="Y22" s="162"/>
-      <c r="Z22" s="162"/>
-      <c r="AA22" s="162"/>
-      <c r="AB22" s="162"/>
-      <c r="AC22" s="162"/>
-      <c r="AD22" s="162"/>
-      <c r="AE22" s="163"/>
+      <c r="K22" s="176" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="177"/>
+      <c r="S22" s="177"/>
+      <c r="T22" s="177"/>
+      <c r="U22" s="177"/>
+      <c r="V22" s="177"/>
+      <c r="W22" s="177"/>
+      <c r="X22" s="177"/>
+      <c r="Y22" s="177"/>
+      <c r="Z22" s="177"/>
+      <c r="AA22" s="177"/>
+      <c r="AB22" s="177"/>
+      <c r="AC22" s="177"/>
+      <c r="AD22" s="177"/>
+      <c r="AE22" s="178"/>
       <c r="AF22" s="137"/>
       <c r="AG22" s="132"/>
       <c r="AH22" s="132"/>
@@ -6746,7 +6749,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="183" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E23" s="184"/>
       <c r="F23" s="184"/>
@@ -6754,29 +6757,29 @@
       <c r="H23" s="184"/>
       <c r="I23" s="184"/>
       <c r="J23" s="185"/>
-      <c r="K23" s="161" t="s">
-        <v>62</v>
-      </c>
-      <c r="L23" s="162"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="162"/>
-      <c r="R23" s="162"/>
-      <c r="S23" s="162"/>
-      <c r="T23" s="162"/>
-      <c r="U23" s="162"/>
-      <c r="V23" s="162"/>
-      <c r="W23" s="162"/>
-      <c r="X23" s="162"/>
-      <c r="Y23" s="162"/>
-      <c r="Z23" s="162"/>
-      <c r="AA23" s="162"/>
-      <c r="AB23" s="162"/>
-      <c r="AC23" s="162"/>
-      <c r="AD23" s="162"/>
-      <c r="AE23" s="163"/>
+      <c r="K23" s="176" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="177"/>
+      <c r="P23" s="177"/>
+      <c r="Q23" s="177"/>
+      <c r="R23" s="177"/>
+      <c r="S23" s="177"/>
+      <c r="T23" s="177"/>
+      <c r="U23" s="177"/>
+      <c r="V23" s="177"/>
+      <c r="W23" s="177"/>
+      <c r="X23" s="177"/>
+      <c r="Y23" s="177"/>
+      <c r="Z23" s="177"/>
+      <c r="AA23" s="177"/>
+      <c r="AB23" s="177"/>
+      <c r="AC23" s="177"/>
+      <c r="AD23" s="177"/>
+      <c r="AE23" s="178"/>
       <c r="AF23" s="137"/>
       <c r="AG23" s="132"/>
       <c r="AH23" s="132"/>
@@ -6789,7 +6792,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="183" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" s="184"/>
       <c r="F24" s="184"/>
@@ -6797,29 +6800,29 @@
       <c r="H24" s="184"/>
       <c r="I24" s="184"/>
       <c r="J24" s="185"/>
-      <c r="K24" s="161" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" s="162"/>
-      <c r="M24" s="162"/>
-      <c r="N24" s="162"/>
-      <c r="O24" s="162"/>
-      <c r="P24" s="162"/>
-      <c r="Q24" s="162"/>
-      <c r="R24" s="162"/>
-      <c r="S24" s="162"/>
-      <c r="T24" s="162"/>
-      <c r="U24" s="162"/>
-      <c r="V24" s="162"/>
-      <c r="W24" s="162"/>
-      <c r="X24" s="162"/>
-      <c r="Y24" s="162"/>
-      <c r="Z24" s="162"/>
-      <c r="AA24" s="162"/>
-      <c r="AB24" s="162"/>
-      <c r="AC24" s="162"/>
-      <c r="AD24" s="162"/>
-      <c r="AE24" s="163"/>
+      <c r="K24" s="176" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" s="177"/>
+      <c r="M24" s="177"/>
+      <c r="N24" s="177"/>
+      <c r="O24" s="177"/>
+      <c r="P24" s="177"/>
+      <c r="Q24" s="177"/>
+      <c r="R24" s="177"/>
+      <c r="S24" s="177"/>
+      <c r="T24" s="177"/>
+      <c r="U24" s="177"/>
+      <c r="V24" s="177"/>
+      <c r="W24" s="177"/>
+      <c r="X24" s="177"/>
+      <c r="Y24" s="177"/>
+      <c r="Z24" s="177"/>
+      <c r="AA24" s="177"/>
+      <c r="AB24" s="177"/>
+      <c r="AC24" s="177"/>
+      <c r="AD24" s="177"/>
+      <c r="AE24" s="178"/>
       <c r="AF24" s="137"/>
       <c r="AG24" s="132"/>
       <c r="AH24" s="132"/>
@@ -6832,7 +6835,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="183" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="184"/>
       <c r="F25" s="184"/>
@@ -6840,29 +6843,29 @@
       <c r="H25" s="184"/>
       <c r="I25" s="184"/>
       <c r="J25" s="185"/>
-      <c r="K25" s="161" t="s">
-        <v>66</v>
-      </c>
-      <c r="L25" s="162"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="162"/>
-      <c r="P25" s="162"/>
-      <c r="Q25" s="162"/>
-      <c r="R25" s="162"/>
-      <c r="S25" s="162"/>
-      <c r="T25" s="162"/>
-      <c r="U25" s="162"/>
-      <c r="V25" s="162"/>
-      <c r="W25" s="162"/>
-      <c r="X25" s="162"/>
-      <c r="Y25" s="162"/>
-      <c r="Z25" s="162"/>
-      <c r="AA25" s="162"/>
-      <c r="AB25" s="162"/>
-      <c r="AC25" s="162"/>
-      <c r="AD25" s="162"/>
-      <c r="AE25" s="163"/>
+      <c r="K25" s="176" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="177"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="177"/>
+      <c r="T25" s="177"/>
+      <c r="U25" s="177"/>
+      <c r="V25" s="177"/>
+      <c r="W25" s="177"/>
+      <c r="X25" s="177"/>
+      <c r="Y25" s="177"/>
+      <c r="Z25" s="177"/>
+      <c r="AA25" s="177"/>
+      <c r="AB25" s="177"/>
+      <c r="AC25" s="177"/>
+      <c r="AD25" s="177"/>
+      <c r="AE25" s="178"/>
       <c r="AF25" s="137"/>
       <c r="AG25" s="132"/>
       <c r="AH25" s="132"/>
@@ -6875,7 +6878,7 @@
         <v>18</v>
       </c>
       <c r="D26" s="183" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" s="184"/>
       <c r="F26" s="184"/>
@@ -6883,29 +6886,29 @@
       <c r="H26" s="184"/>
       <c r="I26" s="184"/>
       <c r="J26" s="185"/>
-      <c r="K26" s="161" t="s">
-        <v>68</v>
-      </c>
-      <c r="L26" s="162"/>
-      <c r="M26" s="162"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="162"/>
-      <c r="P26" s="162"/>
-      <c r="Q26" s="162"/>
-      <c r="R26" s="162"/>
-      <c r="S26" s="162"/>
-      <c r="T26" s="162"/>
-      <c r="U26" s="162"/>
-      <c r="V26" s="162"/>
-      <c r="W26" s="162"/>
-      <c r="X26" s="162"/>
-      <c r="Y26" s="162"/>
-      <c r="Z26" s="162"/>
-      <c r="AA26" s="162"/>
-      <c r="AB26" s="162"/>
-      <c r="AC26" s="162"/>
-      <c r="AD26" s="162"/>
-      <c r="AE26" s="163"/>
+      <c r="K26" s="176" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="177"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="177"/>
+      <c r="O26" s="177"/>
+      <c r="P26" s="177"/>
+      <c r="Q26" s="177"/>
+      <c r="R26" s="177"/>
+      <c r="S26" s="177"/>
+      <c r="T26" s="177"/>
+      <c r="U26" s="177"/>
+      <c r="V26" s="177"/>
+      <c r="W26" s="177"/>
+      <c r="X26" s="177"/>
+      <c r="Y26" s="177"/>
+      <c r="Z26" s="177"/>
+      <c r="AA26" s="177"/>
+      <c r="AB26" s="177"/>
+      <c r="AC26" s="177"/>
+      <c r="AD26" s="177"/>
+      <c r="AE26" s="178"/>
       <c r="AF26" s="137"/>
       <c r="AG26" s="132"/>
       <c r="AH26" s="132"/>
@@ -6918,7 +6921,7 @@
         <v>19</v>
       </c>
       <c r="D27" s="183" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27" s="184"/>
       <c r="F27" s="184"/>
@@ -6926,29 +6929,29 @@
       <c r="H27" s="184"/>
       <c r="I27" s="184"/>
       <c r="J27" s="185"/>
-      <c r="K27" s="161" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" s="162"/>
-      <c r="M27" s="162"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
-      <c r="P27" s="162"/>
-      <c r="Q27" s="162"/>
-      <c r="R27" s="162"/>
-      <c r="S27" s="162"/>
-      <c r="T27" s="162"/>
-      <c r="U27" s="162"/>
-      <c r="V27" s="162"/>
-      <c r="W27" s="162"/>
-      <c r="X27" s="162"/>
-      <c r="Y27" s="162"/>
-      <c r="Z27" s="162"/>
-      <c r="AA27" s="162"/>
-      <c r="AB27" s="162"/>
-      <c r="AC27" s="162"/>
-      <c r="AD27" s="162"/>
-      <c r="AE27" s="163"/>
+      <c r="K27" s="176" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="177"/>
+      <c r="M27" s="177"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="177"/>
+      <c r="P27" s="177"/>
+      <c r="Q27" s="177"/>
+      <c r="R27" s="177"/>
+      <c r="S27" s="177"/>
+      <c r="T27" s="177"/>
+      <c r="U27" s="177"/>
+      <c r="V27" s="177"/>
+      <c r="W27" s="177"/>
+      <c r="X27" s="177"/>
+      <c r="Y27" s="177"/>
+      <c r="Z27" s="177"/>
+      <c r="AA27" s="177"/>
+      <c r="AB27" s="177"/>
+      <c r="AC27" s="177"/>
+      <c r="AD27" s="177"/>
+      <c r="AE27" s="178"/>
       <c r="AF27" s="137"/>
       <c r="AG27" s="132"/>
       <c r="AH27" s="132"/>
@@ -6961,7 +6964,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="183" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28" s="184"/>
       <c r="F28" s="184"/>
@@ -6969,29 +6972,29 @@
       <c r="H28" s="184"/>
       <c r="I28" s="184"/>
       <c r="J28" s="185"/>
-      <c r="K28" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="L28" s="162"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="162"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="162"/>
-      <c r="R28" s="162"/>
-      <c r="S28" s="162"/>
-      <c r="T28" s="162"/>
-      <c r="U28" s="162"/>
-      <c r="V28" s="162"/>
-      <c r="W28" s="162"/>
-      <c r="X28" s="162"/>
-      <c r="Y28" s="162"/>
-      <c r="Z28" s="162"/>
-      <c r="AA28" s="162"/>
-      <c r="AB28" s="162"/>
-      <c r="AC28" s="162"/>
-      <c r="AD28" s="162"/>
-      <c r="AE28" s="163"/>
+      <c r="K28" s="176" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="177"/>
+      <c r="S28" s="177"/>
+      <c r="T28" s="177"/>
+      <c r="U28" s="177"/>
+      <c r="V28" s="177"/>
+      <c r="W28" s="177"/>
+      <c r="X28" s="177"/>
+      <c r="Y28" s="177"/>
+      <c r="Z28" s="177"/>
+      <c r="AA28" s="177"/>
+      <c r="AB28" s="177"/>
+      <c r="AC28" s="177"/>
+      <c r="AD28" s="177"/>
+      <c r="AE28" s="178"/>
       <c r="AF28" s="137"/>
       <c r="AG28" s="132"/>
       <c r="AH28" s="132"/>
@@ -7000,7 +7003,7 @@
     </row>
     <row r="29" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29" s="77"/>
       <c r="E29" s="78"/>
@@ -7042,7 +7045,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="183" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E30" s="184"/>
       <c r="F30" s="184"/>
@@ -7050,29 +7053,29 @@
       <c r="H30" s="184"/>
       <c r="I30" s="184"/>
       <c r="J30" s="185"/>
-      <c r="K30" s="161" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="162"/>
-      <c r="M30" s="162"/>
-      <c r="N30" s="162"/>
-      <c r="O30" s="162"/>
-      <c r="P30" s="162"/>
-      <c r="Q30" s="162"/>
-      <c r="R30" s="162"/>
-      <c r="S30" s="162"/>
-      <c r="T30" s="162"/>
-      <c r="U30" s="162"/>
-      <c r="V30" s="162"/>
-      <c r="W30" s="162"/>
-      <c r="X30" s="162"/>
-      <c r="Y30" s="162"/>
-      <c r="Z30" s="162"/>
-      <c r="AA30" s="162"/>
-      <c r="AB30" s="162"/>
-      <c r="AC30" s="162"/>
-      <c r="AD30" s="162"/>
-      <c r="AE30" s="163"/>
+      <c r="K30" s="176" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="177"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="177"/>
+      <c r="O30" s="177"/>
+      <c r="P30" s="177"/>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="177"/>
+      <c r="S30" s="177"/>
+      <c r="T30" s="177"/>
+      <c r="U30" s="177"/>
+      <c r="V30" s="177"/>
+      <c r="W30" s="177"/>
+      <c r="X30" s="177"/>
+      <c r="Y30" s="177"/>
+      <c r="Z30" s="177"/>
+      <c r="AA30" s="177"/>
+      <c r="AB30" s="177"/>
+      <c r="AC30" s="177"/>
+      <c r="AD30" s="177"/>
+      <c r="AE30" s="178"/>
       <c r="AF30" s="137"/>
       <c r="AG30" s="132"/>
       <c r="AH30" s="132"/>
@@ -7085,7 +7088,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="183" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E31" s="184"/>
       <c r="F31" s="184"/>
@@ -7093,29 +7096,29 @@
       <c r="H31" s="184"/>
       <c r="I31" s="184"/>
       <c r="J31" s="185"/>
-      <c r="K31" s="161" t="s">
-        <v>84</v>
-      </c>
-      <c r="L31" s="162"/>
-      <c r="M31" s="162"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="162"/>
-      <c r="P31" s="162"/>
-      <c r="Q31" s="162"/>
-      <c r="R31" s="162"/>
-      <c r="S31" s="162"/>
-      <c r="T31" s="162"/>
-      <c r="U31" s="162"/>
-      <c r="V31" s="162"/>
-      <c r="W31" s="162"/>
-      <c r="X31" s="162"/>
-      <c r="Y31" s="162"/>
-      <c r="Z31" s="162"/>
-      <c r="AA31" s="162"/>
-      <c r="AB31" s="162"/>
-      <c r="AC31" s="162"/>
-      <c r="AD31" s="162"/>
-      <c r="AE31" s="163"/>
+      <c r="K31" s="176" t="s">
+        <v>82</v>
+      </c>
+      <c r="L31" s="177"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="177"/>
+      <c r="S31" s="177"/>
+      <c r="T31" s="177"/>
+      <c r="U31" s="177"/>
+      <c r="V31" s="177"/>
+      <c r="W31" s="177"/>
+      <c r="X31" s="177"/>
+      <c r="Y31" s="177"/>
+      <c r="Z31" s="177"/>
+      <c r="AA31" s="177"/>
+      <c r="AB31" s="177"/>
+      <c r="AC31" s="177"/>
+      <c r="AD31" s="177"/>
+      <c r="AE31" s="178"/>
       <c r="AF31" s="137"/>
       <c r="AG31" s="132"/>
       <c r="AH31" s="132"/>
@@ -7128,7 +7131,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="183" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E32" s="184"/>
       <c r="F32" s="184"/>
@@ -7136,29 +7139,29 @@
       <c r="H32" s="184"/>
       <c r="I32" s="184"/>
       <c r="J32" s="185"/>
-      <c r="K32" s="161" t="s">
-        <v>76</v>
-      </c>
-      <c r="L32" s="162"/>
-      <c r="M32" s="162"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="162"/>
-      <c r="P32" s="162"/>
-      <c r="Q32" s="162"/>
-      <c r="R32" s="162"/>
-      <c r="S32" s="162"/>
-      <c r="T32" s="162"/>
-      <c r="U32" s="162"/>
-      <c r="V32" s="162"/>
-      <c r="W32" s="162"/>
-      <c r="X32" s="162"/>
-      <c r="Y32" s="162"/>
-      <c r="Z32" s="162"/>
-      <c r="AA32" s="162"/>
-      <c r="AB32" s="162"/>
-      <c r="AC32" s="162"/>
-      <c r="AD32" s="162"/>
-      <c r="AE32" s="163"/>
+      <c r="K32" s="176" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="177"/>
+      <c r="S32" s="177"/>
+      <c r="T32" s="177"/>
+      <c r="U32" s="177"/>
+      <c r="V32" s="177"/>
+      <c r="W32" s="177"/>
+      <c r="X32" s="177"/>
+      <c r="Y32" s="177"/>
+      <c r="Z32" s="177"/>
+      <c r="AA32" s="177"/>
+      <c r="AB32" s="177"/>
+      <c r="AC32" s="177"/>
+      <c r="AD32" s="177"/>
+      <c r="AE32" s="178"/>
       <c r="AF32" s="137"/>
       <c r="AG32" s="132"/>
       <c r="AH32" s="132"/>
@@ -7171,7 +7174,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="183" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E33" s="184"/>
       <c r="F33" s="184"/>
@@ -7179,29 +7182,29 @@
       <c r="H33" s="184"/>
       <c r="I33" s="184"/>
       <c r="J33" s="185"/>
-      <c r="K33" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="L33" s="162"/>
-      <c r="M33" s="162"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="162"/>
-      <c r="P33" s="162"/>
-      <c r="Q33" s="162"/>
-      <c r="R33" s="162"/>
-      <c r="S33" s="162"/>
-      <c r="T33" s="162"/>
-      <c r="U33" s="162"/>
-      <c r="V33" s="162"/>
-      <c r="W33" s="162"/>
-      <c r="X33" s="162"/>
-      <c r="Y33" s="162"/>
-      <c r="Z33" s="162"/>
-      <c r="AA33" s="162"/>
-      <c r="AB33" s="162"/>
-      <c r="AC33" s="162"/>
-      <c r="AD33" s="162"/>
-      <c r="AE33" s="163"/>
+      <c r="K33" s="176" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" s="177"/>
+      <c r="M33" s="177"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="177"/>
+      <c r="S33" s="177"/>
+      <c r="T33" s="177"/>
+      <c r="U33" s="177"/>
+      <c r="V33" s="177"/>
+      <c r="W33" s="177"/>
+      <c r="X33" s="177"/>
+      <c r="Y33" s="177"/>
+      <c r="Z33" s="177"/>
+      <c r="AA33" s="177"/>
+      <c r="AB33" s="177"/>
+      <c r="AC33" s="177"/>
+      <c r="AD33" s="177"/>
+      <c r="AE33" s="178"/>
       <c r="AF33" s="137"/>
       <c r="AG33" s="132"/>
       <c r="AH33" s="132"/>
@@ -7214,7 +7217,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="183" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E34" s="184"/>
       <c r="F34" s="184"/>
@@ -7222,29 +7225,29 @@
       <c r="H34" s="184"/>
       <c r="I34" s="184"/>
       <c r="J34" s="185"/>
-      <c r="K34" s="161" t="s">
-        <v>80</v>
-      </c>
-      <c r="L34" s="162"/>
-      <c r="M34" s="162"/>
-      <c r="N34" s="162"/>
-      <c r="O34" s="162"/>
-      <c r="P34" s="162"/>
-      <c r="Q34" s="162"/>
-      <c r="R34" s="162"/>
-      <c r="S34" s="162"/>
-      <c r="T34" s="162"/>
-      <c r="U34" s="162"/>
-      <c r="V34" s="162"/>
-      <c r="W34" s="162"/>
-      <c r="X34" s="162"/>
-      <c r="Y34" s="162"/>
-      <c r="Z34" s="162"/>
-      <c r="AA34" s="162"/>
-      <c r="AB34" s="162"/>
-      <c r="AC34" s="162"/>
-      <c r="AD34" s="162"/>
-      <c r="AE34" s="163"/>
+      <c r="K34" s="176" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34" s="177"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="177"/>
+      <c r="O34" s="177"/>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="177"/>
+      <c r="R34" s="177"/>
+      <c r="S34" s="177"/>
+      <c r="T34" s="177"/>
+      <c r="U34" s="177"/>
+      <c r="V34" s="177"/>
+      <c r="W34" s="177"/>
+      <c r="X34" s="177"/>
+      <c r="Y34" s="177"/>
+      <c r="Z34" s="177"/>
+      <c r="AA34" s="177"/>
+      <c r="AB34" s="177"/>
+      <c r="AC34" s="177"/>
+      <c r="AD34" s="177"/>
+      <c r="AE34" s="178"/>
       <c r="AF34" s="137"/>
       <c r="AG34" s="132"/>
       <c r="AH34" s="132"/>
@@ -7257,7 +7260,7 @@
         <v>26</v>
       </c>
       <c r="D35" s="183" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E35" s="184"/>
       <c r="F35" s="184"/>
@@ -7265,29 +7268,29 @@
       <c r="H35" s="184"/>
       <c r="I35" s="184"/>
       <c r="J35" s="185"/>
-      <c r="K35" s="161" t="s">
-        <v>82</v>
-      </c>
-      <c r="L35" s="162"/>
-      <c r="M35" s="162"/>
-      <c r="N35" s="162"/>
-      <c r="O35" s="162"/>
-      <c r="P35" s="162"/>
-      <c r="Q35" s="162"/>
-      <c r="R35" s="162"/>
-      <c r="S35" s="162"/>
-      <c r="T35" s="162"/>
-      <c r="U35" s="162"/>
-      <c r="V35" s="162"/>
-      <c r="W35" s="162"/>
-      <c r="X35" s="162"/>
-      <c r="Y35" s="162"/>
-      <c r="Z35" s="162"/>
-      <c r="AA35" s="162"/>
-      <c r="AB35" s="162"/>
-      <c r="AC35" s="162"/>
-      <c r="AD35" s="162"/>
-      <c r="AE35" s="163"/>
+      <c r="K35" s="176" t="s">
+        <v>80</v>
+      </c>
+      <c r="L35" s="177"/>
+      <c r="M35" s="177"/>
+      <c r="N35" s="177"/>
+      <c r="O35" s="177"/>
+      <c r="P35" s="177"/>
+      <c r="Q35" s="177"/>
+      <c r="R35" s="177"/>
+      <c r="S35" s="177"/>
+      <c r="T35" s="177"/>
+      <c r="U35" s="177"/>
+      <c r="V35" s="177"/>
+      <c r="W35" s="177"/>
+      <c r="X35" s="177"/>
+      <c r="Y35" s="177"/>
+      <c r="Z35" s="177"/>
+      <c r="AA35" s="177"/>
+      <c r="AB35" s="177"/>
+      <c r="AC35" s="177"/>
+      <c r="AD35" s="177"/>
+      <c r="AE35" s="178"/>
       <c r="AF35" s="137"/>
       <c r="AG35" s="132"/>
       <c r="AH35" s="132"/>
@@ -7369,10 +7372,6 @@
     <mergeCell ref="D17:J17"/>
     <mergeCell ref="K17:AE17"/>
     <mergeCell ref="AF17:AJ17"/>
-    <mergeCell ref="AF7:AJ7"/>
-    <mergeCell ref="AF8:AJ8"/>
-    <mergeCell ref="AF12:AJ12"/>
-    <mergeCell ref="AF9:AJ9"/>
     <mergeCell ref="D15:J15"/>
     <mergeCell ref="K15:AE15"/>
     <mergeCell ref="AF15:AJ15"/>
@@ -7381,9 +7380,7 @@
     <mergeCell ref="AF10:AJ10"/>
     <mergeCell ref="AF13:AJ13"/>
     <mergeCell ref="K12:AE12"/>
-    <mergeCell ref="K9:AE9"/>
     <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D9:J9"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="K13:AE13"/>
     <mergeCell ref="D11:J11"/>
@@ -7393,6 +7390,12 @@
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="K7:AE7"/>
     <mergeCell ref="K8:AE8"/>
+    <mergeCell ref="AF7:AJ7"/>
+    <mergeCell ref="AF8:AJ8"/>
+    <mergeCell ref="AF12:AJ12"/>
+    <mergeCell ref="AF9:AJ9"/>
+    <mergeCell ref="K9:AE9"/>
+    <mergeCell ref="D9:J9"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AC3:AD3"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(画面)_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(画面)_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EBF672-5F97-4283-8417-E121CB09ABB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668E019A-DA90-4C7E-82C3-19DF1C0BB92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc46209822" localSheetId="3">ja!$B$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ja!$A$1:$AK$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ja!$A$1:$AK$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$33</definedName>
@@ -28,7 +28,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>PJ名</t>
   </si>
@@ -122,16 +125,6 @@
   <si>
     <t>No.</t>
     <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -278,14 +271,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>FROMには、TOより後の日付を入力して下さい。</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>FROMには、TOより大きな金額を入力して下さい。</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>## 独自バリデーション</t>
   </si>
   <si>
@@ -434,6 +419,50 @@
   </si>
   <si>
     <t>備考は512文字以下のシステム許容文字で入力してください。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.app.entity.core.validation.validator.DateRelationUtil.message</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>終了日には、開始日より後の日付を入力して下さい。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>不足メッセージを追加</t>
+    <rPh sb="0" eb="2">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>errors.doubleSubmission</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>画面遷移が不正です。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TOには、FROMより後の日付を入力して下さい。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TOには、FROMより大きな金額を入力して下さい。</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -812,7 +841,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -989,6 +1018,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1139,63 +1192,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1208,6 +1264,69 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1217,94 +1336,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2122,7 +2154,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="6" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2134,12 +2166,12 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="76">
+      <c r="I25" s="84">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43805</v>
-      </c>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
+        <v>44819</v>
+      </c>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
@@ -2737,57 +2769,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="93" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="111" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="77">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="85">
         <f>IF(D8="","",D8)</f>
         <v>43601</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="79"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="87"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -2795,53 +2827,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="90" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="98" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="77">
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="85">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43805</v>
-      </c>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="79"/>
+        <v>44819</v>
+      </c>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="87"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -2849,45 +2881,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="79"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="87"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -2924,1040 +2956,1042 @@
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="80" t="s">
+      <c r="C7" s="89"/>
+      <c r="D7" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="80" t="s">
+      <c r="E7" s="90"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="80" t="s">
+      <c r="H7" s="90"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="80" t="s">
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="81"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="89"/>
     </row>
     <row r="8" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B8" s="130">
+      <c r="B8" s="138">
         <v>1</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132">
+      <c r="C8" s="139"/>
+      <c r="D8" s="140">
         <v>43601</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135" t="s">
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="143" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="144"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138" t="s">
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="141" t="s">
+      <c r="R8" s="150"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="150"/>
+      <c r="Z8" s="150"/>
+      <c r="AA8" s="150"/>
+      <c r="AB8" s="150"/>
+      <c r="AC8" s="150"/>
+      <c r="AD8" s="150"/>
+      <c r="AE8" s="151"/>
+      <c r="AF8" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="142"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="142"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="138" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG8" s="139"/>
-      <c r="AH8" s="139"/>
-      <c r="AI8" s="140"/>
+      <c r="AG8" s="147"/>
+      <c r="AH8" s="147"/>
+      <c r="AI8" s="148"/>
     </row>
     <row r="9" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>2</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="123">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117">
-        <v>43805</v>
-      </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120" t="s">
+      <c r="C9" s="124"/>
+      <c r="D9" s="125">
+        <v>44819</v>
+      </c>
+      <c r="E9" s="126"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="123" t="s">
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="136"/>
+      <c r="AF9" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="128"/>
-      <c r="AF9" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG9" s="124"/>
-      <c r="AH9" s="124"/>
-      <c r="AI9" s="125"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="133"/>
     </row>
     <row r="10" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="129"/>
-      <c r="AG10" s="124"/>
-      <c r="AH10" s="124"/>
-      <c r="AI10" s="125"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="136"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="133"/>
     </row>
     <row r="11" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="127"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="127"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="127"/>
-      <c r="AE11" s="128"/>
-      <c r="AF11" s="129"/>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="124"/>
-      <c r="AI11" s="125"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="133"/>
     </row>
     <row r="12" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="127"/>
-      <c r="T12" s="127"/>
-      <c r="U12" s="127"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="127"/>
-      <c r="AE12" s="128"/>
-      <c r="AF12" s="129"/>
-      <c r="AG12" s="124"/>
-      <c r="AH12" s="124"/>
-      <c r="AI12" s="125"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="136"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="133"/>
     </row>
     <row r="13" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="124"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="128"/>
-      <c r="AF13" s="129"/>
-      <c r="AG13" s="124"/>
-      <c r="AH13" s="124"/>
-      <c r="AI13" s="125"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="133"/>
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="127"/>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="128"/>
-      <c r="AF14" s="129"/>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="125"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="137"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="132"/>
+      <c r="AI14" s="133"/>
     </row>
     <row r="15" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="127"/>
-      <c r="AE15" s="128"/>
-      <c r="AF15" s="129"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="125"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="133"/>
     </row>
     <row r="16" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="128"/>
-      <c r="AF16" s="129"/>
-      <c r="AG16" s="124"/>
-      <c r="AH16" s="124"/>
-      <c r="AI16" s="125"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="133"/>
     </row>
     <row r="17" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="127"/>
-      <c r="AE17" s="128"/>
-      <c r="AF17" s="129"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="124"/>
-      <c r="AI17" s="125"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="133"/>
     </row>
     <row r="18" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="127"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="127"/>
-      <c r="AE18" s="128"/>
-      <c r="AF18" s="129"/>
-      <c r="AG18" s="124"/>
-      <c r="AH18" s="124"/>
-      <c r="AI18" s="125"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="136"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="133"/>
     </row>
     <row r="19" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="127"/>
-      <c r="T19" s="127"/>
-      <c r="U19" s="127"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="127"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="127"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="129"/>
-      <c r="AG19" s="124"/>
-      <c r="AH19" s="124"/>
-      <c r="AI19" s="125"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="133"/>
     </row>
     <row r="20" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="127"/>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="128"/>
-      <c r="AF20" s="129"/>
-      <c r="AG20" s="124"/>
-      <c r="AH20" s="124"/>
-      <c r="AI20" s="125"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="135"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="136"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="133"/>
     </row>
     <row r="21" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="127"/>
-      <c r="U21" s="127"/>
-      <c r="V21" s="127"/>
-      <c r="W21" s="127"/>
-      <c r="X21" s="127"/>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="127"/>
-      <c r="AC21" s="127"/>
-      <c r="AD21" s="127"/>
-      <c r="AE21" s="128"/>
-      <c r="AF21" s="129"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="125"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="135"/>
+      <c r="AE21" s="136"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="133"/>
     </row>
     <row r="22" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
-      <c r="U22" s="127"/>
-      <c r="V22" s="127"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="127"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="129"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="125"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="135"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="135"/>
+      <c r="AE22" s="136"/>
+      <c r="AF22" s="137"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="133"/>
     </row>
     <row r="23" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="124"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="127"/>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="127"/>
-      <c r="AC23" s="127"/>
-      <c r="AD23" s="127"/>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="129"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="125"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="137"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="133"/>
     </row>
     <row r="24" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="124"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="127"/>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="127"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="128"/>
-      <c r="AF24" s="129"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="125"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="133"/>
     </row>
     <row r="25" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="127"/>
-      <c r="T25" s="127"/>
-      <c r="U25" s="127"/>
-      <c r="V25" s="127"/>
-      <c r="W25" s="127"/>
-      <c r="X25" s="127"/>
-      <c r="Y25" s="127"/>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="127"/>
-      <c r="AC25" s="127"/>
-      <c r="AD25" s="127"/>
-      <c r="AE25" s="128"/>
-      <c r="AF25" s="129"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="125"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="153"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="133"/>
     </row>
     <row r="26" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="124"/>
-      <c r="N26" s="124"/>
-      <c r="O26" s="124"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="128"/>
-      <c r="AF26" s="129"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="125"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="135"/>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="133"/>
     </row>
     <row r="27" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="124"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="124"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="127"/>
-      <c r="T27" s="127"/>
-      <c r="U27" s="127"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="127"/>
-      <c r="Z27" s="127"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="127"/>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="127"/>
-      <c r="AE27" s="128"/>
-      <c r="AF27" s="129"/>
-      <c r="AG27" s="124"/>
-      <c r="AH27" s="124"/>
-      <c r="AI27" s="125"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="153"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="133"/>
     </row>
     <row r="28" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="124"/>
-      <c r="N28" s="124"/>
-      <c r="O28" s="124"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="127"/>
-      <c r="U28" s="127"/>
-      <c r="V28" s="127"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="127"/>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="127"/>
-      <c r="AE28" s="128"/>
-      <c r="AF28" s="129"/>
-      <c r="AG28" s="124"/>
-      <c r="AH28" s="124"/>
-      <c r="AI28" s="125"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="133"/>
     </row>
     <row r="29" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="124"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="125"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="127"/>
-      <c r="U29" s="127"/>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="127"/>
-      <c r="AC29" s="127"/>
-      <c r="AD29" s="127"/>
-      <c r="AE29" s="128"/>
-      <c r="AF29" s="129"/>
-      <c r="AG29" s="124"/>
-      <c r="AH29" s="124"/>
-      <c r="AI29" s="125"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="136"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="133"/>
     </row>
     <row r="30" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="124"/>
-      <c r="N30" s="124"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="125"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="127"/>
-      <c r="U30" s="127"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="127"/>
-      <c r="AC30" s="127"/>
-      <c r="AD30" s="127"/>
-      <c r="AE30" s="128"/>
-      <c r="AF30" s="129"/>
-      <c r="AG30" s="124"/>
-      <c r="AH30" s="124"/>
-      <c r="AI30" s="125"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="153"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="135"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="133"/>
     </row>
     <row r="31" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="124"/>
-      <c r="N31" s="124"/>
-      <c r="O31" s="124"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="127"/>
-      <c r="U31" s="127"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="127"/>
-      <c r="AC31" s="127"/>
-      <c r="AD31" s="127"/>
-      <c r="AE31" s="128"/>
-      <c r="AF31" s="129"/>
-      <c r="AG31" s="124"/>
-      <c r="AH31" s="124"/>
-      <c r="AI31" s="125"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="133"/>
+      <c r="Q31" s="153"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="133"/>
     </row>
     <row r="32" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="124"/>
-      <c r="N32" s="124"/>
-      <c r="O32" s="124"/>
-      <c r="P32" s="125"/>
-      <c r="Q32" s="126"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="128"/>
-      <c r="AF32" s="129"/>
-      <c r="AG32" s="124"/>
-      <c r="AH32" s="124"/>
-      <c r="AI32" s="125"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="153"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="135"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="137"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="133"/>
     </row>
     <row r="33" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="124"/>
-      <c r="N33" s="124"/>
-      <c r="O33" s="124"/>
-      <c r="P33" s="125"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="127"/>
-      <c r="T33" s="127"/>
-      <c r="U33" s="127"/>
-      <c r="V33" s="127"/>
-      <c r="W33" s="127"/>
-      <c r="X33" s="127"/>
-      <c r="Y33" s="127"/>
-      <c r="Z33" s="127"/>
-      <c r="AA33" s="127"/>
-      <c r="AB33" s="127"/>
-      <c r="AC33" s="127"/>
-      <c r="AD33" s="127"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="129"/>
-      <c r="AG33" s="124"/>
-      <c r="AH33" s="124"/>
-      <c r="AI33" s="125"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="153"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="133"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
@@ -4299,163 +4333,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="102" t="str">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>メッセージ設計書</v>
       </c>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="111" t="str">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="146">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="155">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43601</v>
       </c>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="157"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="111" t="str">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="146">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="155">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43805</v>
-      </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
+        <v>44819</v>
+      </c>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="157"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="111" t="str">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="146" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="157"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -4515,7 +4549,7 @@
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
@@ -4576,7 +4610,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -5838,7 +5872,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN49"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -5850,169 +5884,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="155" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="164" t="str">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="158" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>メッセージ設計書</v>
       </c>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="84" t="s">
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="111" t="str">
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="146">
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="155">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43601</v>
       </c>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="148"/>
+      <c r="AJ1" s="156"/>
+      <c r="AK1" s="157"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="84" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="111" t="str">
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="146">
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="155">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43805</v>
-      </c>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="148"/>
+        <v>44819</v>
+      </c>
+      <c r="AJ2" s="156"/>
+      <c r="AK2" s="157"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="111" t="str">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="146" t="str">
+      <c r="AF3" s="120"/>
+      <c r="AG3" s="120"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AJ3" s="147"/>
-      <c r="AK3" s="148"/>
+      <c r="AJ3" s="156"/>
+      <c r="AK3" s="157"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
@@ -6020,7 +6054,7 @@
     <row r="4" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6028,1157 +6062,1241 @@
     </row>
     <row r="7" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="149" t="s">
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="150"/>
-      <c r="AD7" s="150"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="173" t="s">
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="181"/>
+      <c r="AF7" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="150"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="150"/>
-      <c r="AJ7" s="151"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="180"/>
+      <c r="AJ7" s="181"/>
     </row>
     <row r="8" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="73">
         <v>1</v>
       </c>
-      <c r="D8" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="152" t="s">
+      <c r="D8" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="153"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="153"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="153"/>
-      <c r="AB8" s="153"/>
-      <c r="AC8" s="153"/>
-      <c r="AD8" s="153"/>
-      <c r="AE8" s="154"/>
-      <c r="AF8" s="129"/>
-      <c r="AG8" s="124"/>
-      <c r="AH8" s="124"/>
-      <c r="AI8" s="124"/>
-      <c r="AJ8" s="125"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="176" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="177"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="177"/>
+      <c r="S8" s="177"/>
+      <c r="T8" s="177"/>
+      <c r="U8" s="177"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="177"/>
+      <c r="Z8" s="177"/>
+      <c r="AA8" s="177"/>
+      <c r="AB8" s="177"/>
+      <c r="AC8" s="177"/>
+      <c r="AD8" s="177"/>
+      <c r="AE8" s="178"/>
+      <c r="AF8" s="137"/>
+      <c r="AG8" s="132"/>
+      <c r="AH8" s="132"/>
+      <c r="AI8" s="132"/>
+      <c r="AJ8" s="133"/>
     </row>
     <row r="9" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="73">
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="176" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="152" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="153"/>
-      <c r="AB9" s="153"/>
-      <c r="AC9" s="153"/>
-      <c r="AD9" s="153"/>
-      <c r="AE9" s="154"/>
-      <c r="AF9" s="129"/>
-      <c r="AG9" s="124"/>
-      <c r="AH9" s="124"/>
-      <c r="AI9" s="124"/>
-      <c r="AJ9" s="125"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="177"/>
+      <c r="T9" s="177"/>
+      <c r="U9" s="177"/>
+      <c r="V9" s="177"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="177"/>
+      <c r="Z9" s="177"/>
+      <c r="AA9" s="177"/>
+      <c r="AB9" s="177"/>
+      <c r="AC9" s="177"/>
+      <c r="AD9" s="177"/>
+      <c r="AE9" s="178"/>
+      <c r="AF9" s="137"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="132"/>
+      <c r="AJ9" s="133"/>
     </row>
     <row r="10" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="73">
-        <f t="shared" ref="C10:C12" si="0">C9+1</f>
+        <f t="shared" ref="C10:C11" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="176" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="152" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="154"/>
-      <c r="AF10" s="129"/>
-      <c r="AG10" s="124"/>
-      <c r="AH10" s="124"/>
-      <c r="AI10" s="124"/>
-      <c r="AJ10" s="125"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="177"/>
+      <c r="T10" s="177"/>
+      <c r="U10" s="177"/>
+      <c r="V10" s="177"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="177"/>
+      <c r="Y10" s="177"/>
+      <c r="Z10" s="177"/>
+      <c r="AA10" s="177"/>
+      <c r="AB10" s="177"/>
+      <c r="AC10" s="177"/>
+      <c r="AD10" s="177"/>
+      <c r="AE10" s="178"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="132"/>
+      <c r="AJ10" s="133"/>
     </row>
     <row r="11" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="73">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="152" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="153"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="153"/>
-      <c r="AA11" s="153"/>
-      <c r="AB11" s="153"/>
-      <c r="AC11" s="153"/>
-      <c r="AD11" s="153"/>
-      <c r="AE11" s="154"/>
-      <c r="AF11" s="129"/>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="124"/>
-      <c r="AI11" s="124"/>
-      <c r="AJ11" s="125"/>
+      <c r="D11" s="176" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="176" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="177"/>
+      <c r="M11" s="177"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="177"/>
+      <c r="S11" s="177"/>
+      <c r="T11" s="177"/>
+      <c r="U11" s="177"/>
+      <c r="V11" s="177"/>
+      <c r="W11" s="177"/>
+      <c r="X11" s="177"/>
+      <c r="Y11" s="177"/>
+      <c r="Z11" s="177"/>
+      <c r="AA11" s="177"/>
+      <c r="AB11" s="177"/>
+      <c r="AC11" s="177"/>
+      <c r="AD11" s="177"/>
+      <c r="AE11" s="178"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="132"/>
+      <c r="AJ11" s="133"/>
     </row>
     <row r="12" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="73">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C12:C13" si="1">C11+1</f>
         <v>5</v>
       </c>
-      <c r="D12" s="152" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="152" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="153"/>
-      <c r="AA12" s="153"/>
-      <c r="AB12" s="153"/>
-      <c r="AC12" s="153"/>
-      <c r="AD12" s="153"/>
-      <c r="AE12" s="154"/>
-      <c r="AF12" s="129"/>
-      <c r="AG12" s="124"/>
-      <c r="AH12" s="124"/>
-      <c r="AI12" s="124"/>
-      <c r="AJ12" s="125"/>
+      <c r="D12" s="176" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="176" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="177"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="177"/>
+      <c r="S12" s="177"/>
+      <c r="T12" s="177"/>
+      <c r="U12" s="177"/>
+      <c r="V12" s="177"/>
+      <c r="W12" s="177"/>
+      <c r="X12" s="177"/>
+      <c r="Y12" s="177"/>
+      <c r="Z12" s="177"/>
+      <c r="AA12" s="177"/>
+      <c r="AB12" s="177"/>
+      <c r="AC12" s="177"/>
+      <c r="AD12" s="177"/>
+      <c r="AE12" s="178"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="132"/>
+      <c r="AJ12" s="133"/>
     </row>
     <row r="13" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="181" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="175"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="176"/>
-      <c r="N13" s="176"/>
-      <c r="O13" s="176"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="176"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="176"/>
-      <c r="U13" s="176"/>
-      <c r="V13" s="176"/>
-      <c r="W13" s="176"/>
-      <c r="X13" s="176"/>
-      <c r="Y13" s="176"/>
-      <c r="Z13" s="176"/>
-      <c r="AA13" s="176"/>
-      <c r="AB13" s="176"/>
-      <c r="AC13" s="176"/>
-      <c r="AD13" s="176"/>
-      <c r="AE13" s="177"/>
-      <c r="AF13" s="178"/>
-      <c r="AG13" s="179"/>
-      <c r="AH13" s="179"/>
-      <c r="AI13" s="179"/>
-      <c r="AJ13" s="180"/>
-    </row>
-    <row r="14" spans="1:40" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="73">
-        <f>C12+1</f>
+      <c r="C13" s="73">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D14" s="182" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="152" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="153"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="153"/>
-      <c r="X14" s="153"/>
-      <c r="Y14" s="153"/>
-      <c r="Z14" s="153"/>
-      <c r="AA14" s="153"/>
-      <c r="AB14" s="153"/>
-      <c r="AC14" s="153"/>
-      <c r="AD14" s="153"/>
-      <c r="AE14" s="154"/>
-      <c r="AF14" s="129"/>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="124"/>
-      <c r="AJ14" s="125"/>
+      <c r="D13" s="176" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="176" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="177"/>
+      <c r="T13" s="177"/>
+      <c r="U13" s="177"/>
+      <c r="V13" s="177"/>
+      <c r="W13" s="177"/>
+      <c r="X13" s="177"/>
+      <c r="Y13" s="177"/>
+      <c r="Z13" s="177"/>
+      <c r="AA13" s="177"/>
+      <c r="AB13" s="177"/>
+      <c r="AC13" s="177"/>
+      <c r="AD13" s="177"/>
+      <c r="AE13" s="178"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="132"/>
+      <c r="AJ13" s="133"/>
+    </row>
+    <row r="14" spans="1:40" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="78"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="82"/>
     </row>
     <row r="15" spans="1:40" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="73">
-        <f t="shared" ref="C14:C27" si="1">C14+1</f>
+        <f>C13+1</f>
         <v>7</v>
       </c>
-      <c r="D15" s="182" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="153"/>
-      <c r="U15" s="153"/>
-      <c r="V15" s="153"/>
-      <c r="W15" s="153"/>
-      <c r="X15" s="153"/>
-      <c r="Y15" s="153"/>
-      <c r="Z15" s="153"/>
-      <c r="AA15" s="153"/>
-      <c r="AB15" s="153"/>
-      <c r="AC15" s="153"/>
-      <c r="AD15" s="153"/>
-      <c r="AE15" s="154"/>
-      <c r="AF15" s="129"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="124"/>
-      <c r="AJ15" s="125"/>
+      <c r="D15" s="183" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="176" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="177"/>
+      <c r="V15" s="177"/>
+      <c r="W15" s="177"/>
+      <c r="X15" s="177"/>
+      <c r="Y15" s="177"/>
+      <c r="Z15" s="177"/>
+      <c r="AA15" s="177"/>
+      <c r="AB15" s="177"/>
+      <c r="AC15" s="177"/>
+      <c r="AD15" s="177"/>
+      <c r="AE15" s="178"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="132"/>
+      <c r="AJ15" s="133"/>
     </row>
     <row r="16" spans="1:40" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C16:C28" si="2">C15+1</f>
         <v>8</v>
       </c>
-      <c r="D16" s="182" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="184"/>
-      <c r="K16" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="153"/>
-      <c r="T16" s="153"/>
-      <c r="U16" s="153"/>
-      <c r="V16" s="153"/>
-      <c r="W16" s="153"/>
-      <c r="X16" s="153"/>
-      <c r="Y16" s="153"/>
-      <c r="Z16" s="153"/>
-      <c r="AA16" s="153"/>
-      <c r="AB16" s="153"/>
-      <c r="AC16" s="153"/>
-      <c r="AD16" s="153"/>
-      <c r="AE16" s="154"/>
-      <c r="AF16" s="129"/>
-      <c r="AG16" s="124"/>
-      <c r="AH16" s="124"/>
-      <c r="AI16" s="124"/>
-      <c r="AJ16" s="125"/>
+      <c r="D16" s="183" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="176" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="177"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="177"/>
+      <c r="Z16" s="177"/>
+      <c r="AA16" s="177"/>
+      <c r="AB16" s="177"/>
+      <c r="AC16" s="177"/>
+      <c r="AD16" s="177"/>
+      <c r="AE16" s="178"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="132"/>
+      <c r="AJ16" s="133"/>
     </row>
     <row r="17" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D17" s="182" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="184"/>
-      <c r="K17" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="153"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="153"/>
-      <c r="W17" s="153"/>
-      <c r="X17" s="153"/>
-      <c r="Y17" s="153"/>
-      <c r="Z17" s="153"/>
-      <c r="AA17" s="153"/>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="153"/>
-      <c r="AD17" s="153"/>
-      <c r="AE17" s="154"/>
-      <c r="AF17" s="129"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="124"/>
-      <c r="AI17" s="124"/>
-      <c r="AJ17" s="125"/>
+      <c r="D17" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="184"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="176" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="177"/>
+      <c r="U17" s="177"/>
+      <c r="V17" s="177"/>
+      <c r="W17" s="177"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="177"/>
+      <c r="Z17" s="177"/>
+      <c r="AA17" s="177"/>
+      <c r="AB17" s="177"/>
+      <c r="AC17" s="177"/>
+      <c r="AD17" s="177"/>
+      <c r="AE17" s="178"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="132"/>
+      <c r="AJ17" s="133"/>
     </row>
     <row r="18" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D18" s="182" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="184"/>
-      <c r="K18" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="153"/>
-      <c r="T18" s="153"/>
-      <c r="U18" s="153"/>
-      <c r="V18" s="153"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="153"/>
-      <c r="Z18" s="153"/>
-      <c r="AA18" s="153"/>
-      <c r="AB18" s="153"/>
-      <c r="AC18" s="153"/>
-      <c r="AD18" s="153"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="129"/>
-      <c r="AG18" s="124"/>
-      <c r="AH18" s="124"/>
-      <c r="AI18" s="124"/>
-      <c r="AJ18" s="125"/>
+      <c r="D18" s="183" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="176" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
+      <c r="S18" s="177"/>
+      <c r="T18" s="177"/>
+      <c r="U18" s="177"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
+      <c r="AD18" s="177"/>
+      <c r="AE18" s="178"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="132"/>
+      <c r="AJ18" s="133"/>
     </row>
     <row r="19" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="D19" s="182" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="184"/>
-      <c r="K19" s="152" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="153"/>
-      <c r="U19" s="153"/>
-      <c r="V19" s="153"/>
-      <c r="W19" s="153"/>
-      <c r="X19" s="153"/>
-      <c r="Y19" s="153"/>
-      <c r="Z19" s="153"/>
-      <c r="AA19" s="153"/>
-      <c r="AB19" s="153"/>
-      <c r="AC19" s="153"/>
-      <c r="AD19" s="153"/>
-      <c r="AE19" s="154"/>
-      <c r="AF19" s="129"/>
-      <c r="AG19" s="124"/>
-      <c r="AH19" s="124"/>
-      <c r="AI19" s="124"/>
-      <c r="AJ19" s="125"/>
+      <c r="D19" s="183" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="176" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="177"/>
+      <c r="M19" s="177"/>
+      <c r="N19" s="177"/>
+      <c r="O19" s="177"/>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="177"/>
+      <c r="S19" s="177"/>
+      <c r="T19" s="177"/>
+      <c r="U19" s="177"/>
+      <c r="V19" s="177"/>
+      <c r="W19" s="177"/>
+      <c r="X19" s="177"/>
+      <c r="Y19" s="177"/>
+      <c r="Z19" s="177"/>
+      <c r="AA19" s="177"/>
+      <c r="AB19" s="177"/>
+      <c r="AC19" s="177"/>
+      <c r="AD19" s="177"/>
+      <c r="AE19" s="178"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="132"/>
+      <c r="AJ19" s="133"/>
     </row>
     <row r="20" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="D20" s="182" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="184"/>
-      <c r="K20" s="152" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="153"/>
-      <c r="T20" s="153"/>
-      <c r="U20" s="153"/>
-      <c r="V20" s="153"/>
-      <c r="W20" s="153"/>
-      <c r="X20" s="153"/>
-      <c r="Y20" s="153"/>
-      <c r="Z20" s="153"/>
-      <c r="AA20" s="153"/>
-      <c r="AB20" s="153"/>
-      <c r="AC20" s="153"/>
-      <c r="AD20" s="153"/>
-      <c r="AE20" s="154"/>
-      <c r="AF20" s="129"/>
-      <c r="AG20" s="124"/>
-      <c r="AH20" s="124"/>
-      <c r="AI20" s="124"/>
-      <c r="AJ20" s="125"/>
+      <c r="D20" s="183" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="185"/>
+      <c r="K20" s="176" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
+      <c r="S20" s="177"/>
+      <c r="T20" s="177"/>
+      <c r="U20" s="177"/>
+      <c r="V20" s="177"/>
+      <c r="W20" s="177"/>
+      <c r="X20" s="177"/>
+      <c r="Y20" s="177"/>
+      <c r="Z20" s="177"/>
+      <c r="AA20" s="177"/>
+      <c r="AB20" s="177"/>
+      <c r="AC20" s="177"/>
+      <c r="AD20" s="177"/>
+      <c r="AE20" s="178"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="132"/>
+      <c r="AJ20" s="133"/>
     </row>
     <row r="21" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="D21" s="182" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="184"/>
-      <c r="K21" s="152" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="153"/>
-      <c r="T21" s="153"/>
-      <c r="U21" s="153"/>
-      <c r="V21" s="153"/>
-      <c r="W21" s="153"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="153"/>
-      <c r="Z21" s="153"/>
-      <c r="AA21" s="153"/>
-      <c r="AB21" s="153"/>
-      <c r="AC21" s="153"/>
-      <c r="AD21" s="153"/>
-      <c r="AE21" s="154"/>
-      <c r="AF21" s="129"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="124"/>
-      <c r="AJ21" s="125"/>
+      <c r="D21" s="183" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="176" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="S21" s="177"/>
+      <c r="T21" s="177"/>
+      <c r="U21" s="177"/>
+      <c r="V21" s="177"/>
+      <c r="W21" s="177"/>
+      <c r="X21" s="177"/>
+      <c r="Y21" s="177"/>
+      <c r="Z21" s="177"/>
+      <c r="AA21" s="177"/>
+      <c r="AB21" s="177"/>
+      <c r="AC21" s="177"/>
+      <c r="AD21" s="177"/>
+      <c r="AE21" s="178"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="132"/>
+      <c r="AJ21" s="133"/>
     </row>
     <row r="22" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="D22" s="182" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="152" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="153"/>
-      <c r="T22" s="153"/>
-      <c r="U22" s="153"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="153"/>
-      <c r="Z22" s="153"/>
-      <c r="AA22" s="153"/>
-      <c r="AB22" s="153"/>
-      <c r="AC22" s="153"/>
-      <c r="AD22" s="153"/>
-      <c r="AE22" s="154"/>
-      <c r="AF22" s="129"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="124"/>
-      <c r="AJ22" s="125"/>
+      <c r="D22" s="183" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="185"/>
+      <c r="K22" s="176" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="177"/>
+      <c r="S22" s="177"/>
+      <c r="T22" s="177"/>
+      <c r="U22" s="177"/>
+      <c r="V22" s="177"/>
+      <c r="W22" s="177"/>
+      <c r="X22" s="177"/>
+      <c r="Y22" s="177"/>
+      <c r="Z22" s="177"/>
+      <c r="AA22" s="177"/>
+      <c r="AB22" s="177"/>
+      <c r="AC22" s="177"/>
+      <c r="AD22" s="177"/>
+      <c r="AE22" s="178"/>
+      <c r="AF22" s="137"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="132"/>
+      <c r="AJ22" s="133"/>
     </row>
     <row r="23" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="D23" s="182" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="152" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="153"/>
-      <c r="T23" s="153"/>
-      <c r="U23" s="153"/>
-      <c r="V23" s="153"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153"/>
-      <c r="Y23" s="153"/>
-      <c r="Z23" s="153"/>
-      <c r="AA23" s="153"/>
-      <c r="AB23" s="153"/>
-      <c r="AC23" s="153"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="154"/>
-      <c r="AF23" s="129"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="124"/>
-      <c r="AJ23" s="125"/>
+      <c r="D23" s="183" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="176" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="177"/>
+      <c r="P23" s="177"/>
+      <c r="Q23" s="177"/>
+      <c r="R23" s="177"/>
+      <c r="S23" s="177"/>
+      <c r="T23" s="177"/>
+      <c r="U23" s="177"/>
+      <c r="V23" s="177"/>
+      <c r="W23" s="177"/>
+      <c r="X23" s="177"/>
+      <c r="Y23" s="177"/>
+      <c r="Z23" s="177"/>
+      <c r="AA23" s="177"/>
+      <c r="AB23" s="177"/>
+      <c r="AC23" s="177"/>
+      <c r="AD23" s="177"/>
+      <c r="AE23" s="178"/>
+      <c r="AF23" s="137"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="132"/>
+      <c r="AJ23" s="133"/>
     </row>
     <row r="24" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="D24" s="182" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="184"/>
-      <c r="K24" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="153"/>
-      <c r="T24" s="153"/>
-      <c r="U24" s="153"/>
-      <c r="V24" s="153"/>
-      <c r="W24" s="153"/>
-      <c r="X24" s="153"/>
-      <c r="Y24" s="153"/>
-      <c r="Z24" s="153"/>
-      <c r="AA24" s="153"/>
-      <c r="AB24" s="153"/>
-      <c r="AC24" s="153"/>
-      <c r="AD24" s="153"/>
-      <c r="AE24" s="154"/>
-      <c r="AF24" s="129"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="124"/>
-      <c r="AJ24" s="125"/>
+      <c r="D24" s="183" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="176" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" s="177"/>
+      <c r="M24" s="177"/>
+      <c r="N24" s="177"/>
+      <c r="O24" s="177"/>
+      <c r="P24" s="177"/>
+      <c r="Q24" s="177"/>
+      <c r="R24" s="177"/>
+      <c r="S24" s="177"/>
+      <c r="T24" s="177"/>
+      <c r="U24" s="177"/>
+      <c r="V24" s="177"/>
+      <c r="W24" s="177"/>
+      <c r="X24" s="177"/>
+      <c r="Y24" s="177"/>
+      <c r="Z24" s="177"/>
+      <c r="AA24" s="177"/>
+      <c r="AB24" s="177"/>
+      <c r="AC24" s="177"/>
+      <c r="AD24" s="177"/>
+      <c r="AE24" s="178"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="132"/>
+      <c r="AJ24" s="133"/>
     </row>
     <row r="25" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="D25" s="182" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="152" t="s">
-        <v>69</v>
-      </c>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="153"/>
-      <c r="T25" s="153"/>
-      <c r="U25" s="153"/>
-      <c r="V25" s="153"/>
-      <c r="W25" s="153"/>
-      <c r="X25" s="153"/>
-      <c r="Y25" s="153"/>
-      <c r="Z25" s="153"/>
-      <c r="AA25" s="153"/>
-      <c r="AB25" s="153"/>
-      <c r="AC25" s="153"/>
-      <c r="AD25" s="153"/>
-      <c r="AE25" s="154"/>
-      <c r="AF25" s="129"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="125"/>
+      <c r="D25" s="183" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="176" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="177"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="177"/>
+      <c r="T25" s="177"/>
+      <c r="U25" s="177"/>
+      <c r="V25" s="177"/>
+      <c r="W25" s="177"/>
+      <c r="X25" s="177"/>
+      <c r="Y25" s="177"/>
+      <c r="Z25" s="177"/>
+      <c r="AA25" s="177"/>
+      <c r="AB25" s="177"/>
+      <c r="AC25" s="177"/>
+      <c r="AD25" s="177"/>
+      <c r="AE25" s="178"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="132"/>
+      <c r="AJ25" s="133"/>
     </row>
     <row r="26" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="D26" s="182" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="184"/>
-      <c r="K26" s="152" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="153"/>
-      <c r="T26" s="153"/>
-      <c r="U26" s="153"/>
-      <c r="V26" s="153"/>
-      <c r="W26" s="153"/>
-      <c r="X26" s="153"/>
-      <c r="Y26" s="153"/>
-      <c r="Z26" s="153"/>
-      <c r="AA26" s="153"/>
-      <c r="AB26" s="153"/>
-      <c r="AC26" s="153"/>
-      <c r="AD26" s="153"/>
-      <c r="AE26" s="154"/>
-      <c r="AF26" s="129"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="124"/>
-      <c r="AJ26" s="125"/>
+      <c r="D26" s="183" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="176" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="177"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="177"/>
+      <c r="O26" s="177"/>
+      <c r="P26" s="177"/>
+      <c r="Q26" s="177"/>
+      <c r="R26" s="177"/>
+      <c r="S26" s="177"/>
+      <c r="T26" s="177"/>
+      <c r="U26" s="177"/>
+      <c r="V26" s="177"/>
+      <c r="W26" s="177"/>
+      <c r="X26" s="177"/>
+      <c r="Y26" s="177"/>
+      <c r="Z26" s="177"/>
+      <c r="AA26" s="177"/>
+      <c r="AB26" s="177"/>
+      <c r="AC26" s="177"/>
+      <c r="AD26" s="177"/>
+      <c r="AE26" s="178"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="132"/>
+      <c r="AJ26" s="133"/>
     </row>
     <row r="27" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="D27" s="182" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="184"/>
-      <c r="K27" s="152" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="153"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="153"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
-      <c r="Z27" s="153"/>
-      <c r="AA27" s="153"/>
-      <c r="AB27" s="153"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="154"/>
-      <c r="AF27" s="129"/>
-      <c r="AG27" s="124"/>
-      <c r="AH27" s="124"/>
-      <c r="AI27" s="124"/>
-      <c r="AJ27" s="125"/>
-    </row>
-    <row r="28" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="174" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="175"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="177"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="176"/>
-      <c r="N28" s="176"/>
-      <c r="O28" s="176"/>
-      <c r="P28" s="176"/>
-      <c r="Q28" s="176"/>
-      <c r="R28" s="176"/>
-      <c r="S28" s="176"/>
-      <c r="T28" s="176"/>
-      <c r="U28" s="176"/>
-      <c r="V28" s="176"/>
-      <c r="W28" s="176"/>
-      <c r="X28" s="176"/>
-      <c r="Y28" s="176"/>
-      <c r="Z28" s="176"/>
-      <c r="AA28" s="176"/>
-      <c r="AB28" s="176"/>
-      <c r="AC28" s="176"/>
-      <c r="AD28" s="176"/>
-      <c r="AE28" s="177"/>
-      <c r="AF28" s="178"/>
-      <c r="AG28" s="179"/>
-      <c r="AH28" s="179"/>
-      <c r="AI28" s="179"/>
-      <c r="AJ28" s="180"/>
-    </row>
-    <row r="29" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="73">
-        <f>C27+1</f>
+      <c r="D27" s="183" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="176" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="177"/>
+      <c r="M27" s="177"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="177"/>
+      <c r="P27" s="177"/>
+      <c r="Q27" s="177"/>
+      <c r="R27" s="177"/>
+      <c r="S27" s="177"/>
+      <c r="T27" s="177"/>
+      <c r="U27" s="177"/>
+      <c r="V27" s="177"/>
+      <c r="W27" s="177"/>
+      <c r="X27" s="177"/>
+      <c r="Y27" s="177"/>
+      <c r="Z27" s="177"/>
+      <c r="AA27" s="177"/>
+      <c r="AB27" s="177"/>
+      <c r="AC27" s="177"/>
+      <c r="AD27" s="177"/>
+      <c r="AE27" s="178"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="132"/>
+      <c r="AJ27" s="133"/>
+    </row>
+    <row r="28" spans="3:36" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="73">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="D29" s="182" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="152" t="s">
-        <v>75</v>
-      </c>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="153"/>
-      <c r="T29" s="153"/>
-      <c r="U29" s="153"/>
-      <c r="V29" s="153"/>
-      <c r="W29" s="153"/>
-      <c r="X29" s="153"/>
-      <c r="Y29" s="153"/>
-      <c r="Z29" s="153"/>
-      <c r="AA29" s="153"/>
-      <c r="AB29" s="153"/>
-      <c r="AC29" s="153"/>
-      <c r="AD29" s="153"/>
-      <c r="AE29" s="154"/>
-      <c r="AF29" s="129"/>
-      <c r="AG29" s="124"/>
-      <c r="AH29" s="124"/>
-      <c r="AI29" s="124"/>
-      <c r="AJ29" s="125"/>
+      <c r="D28" s="183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="176" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="177"/>
+      <c r="S28" s="177"/>
+      <c r="T28" s="177"/>
+      <c r="U28" s="177"/>
+      <c r="V28" s="177"/>
+      <c r="W28" s="177"/>
+      <c r="X28" s="177"/>
+      <c r="Y28" s="177"/>
+      <c r="Z28" s="177"/>
+      <c r="AA28" s="177"/>
+      <c r="AB28" s="177"/>
+      <c r="AC28" s="177"/>
+      <c r="AD28" s="177"/>
+      <c r="AE28" s="178"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="132"/>
+      <c r="AJ28" s="133"/>
+    </row>
+    <row r="29" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="77"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="80"/>
+      <c r="AG29" s="81"/>
+      <c r="AH29" s="81"/>
+      <c r="AI29" s="81"/>
+      <c r="AJ29" s="82"/>
     </row>
     <row r="30" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="73">
-        <f t="shared" ref="C29:C33" si="2">C29+1</f>
+        <f>C28+1</f>
         <v>21</v>
       </c>
-      <c r="D30" s="182" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="152" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="153"/>
-      <c r="R30" s="153"/>
-      <c r="S30" s="153"/>
-      <c r="T30" s="153"/>
-      <c r="U30" s="153"/>
-      <c r="V30" s="153"/>
-      <c r="W30" s="153"/>
-      <c r="X30" s="153"/>
-      <c r="Y30" s="153"/>
-      <c r="Z30" s="153"/>
-      <c r="AA30" s="153"/>
-      <c r="AB30" s="153"/>
-      <c r="AC30" s="153"/>
-      <c r="AD30" s="153"/>
-      <c r="AE30" s="154"/>
-      <c r="AF30" s="129"/>
-      <c r="AG30" s="124"/>
-      <c r="AH30" s="124"/>
-      <c r="AI30" s="124"/>
-      <c r="AJ30" s="125"/>
-    </row>
-    <row r="31" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="176" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="177"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="177"/>
+      <c r="O30" s="177"/>
+      <c r="P30" s="177"/>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="177"/>
+      <c r="S30" s="177"/>
+      <c r="T30" s="177"/>
+      <c r="U30" s="177"/>
+      <c r="V30" s="177"/>
+      <c r="W30" s="177"/>
+      <c r="X30" s="177"/>
+      <c r="Y30" s="177"/>
+      <c r="Z30" s="177"/>
+      <c r="AA30" s="177"/>
+      <c r="AB30" s="177"/>
+      <c r="AC30" s="177"/>
+      <c r="AD30" s="177"/>
+      <c r="AE30" s="178"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="132"/>
+      <c r="AJ30" s="133"/>
+    </row>
+    <row r="31" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="73">
-        <f t="shared" si="2"/>
+        <f>C30+1</f>
         <v>22</v>
       </c>
-      <c r="D31" s="182" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="152" t="s">
-        <v>79</v>
-      </c>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="153"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="153"/>
-      <c r="T31" s="153"/>
-      <c r="U31" s="153"/>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
-      <c r="X31" s="153"/>
-      <c r="Y31" s="153"/>
-      <c r="Z31" s="153"/>
-      <c r="AA31" s="153"/>
-      <c r="AB31" s="153"/>
-      <c r="AC31" s="153"/>
-      <c r="AD31" s="153"/>
-      <c r="AE31" s="154"/>
-      <c r="AF31" s="129"/>
-      <c r="AG31" s="124"/>
-      <c r="AH31" s="124"/>
-      <c r="AI31" s="124"/>
-      <c r="AJ31" s="125"/>
-    </row>
-    <row r="32" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="183" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="176" t="s">
+        <v>82</v>
+      </c>
+      <c r="L31" s="177"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="177"/>
+      <c r="S31" s="177"/>
+      <c r="T31" s="177"/>
+      <c r="U31" s="177"/>
+      <c r="V31" s="177"/>
+      <c r="W31" s="177"/>
+      <c r="X31" s="177"/>
+      <c r="Y31" s="177"/>
+      <c r="Z31" s="177"/>
+      <c r="AA31" s="177"/>
+      <c r="AB31" s="177"/>
+      <c r="AC31" s="177"/>
+      <c r="AD31" s="177"/>
+      <c r="AE31" s="178"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="132"/>
+      <c r="AJ31" s="133"/>
+    </row>
+    <row r="32" spans="3:36" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C32:C35" si="3">C31+1</f>
         <v>23</v>
       </c>
-      <c r="D32" s="182" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="183"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="152" t="s">
-        <v>81</v>
-      </c>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="153"/>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="153"/>
-      <c r="R32" s="153"/>
-      <c r="S32" s="153"/>
-      <c r="T32" s="153"/>
-      <c r="U32" s="153"/>
-      <c r="V32" s="153"/>
-      <c r="W32" s="153"/>
-      <c r="X32" s="153"/>
-      <c r="Y32" s="153"/>
-      <c r="Z32" s="153"/>
-      <c r="AA32" s="153"/>
-      <c r="AB32" s="153"/>
-      <c r="AC32" s="153"/>
-      <c r="AD32" s="153"/>
-      <c r="AE32" s="154"/>
-      <c r="AF32" s="129"/>
-      <c r="AG32" s="124"/>
-      <c r="AH32" s="124"/>
-      <c r="AI32" s="124"/>
-      <c r="AJ32" s="125"/>
+      <c r="D32" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="176" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="177"/>
+      <c r="S32" s="177"/>
+      <c r="T32" s="177"/>
+      <c r="U32" s="177"/>
+      <c r="V32" s="177"/>
+      <c r="W32" s="177"/>
+      <c r="X32" s="177"/>
+      <c r="Y32" s="177"/>
+      <c r="Z32" s="177"/>
+      <c r="AA32" s="177"/>
+      <c r="AB32" s="177"/>
+      <c r="AC32" s="177"/>
+      <c r="AD32" s="177"/>
+      <c r="AE32" s="178"/>
+      <c r="AF32" s="137"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="132"/>
+      <c r="AJ32" s="133"/>
     </row>
     <row r="33" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="D33" s="182" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="152" t="s">
-        <v>83</v>
-      </c>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="153"/>
-      <c r="P33" s="153"/>
-      <c r="Q33" s="153"/>
-      <c r="R33" s="153"/>
-      <c r="S33" s="153"/>
-      <c r="T33" s="153"/>
-      <c r="U33" s="153"/>
-      <c r="V33" s="153"/>
-      <c r="W33" s="153"/>
-      <c r="X33" s="153"/>
-      <c r="Y33" s="153"/>
-      <c r="Z33" s="153"/>
-      <c r="AA33" s="153"/>
-      <c r="AB33" s="153"/>
-      <c r="AC33" s="153"/>
-      <c r="AD33" s="153"/>
-      <c r="AE33" s="154"/>
-      <c r="AF33" s="129"/>
-      <c r="AG33" s="124"/>
-      <c r="AH33" s="124"/>
-      <c r="AI33" s="124"/>
-      <c r="AJ33" s="125"/>
-    </row>
-    <row r="34" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D33" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="176" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" s="177"/>
+      <c r="M33" s="177"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="177"/>
+      <c r="S33" s="177"/>
+      <c r="T33" s="177"/>
+      <c r="U33" s="177"/>
+      <c r="V33" s="177"/>
+      <c r="W33" s="177"/>
+      <c r="X33" s="177"/>
+      <c r="Y33" s="177"/>
+      <c r="Z33" s="177"/>
+      <c r="AA33" s="177"/>
+      <c r="AB33" s="177"/>
+      <c r="AC33" s="177"/>
+      <c r="AD33" s="177"/>
+      <c r="AE33" s="178"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="132"/>
+      <c r="AJ33" s="133"/>
+    </row>
+    <row r="34" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="73">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D34" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="184"/>
+      <c r="J34" s="185"/>
+      <c r="K34" s="176" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34" s="177"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="177"/>
+      <c r="O34" s="177"/>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="177"/>
+      <c r="R34" s="177"/>
+      <c r="S34" s="177"/>
+      <c r="T34" s="177"/>
+      <c r="U34" s="177"/>
+      <c r="V34" s="177"/>
+      <c r="W34" s="177"/>
+      <c r="X34" s="177"/>
+      <c r="Y34" s="177"/>
+      <c r="Z34" s="177"/>
+      <c r="AA34" s="177"/>
+      <c r="AB34" s="177"/>
+      <c r="AC34" s="177"/>
+      <c r="AD34" s="177"/>
+      <c r="AE34" s="178"/>
+      <c r="AF34" s="137"/>
+      <c r="AG34" s="132"/>
+      <c r="AH34" s="132"/>
+      <c r="AI34" s="132"/>
+      <c r="AJ34" s="133"/>
+    </row>
+    <row r="35" spans="3:36" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="73">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="D35" s="183" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="184"/>
+      <c r="J35" s="185"/>
+      <c r="K35" s="176" t="s">
+        <v>80</v>
+      </c>
+      <c r="L35" s="177"/>
+      <c r="M35" s="177"/>
+      <c r="N35" s="177"/>
+      <c r="O35" s="177"/>
+      <c r="P35" s="177"/>
+      <c r="Q35" s="177"/>
+      <c r="R35" s="177"/>
+      <c r="S35" s="177"/>
+      <c r="T35" s="177"/>
+      <c r="U35" s="177"/>
+      <c r="V35" s="177"/>
+      <c r="W35" s="177"/>
+      <c r="X35" s="177"/>
+      <c r="Y35" s="177"/>
+      <c r="Z35" s="177"/>
+      <c r="AA35" s="177"/>
+      <c r="AB35" s="177"/>
+      <c r="AC35" s="177"/>
+      <c r="AD35" s="177"/>
+      <c r="AE35" s="178"/>
+      <c r="AF35" s="137"/>
+      <c r="AG35" s="132"/>
+      <c r="AH35" s="132"/>
+      <c r="AI35" s="132"/>
+      <c r="AJ35" s="133"/>
+    </row>
     <row r="36" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7193,20 +7311,28 @@
     <row r="47" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="98">
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:AE35"/>
+    <mergeCell ref="AF35:AJ35"/>
     <mergeCell ref="D33:J33"/>
     <mergeCell ref="K33:AE33"/>
     <mergeCell ref="AF33:AJ33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:AE34"/>
+    <mergeCell ref="AF34:AJ34"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:AE32"/>
+    <mergeCell ref="AF32:AJ32"/>
     <mergeCell ref="D31:J31"/>
     <mergeCell ref="K31:AE31"/>
     <mergeCell ref="AF31:AJ31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:AE32"/>
-    <mergeCell ref="AF32:AJ32"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:AE29"/>
-    <mergeCell ref="AF29:AJ29"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:AE28"/>
+    <mergeCell ref="AF28:AJ28"/>
     <mergeCell ref="D30:J30"/>
     <mergeCell ref="K30:AE30"/>
     <mergeCell ref="AF30:AJ30"/>
@@ -7246,30 +7372,30 @@
     <mergeCell ref="D17:J17"/>
     <mergeCell ref="K17:AE17"/>
     <mergeCell ref="AF17:AJ17"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="K14:AE14"/>
-    <mergeCell ref="AF14:AJ14"/>
     <mergeCell ref="D15:J15"/>
     <mergeCell ref="K15:AE15"/>
     <mergeCell ref="AF15:AJ15"/>
+    <mergeCell ref="D10:J10"/>
     <mergeCell ref="K10:AE10"/>
     <mergeCell ref="AF10:AJ10"/>
-    <mergeCell ref="AF7:AJ7"/>
-    <mergeCell ref="AF8:AJ8"/>
+    <mergeCell ref="AF13:AJ13"/>
+    <mergeCell ref="K12:AE12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="K13:AE13"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:AE11"/>
     <mergeCell ref="AF11:AJ11"/>
-    <mergeCell ref="AF9:AJ9"/>
-    <mergeCell ref="AF12:AJ12"/>
-    <mergeCell ref="K11:AE11"/>
-    <mergeCell ref="K9:AE9"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:AE12"/>
-    <mergeCell ref="D10:J10"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="K7:AE7"/>
     <mergeCell ref="K8:AE8"/>
+    <mergeCell ref="AF7:AJ7"/>
+    <mergeCell ref="AF8:AJ8"/>
+    <mergeCell ref="AF12:AJ12"/>
+    <mergeCell ref="AF9:AJ9"/>
+    <mergeCell ref="K9:AE9"/>
+    <mergeCell ref="D9:J9"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AC3:AD3"/>
